--- a/Grade 2018/ProjectScores/NIIT-Project-Score-YC-2018.xlsx
+++ b/Grade 2018/ProjectScores/NIIT-Project-Score-YC-2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\Sept 2020 - Jan 2021\Grade 2018\ProjectScores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NIIT\NIIT教案\Sept-2020---Jan-2021\Grade 2018\ProjectScores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56884A2C-FB2B-47DB-A19B-8BDCD54FAA21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A144B9-ABAC-4C9A-8D16-62E30123E4D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CS1" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="392">
   <si>
     <t>Trainer</t>
   </si>
@@ -1177,6 +1177,42 @@
   </si>
   <si>
     <t>张杰</t>
+  </si>
+  <si>
+    <t>Compliance standards and process(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周琦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网上购物商城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>考试门户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生反馈系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐厅管理系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生管理系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>医院管理系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物门户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1184,26 +1220,26 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="176" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1231,6 +1267,19 @@
       <sz val="14"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1344,7 +1393,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1373,13 +1422,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1391,17 +1440,17 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1410,15 +1459,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1433,10 +1473,28 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2001,87 +2059,87 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="69.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="69.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
     <col min="3" max="4" width="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.21875" customWidth="1"/>
-    <col min="7" max="7" width="24.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="47.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.5546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="23.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="99.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="23.21875" style="1" customWidth="1"/>
-    <col min="16" max="25" width="69.88671875" style="1"/>
+    <col min="6" max="6" width="31.25" customWidth="1"/>
+    <col min="7" max="7" width="24.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="47.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="99.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="23.25" style="1" customWidth="1"/>
+    <col min="16" max="25" width="69.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17.399999999999999">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:15" ht="18">
+    <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
       <c r="N2" s="3"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:15" ht="17.399999999999999">
+    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="12"/>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
       <c r="L3" s="14"/>
       <c r="M3" s="13"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" ht="17.399999999999999">
+    <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
@@ -2128,7 +2186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18">
+    <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="16">
         <v>1</v>
       </c>
@@ -2141,7 +2199,7 @@
       <c r="D5" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="E5" s="23"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="20"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -2156,7 +2214,7 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="18">
+    <row r="6" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="16">
         <v>2</v>
       </c>
@@ -2169,7 +2227,7 @@
       <c r="D6" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="E6" s="24"/>
+      <c r="E6" s="18"/>
       <c r="F6" s="21"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -2184,7 +2242,7 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="18">
+    <row r="7" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A7" s="16">
         <v>3</v>
       </c>
@@ -2197,7 +2255,7 @@
       <c r="D7" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="21"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -2212,7 +2270,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="18">
+    <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A8" s="16">
         <v>4</v>
       </c>
@@ -2225,7 +2283,7 @@
       <c r="D8" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="22"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -2240,7 +2298,7 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="18">
+    <row r="9" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A9" s="16">
         <v>5</v>
       </c>
@@ -2253,7 +2311,7 @@
       <c r="D9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="23"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="20"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -2268,7 +2326,7 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="18">
+    <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A10" s="16">
         <v>6</v>
       </c>
@@ -2281,7 +2339,7 @@
       <c r="D10" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="E10" s="24"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="21"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -2296,7 +2354,7 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="18">
+    <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A11" s="16">
         <v>7</v>
       </c>
@@ -2309,7 +2367,7 @@
       <c r="D11" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="E11" s="24"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="21"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -2324,7 +2382,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="18">
+    <row r="12" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A12" s="16">
         <v>8</v>
       </c>
@@ -2337,7 +2395,7 @@
       <c r="D12" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="25"/>
+      <c r="E12" s="19"/>
       <c r="F12" s="22"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -2352,7 +2410,7 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="18">
+    <row r="13" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A13" s="16">
         <v>9</v>
       </c>
@@ -2365,7 +2423,7 @@
       <c r="D13" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="E13" s="23"/>
+      <c r="E13" s="17"/>
       <c r="F13" s="20"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -2380,7 +2438,7 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="18">
+    <row r="14" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A14" s="16">
         <v>10</v>
       </c>
@@ -2393,7 +2451,7 @@
       <c r="D14" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="E14" s="24"/>
+      <c r="E14" s="18"/>
       <c r="F14" s="21"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -2408,7 +2466,7 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="18">
+    <row r="15" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A15" s="16">
         <v>11</v>
       </c>
@@ -2421,7 +2479,7 @@
       <c r="D15" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E15" s="24"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="21"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -2436,7 +2494,7 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="18">
+    <row r="16" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A16" s="16">
         <v>12</v>
       </c>
@@ -2449,7 +2507,7 @@
       <c r="D16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="25"/>
+      <c r="E16" s="19"/>
       <c r="F16" s="22"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -2464,7 +2522,7 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="18">
+    <row r="17" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A17" s="16">
         <v>13</v>
       </c>
@@ -2477,7 +2535,7 @@
       <c r="D17" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E17" s="23"/>
+      <c r="E17" s="17"/>
       <c r="F17" s="20"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -2492,7 +2550,7 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="18">
+    <row r="18" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A18" s="16">
         <v>14</v>
       </c>
@@ -2505,7 +2563,7 @@
       <c r="D18" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="E18" s="24"/>
+      <c r="E18" s="18"/>
       <c r="F18" s="21"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -2520,7 +2578,7 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="18">
+    <row r="19" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A19" s="16">
         <v>15</v>
       </c>
@@ -2533,7 +2591,7 @@
       <c r="D19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="24"/>
+      <c r="E19" s="18"/>
       <c r="F19" s="21"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -2548,7 +2606,7 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="18">
+    <row r="20" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A20" s="16">
         <v>16</v>
       </c>
@@ -2561,7 +2619,7 @@
       <c r="D20" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="E20" s="25"/>
+      <c r="E20" s="19"/>
       <c r="F20" s="22"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -2576,7 +2634,7 @@
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="18">
+    <row r="21" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A21" s="16">
         <v>17</v>
       </c>
@@ -2589,7 +2647,7 @@
       <c r="D21" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="23"/>
+      <c r="E21" s="17"/>
       <c r="F21" s="20"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -2604,7 +2662,7 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="18">
+    <row r="22" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A22" s="16">
         <v>18</v>
       </c>
@@ -2617,7 +2675,7 @@
       <c r="D22" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E22" s="24"/>
+      <c r="E22" s="18"/>
       <c r="F22" s="21"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -2632,7 +2690,7 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="18">
+    <row r="23" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A23" s="16">
         <v>19</v>
       </c>
@@ -2645,7 +2703,7 @@
       <c r="D23" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="24"/>
+      <c r="E23" s="18"/>
       <c r="F23" s="21"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -2660,7 +2718,7 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="18">
+    <row r="24" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A24" s="16">
         <v>20</v>
       </c>
@@ -2673,7 +2731,7 @@
       <c r="D24" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="E24" s="25"/>
+      <c r="E24" s="19"/>
       <c r="F24" s="22"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -2688,7 +2746,7 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="18">
+    <row r="25" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A25" s="16">
         <v>21</v>
       </c>
@@ -2701,7 +2759,7 @@
       <c r="D25" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="23"/>
+      <c r="E25" s="17"/>
       <c r="F25" s="20"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -2716,7 +2774,7 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="18">
+    <row r="26" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A26" s="16">
         <v>22</v>
       </c>
@@ -2729,7 +2787,7 @@
       <c r="D26" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="24"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="21"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -2744,7 +2802,7 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="18">
+    <row r="27" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A27" s="16">
         <v>23</v>
       </c>
@@ -2757,7 +2815,7 @@
       <c r="D27" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E27" s="24"/>
+      <c r="E27" s="18"/>
       <c r="F27" s="21"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -2772,7 +2830,7 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="18">
+    <row r="28" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A28" s="16">
         <v>24</v>
       </c>
@@ -2785,7 +2843,7 @@
       <c r="D28" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="E28" s="25"/>
+      <c r="E28" s="19"/>
       <c r="F28" s="22"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -2800,7 +2858,7 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="18">
+    <row r="29" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A29" s="16">
         <v>25</v>
       </c>
@@ -2813,7 +2871,7 @@
       <c r="D29" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="E29" s="23"/>
+      <c r="E29" s="17"/>
       <c r="F29" s="20"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -2828,7 +2886,7 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="18">
+    <row r="30" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A30" s="16">
         <v>26</v>
       </c>
@@ -2841,7 +2899,7 @@
       <c r="D30" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="E30" s="24"/>
+      <c r="E30" s="18"/>
       <c r="F30" s="21"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
@@ -2856,7 +2914,7 @@
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="18">
+    <row r="31" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A31" s="16">
         <v>27</v>
       </c>
@@ -2869,7 +2927,7 @@
       <c r="D31" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="E31" s="24"/>
+      <c r="E31" s="18"/>
       <c r="F31" s="21"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
@@ -2884,7 +2942,7 @@
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="18">
+    <row r="32" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A32" s="16">
         <v>28</v>
       </c>
@@ -2897,7 +2955,7 @@
       <c r="D32" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="E32" s="25"/>
+      <c r="E32" s="19"/>
       <c r="F32" s="22"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
@@ -2912,7 +2970,7 @@
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="18">
+    <row r="33" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A33" s="16">
         <v>29</v>
       </c>
@@ -2925,7 +2983,7 @@
       <c r="D33" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="E33" s="23"/>
+      <c r="E33" s="17"/>
       <c r="F33" s="20"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
@@ -2940,7 +2998,7 @@
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="18">
+    <row r="34" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A34" s="16">
         <v>30</v>
       </c>
@@ -2953,7 +3011,7 @@
       <c r="D34" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="24"/>
+      <c r="E34" s="18"/>
       <c r="F34" s="21"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
@@ -2968,7 +3026,7 @@
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="18">
+    <row r="35" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A35" s="16">
         <v>31</v>
       </c>
@@ -2981,7 +3039,7 @@
       <c r="D35" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="E35" s="24"/>
+      <c r="E35" s="18"/>
       <c r="F35" s="21"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
@@ -2996,7 +3054,7 @@
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="18">
+    <row r="36" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A36" s="16">
         <v>32</v>
       </c>
@@ -3009,7 +3067,7 @@
       <c r="D36" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="E36" s="25"/>
+      <c r="E36" s="19"/>
       <c r="F36" s="22"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
@@ -3024,7 +3082,7 @@
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="18">
+    <row r="37" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A37" s="16">
         <v>33</v>
       </c>
@@ -3037,7 +3095,7 @@
       <c r="D37" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="23"/>
+      <c r="E37" s="17"/>
       <c r="F37" s="20"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
@@ -3052,7 +3110,7 @@
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="18">
+    <row r="38" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A38" s="16">
         <v>34</v>
       </c>
@@ -3065,7 +3123,7 @@
       <c r="D38" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="24"/>
+      <c r="E38" s="18"/>
       <c r="F38" s="21"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
@@ -3080,7 +3138,7 @@
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="18">
+    <row r="39" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A39" s="16">
         <v>35</v>
       </c>
@@ -3093,7 +3151,7 @@
       <c r="D39" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="24"/>
+      <c r="E39" s="18"/>
       <c r="F39" s="21"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
@@ -3108,7 +3166,7 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="18">
+    <row r="40" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A40" s="16">
         <v>36</v>
       </c>
@@ -3121,7 +3179,7 @@
       <c r="D40" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="E40" s="25"/>
+      <c r="E40" s="19"/>
       <c r="F40" s="22"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -3136,7 +3194,7 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="18">
+    <row r="41" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A41" s="16">
         <v>37</v>
       </c>
@@ -3149,7 +3207,7 @@
       <c r="D41" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="E41" s="23"/>
+      <c r="E41" s="17"/>
       <c r="F41" s="20"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -3164,7 +3222,7 @@
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="18">
+    <row r="42" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A42" s="16">
         <v>38</v>
       </c>
@@ -3177,7 +3235,7 @@
       <c r="D42" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="24"/>
+      <c r="E42" s="18"/>
       <c r="F42" s="21"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
@@ -3192,7 +3250,7 @@
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="18">
+    <row r="43" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A43" s="16">
         <v>39</v>
       </c>
@@ -3205,7 +3263,7 @@
       <c r="D43" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E43" s="24"/>
+      <c r="E43" s="18"/>
       <c r="F43" s="21"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
@@ -3220,7 +3278,7 @@
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="18">
+    <row r="44" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A44" s="16">
         <v>40</v>
       </c>
@@ -3233,7 +3291,7 @@
       <c r="D44" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="25"/>
+      <c r="E44" s="19"/>
       <c r="F44" s="22"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
@@ -3248,7 +3306,7 @@
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="18">
+    <row r="45" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A45" s="16">
         <v>41</v>
       </c>
@@ -3261,7 +3319,7 @@
       <c r="D45" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="E45" s="23"/>
+      <c r="E45" s="17"/>
       <c r="F45" s="20"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
@@ -3276,7 +3334,7 @@
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="18">
+    <row r="46" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A46" s="16">
         <v>42</v>
       </c>
@@ -3289,7 +3347,7 @@
       <c r="D46" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E46" s="24"/>
+      <c r="E46" s="18"/>
       <c r="F46" s="21"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
@@ -3304,7 +3362,7 @@
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="18">
+    <row r="47" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A47" s="16">
         <v>43</v>
       </c>
@@ -3317,7 +3375,7 @@
       <c r="D47" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E47" s="24"/>
+      <c r="E47" s="18"/>
       <c r="F47" s="21"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
@@ -3332,7 +3390,7 @@
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="18">
+    <row r="48" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A48" s="16">
         <v>44</v>
       </c>
@@ -3345,7 +3403,7 @@
       <c r="D48" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="E48" s="25"/>
+      <c r="E48" s="19"/>
       <c r="F48" s="22"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
@@ -3360,7 +3418,7 @@
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="18">
+    <row r="49" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A49" s="16">
         <v>45</v>
       </c>
@@ -3373,7 +3431,7 @@
       <c r="D49" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="E49" s="23"/>
+      <c r="E49" s="17"/>
       <c r="F49" s="20"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -3388,7 +3446,7 @@
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="18">
+    <row r="50" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A50" s="16">
         <v>46</v>
       </c>
@@ -3401,7 +3459,7 @@
       <c r="D50" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E50" s="24"/>
+      <c r="E50" s="18"/>
       <c r="F50" s="21"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
@@ -3416,7 +3474,7 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="18">
+    <row r="51" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A51" s="16">
         <v>47</v>
       </c>
@@ -3429,7 +3487,7 @@
       <c r="D51" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E51" s="25"/>
+      <c r="E51" s="19"/>
       <c r="F51" s="22"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
@@ -3446,6 +3504,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="E41:E44"/>
+    <mergeCell ref="F41:F44"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="F29:F32"/>
     <mergeCell ref="E45:E48"/>
     <mergeCell ref="F45:F48"/>
     <mergeCell ref="E49:E51"/>
@@ -3462,19 +3533,6 @@
     <mergeCell ref="E33:E36"/>
     <mergeCell ref="F33:F36"/>
     <mergeCell ref="E37:E40"/>
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="E41:E44"/>
-    <mergeCell ref="F41:F44"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="F29:F32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3487,91 +3545,91 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038B131F-D792-4139-B043-4935419628EC}">
   <dimension ref="A1:Y52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="69.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="69.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.109375" customWidth="1"/>
-    <col min="7" max="7" width="24.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="47.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.5546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="99.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="23.21875" style="1" customWidth="1"/>
-    <col min="16" max="25" width="69.88671875" style="1"/>
+    <col min="6" max="6" width="32.125" customWidth="1"/>
+    <col min="7" max="7" width="24.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="47.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="99.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="23.25" style="1" customWidth="1"/>
+    <col min="16" max="25" width="69.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17.399999999999999">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:15" ht="18">
+    <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
       <c r="N2" s="3"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:15" ht="17.399999999999999">
+    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="12"/>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
       <c r="L3" s="14"/>
       <c r="M3" s="13"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" ht="17.399999999999999">
+    <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
@@ -3618,7 +3676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18">
+    <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="16">
         <v>1</v>
       </c>
@@ -3631,7 +3689,7 @@
       <c r="D5" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="E5" s="23"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="20"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -3646,7 +3704,7 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="18">
+    <row r="6" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="16">
         <v>2</v>
       </c>
@@ -3659,7 +3717,7 @@
       <c r="D6" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="E6" s="24"/>
+      <c r="E6" s="18"/>
       <c r="F6" s="21"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -3674,7 +3732,7 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="18">
+    <row r="7" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A7" s="16">
         <v>3</v>
       </c>
@@ -3687,7 +3745,7 @@
       <c r="D7" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="21"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -3702,7 +3760,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="18">
+    <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A8" s="16">
         <v>4</v>
       </c>
@@ -3715,7 +3773,7 @@
       <c r="D8" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="22"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -3730,7 +3788,7 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="18">
+    <row r="9" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A9" s="16">
         <v>5</v>
       </c>
@@ -3743,7 +3801,7 @@
       <c r="D9" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="E9" s="23"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="20"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -3758,7 +3816,7 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="18">
+    <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A10" s="16">
         <v>6</v>
       </c>
@@ -3771,7 +3829,7 @@
       <c r="D10" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="E10" s="24"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="21"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -3786,7 +3844,7 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="18">
+    <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A11" s="16">
         <v>7</v>
       </c>
@@ -3799,7 +3857,7 @@
       <c r="D11" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="24"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="21"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -3814,7 +3872,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="18">
+    <row r="12" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A12" s="16">
         <v>8</v>
       </c>
@@ -3827,7 +3885,7 @@
       <c r="D12" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="E12" s="25"/>
+      <c r="E12" s="19"/>
       <c r="F12" s="22"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -3842,7 +3900,7 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="18">
+    <row r="13" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A13" s="16">
         <v>9</v>
       </c>
@@ -3855,7 +3913,7 @@
       <c r="D13" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E13" s="23"/>
+      <c r="E13" s="17"/>
       <c r="F13" s="20"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -3870,7 +3928,7 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="18">
+    <row r="14" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A14" s="16">
         <v>10</v>
       </c>
@@ -3883,7 +3941,7 @@
       <c r="D14" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="E14" s="24"/>
+      <c r="E14" s="18"/>
       <c r="F14" s="21"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -3898,7 +3956,7 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="18">
+    <row r="15" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A15" s="16">
         <v>11</v>
       </c>
@@ -3911,7 +3969,7 @@
       <c r="D15" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="E15" s="24"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="21"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -3926,7 +3984,7 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="18">
+    <row r="16" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A16" s="16">
         <v>12</v>
       </c>
@@ -3939,7 +3997,7 @@
       <c r="D16" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="E16" s="25"/>
+      <c r="E16" s="19"/>
       <c r="F16" s="22"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -3954,7 +4012,7 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="18">
+    <row r="17" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A17" s="16">
         <v>13</v>
       </c>
@@ -3967,7 +4025,7 @@
       <c r="D17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="23"/>
+      <c r="E17" s="17"/>
       <c r="F17" s="20"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -3982,7 +4040,7 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="18">
+    <row r="18" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A18" s="16">
         <v>14</v>
       </c>
@@ -3995,7 +4053,7 @@
       <c r="D18" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="24"/>
+      <c r="E18" s="18"/>
       <c r="F18" s="21"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -4010,7 +4068,7 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="18">
+    <row r="19" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A19" s="16">
         <v>15</v>
       </c>
@@ -4023,7 +4081,7 @@
       <c r="D19" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="E19" s="24"/>
+      <c r="E19" s="18"/>
       <c r="F19" s="21"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -4038,7 +4096,7 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="18">
+    <row r="20" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A20" s="16">
         <v>16</v>
       </c>
@@ -4051,7 +4109,7 @@
       <c r="D20" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="E20" s="25"/>
+      <c r="E20" s="19"/>
       <c r="F20" s="22"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -4066,7 +4124,7 @@
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="18">
+    <row r="21" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A21" s="16">
         <v>17</v>
       </c>
@@ -4079,7 +4137,7 @@
       <c r="D21" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="E21" s="23"/>
+      <c r="E21" s="17"/>
       <c r="F21" s="20"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -4094,7 +4152,7 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="18">
+    <row r="22" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A22" s="16">
         <v>18</v>
       </c>
@@ -4107,7 +4165,7 @@
       <c r="D22" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E22" s="24"/>
+      <c r="E22" s="18"/>
       <c r="F22" s="21"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -4122,7 +4180,7 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="18">
+    <row r="23" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A23" s="16">
         <v>19</v>
       </c>
@@ -4135,7 +4193,7 @@
       <c r="D23" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E23" s="24"/>
+      <c r="E23" s="18"/>
       <c r="F23" s="21"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -4150,7 +4208,7 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="18">
+    <row r="24" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A24" s="16">
         <v>20</v>
       </c>
@@ -4163,7 +4221,7 @@
       <c r="D24" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E24" s="25"/>
+      <c r="E24" s="19"/>
       <c r="F24" s="22"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -4178,7 +4236,7 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="18">
+    <row r="25" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A25" s="16">
         <v>21</v>
       </c>
@@ -4191,7 +4249,7 @@
       <c r="D25" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E25" s="23"/>
+      <c r="E25" s="17"/>
       <c r="F25" s="20"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -4206,7 +4264,7 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="18">
+    <row r="26" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A26" s="16">
         <v>22</v>
       </c>
@@ -4219,7 +4277,7 @@
       <c r="D26" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E26" s="24"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="21"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -4234,7 +4292,7 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="18">
+    <row r="27" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A27" s="16">
         <v>23</v>
       </c>
@@ -4247,7 +4305,7 @@
       <c r="D27" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E27" s="24"/>
+      <c r="E27" s="18"/>
       <c r="F27" s="21"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -4262,7 +4320,7 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="18">
+    <row r="28" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A28" s="16">
         <v>24</v>
       </c>
@@ -4275,7 +4333,7 @@
       <c r="D28" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E28" s="25"/>
+      <c r="E28" s="19"/>
       <c r="F28" s="22"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -4290,7 +4348,7 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="18">
+    <row r="29" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A29" s="16">
         <v>25</v>
       </c>
@@ -4303,7 +4361,7 @@
       <c r="D29" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="E29" s="23"/>
+      <c r="E29" s="17"/>
       <c r="F29" s="20"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -4318,7 +4376,7 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="18">
+    <row r="30" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A30" s="16">
         <v>26</v>
       </c>
@@ -4331,7 +4389,7 @@
       <c r="D30" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="24"/>
+      <c r="E30" s="18"/>
       <c r="F30" s="21"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
@@ -4346,7 +4404,7 @@
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="18">
+    <row r="31" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A31" s="16">
         <v>27</v>
       </c>
@@ -4359,7 +4417,7 @@
       <c r="D31" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E31" s="24"/>
+      <c r="E31" s="18"/>
       <c r="F31" s="21"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
@@ -4374,7 +4432,7 @@
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="18">
+    <row r="32" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A32" s="16">
         <v>28</v>
       </c>
@@ -4387,7 +4445,7 @@
       <c r="D32" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E32" s="25"/>
+      <c r="E32" s="19"/>
       <c r="F32" s="22"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
@@ -4402,7 +4460,7 @@
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="18">
+    <row r="33" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A33" s="16">
         <v>29</v>
       </c>
@@ -4415,7 +4473,7 @@
       <c r="D33" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E33" s="23"/>
+      <c r="E33" s="17"/>
       <c r="F33" s="20"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
@@ -4430,7 +4488,7 @@
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="18">
+    <row r="34" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A34" s="16">
         <v>30</v>
       </c>
@@ -4443,7 +4501,7 @@
       <c r="D34" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E34" s="24"/>
+      <c r="E34" s="18"/>
       <c r="F34" s="21"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
@@ -4458,7 +4516,7 @@
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="18">
+    <row r="35" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A35" s="16">
         <v>31</v>
       </c>
@@ -4471,7 +4529,7 @@
       <c r="D35" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="E35" s="24"/>
+      <c r="E35" s="18"/>
       <c r="F35" s="21"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
@@ -4486,7 +4544,7 @@
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="18">
+    <row r="36" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A36" s="16">
         <v>32</v>
       </c>
@@ -4499,7 +4557,7 @@
       <c r="D36" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="E36" s="25"/>
+      <c r="E36" s="19"/>
       <c r="F36" s="22"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
@@ -4514,7 +4572,7 @@
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="18">
+    <row r="37" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A37" s="16">
         <v>33</v>
       </c>
@@ -4527,7 +4585,7 @@
       <c r="D37" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E37" s="23"/>
+      <c r="E37" s="17"/>
       <c r="F37" s="20"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
@@ -4542,7 +4600,7 @@
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="18">
+    <row r="38" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A38" s="16">
         <v>34</v>
       </c>
@@ -4555,7 +4613,7 @@
       <c r="D38" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="E38" s="24"/>
+      <c r="E38" s="18"/>
       <c r="F38" s="21"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
@@ -4570,7 +4628,7 @@
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="18">
+    <row r="39" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A39" s="16">
         <v>35</v>
       </c>
@@ -4583,7 +4641,7 @@
       <c r="D39" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E39" s="24"/>
+      <c r="E39" s="18"/>
       <c r="F39" s="21"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
@@ -4598,7 +4656,7 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="18">
+    <row r="40" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A40" s="16">
         <v>36</v>
       </c>
@@ -4611,7 +4669,7 @@
       <c r="D40" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E40" s="25"/>
+      <c r="E40" s="19"/>
       <c r="F40" s="22"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -4626,7 +4684,7 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="18">
+    <row r="41" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A41" s="16">
         <v>37</v>
       </c>
@@ -4639,7 +4697,7 @@
       <c r="D41" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="E41" s="23"/>
+      <c r="E41" s="17"/>
       <c r="F41" s="20"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -4654,7 +4712,7 @@
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="18">
+    <row r="42" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A42" s="16">
         <v>38</v>
       </c>
@@ -4667,7 +4725,7 @@
       <c r="D42" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="E42" s="24"/>
+      <c r="E42" s="18"/>
       <c r="F42" s="21"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
@@ -4682,7 +4740,7 @@
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="18">
+    <row r="43" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A43" s="16">
         <v>39</v>
       </c>
@@ -4695,7 +4753,7 @@
       <c r="D43" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E43" s="24"/>
+      <c r="E43" s="18"/>
       <c r="F43" s="21"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
@@ -4710,7 +4768,7 @@
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="18">
+    <row r="44" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A44" s="16">
         <v>40</v>
       </c>
@@ -4723,7 +4781,7 @@
       <c r="D44" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E44" s="25"/>
+      <c r="E44" s="19"/>
       <c r="F44" s="22"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
@@ -4738,7 +4796,7 @@
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="18">
+    <row r="45" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A45" s="16">
         <v>41</v>
       </c>
@@ -4751,7 +4809,7 @@
       <c r="D45" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E45" s="23"/>
+      <c r="E45" s="17"/>
       <c r="F45" s="20"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
@@ -4766,7 +4824,7 @@
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="18">
+    <row r="46" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A46" s="16">
         <v>42</v>
       </c>
@@ -4779,7 +4837,7 @@
       <c r="D46" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E46" s="24"/>
+      <c r="E46" s="18"/>
       <c r="F46" s="21"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
@@ -4794,7 +4852,7 @@
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="18">
+    <row r="47" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A47" s="16">
         <v>43</v>
       </c>
@@ -4807,7 +4865,7 @@
       <c r="D47" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="E47" s="24"/>
+      <c r="E47" s="18"/>
       <c r="F47" s="21"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
@@ -4822,7 +4880,7 @@
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="18">
+    <row r="48" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A48" s="16">
         <v>44</v>
       </c>
@@ -4835,7 +4893,7 @@
       <c r="D48" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E48" s="25"/>
+      <c r="E48" s="19"/>
       <c r="F48" s="22"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
@@ -4850,7 +4908,7 @@
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="18">
+    <row r="49" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A49" s="16">
         <v>45</v>
       </c>
@@ -4863,7 +4921,7 @@
       <c r="D49" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="E49" s="23"/>
+      <c r="E49" s="17"/>
       <c r="F49" s="20"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -4878,7 +4936,7 @@
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="18">
+    <row r="50" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A50" s="16">
         <v>46</v>
       </c>
@@ -4891,7 +4949,7 @@
       <c r="D50" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E50" s="24"/>
+      <c r="E50" s="18"/>
       <c r="F50" s="21"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
@@ -4906,7 +4964,7 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="18">
+    <row r="51" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A51" s="16">
         <v>47</v>
       </c>
@@ -4919,7 +4977,7 @@
       <c r="D51" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="E51" s="24"/>
+      <c r="E51" s="18"/>
       <c r="F51" s="21"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
@@ -4934,7 +4992,7 @@
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="18">
+    <row r="52" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A52" s="16">
         <v>48</v>
       </c>
@@ -4947,7 +5005,7 @@
       <c r="D52" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E52" s="25"/>
+      <c r="E52" s="19"/>
       <c r="F52" s="22"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
@@ -4964,23 +5022,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="F13:F16"/>
     <mergeCell ref="E49:E52"/>
     <mergeCell ref="F49:F52"/>
     <mergeCell ref="E29:E32"/>
@@ -4993,7 +5034,25 @@
     <mergeCell ref="F41:F44"/>
     <mergeCell ref="E45:E48"/>
     <mergeCell ref="F45:F48"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:K3"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5004,92 +5063,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976AAFC9-EE5F-4D65-88EF-D095DE333F65}">
   <dimension ref="A1:Y52"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="C43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="69.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="69.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.6640625" customWidth="1"/>
-    <col min="7" max="7" width="24.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="47.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.5546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="99.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="23.21875" style="1" customWidth="1"/>
-    <col min="16" max="25" width="69.88671875" style="1"/>
+    <col min="6" max="6" width="18.875" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="99.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="23.25" style="1" customWidth="1"/>
+    <col min="16" max="25" width="69.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17.399999999999999">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:15" ht="18">
+    <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
       <c r="N2" s="3"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:15" ht="17.399999999999999">
+    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="12"/>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
       <c r="L3" s="14"/>
       <c r="M3" s="13"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" ht="17.399999999999999">
+    <row r="4" spans="1:15" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
@@ -5118,7 +5177,7 @@
         <v>209</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>210</v>
+        <v>383</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>211</v>
@@ -5136,7 +5195,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18">
+    <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="16">
         <v>1</v>
       </c>
@@ -5149,8 +5208,10 @@
       <c r="D5" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="20"/>
+      <c r="E5" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="F5" s="27"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -5164,7 +5225,7 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="18">
+    <row r="6" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="16">
         <v>2</v>
       </c>
@@ -5177,22 +5238,34 @@
       <c r="D6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="G6" s="5">
+        <v>18</v>
+      </c>
+      <c r="H6" s="5">
+        <v>18</v>
+      </c>
+      <c r="I6" s="5">
+        <v>18</v>
+      </c>
+      <c r="J6" s="5">
+        <v>18</v>
+      </c>
+      <c r="K6" s="5">
+        <v>18</v>
+      </c>
       <c r="L6" s="5">
         <f t="shared" ref="L6:L52" si="0">SUM(G6:K6)</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="18">
+    <row r="7" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A7" s="16">
         <v>3</v>
       </c>
@@ -5205,22 +5278,34 @@
       <c r="D7" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="G7" s="5">
+        <v>17</v>
+      </c>
+      <c r="H7" s="5">
+        <v>18</v>
+      </c>
+      <c r="I7" s="5">
+        <v>16</v>
+      </c>
+      <c r="J7" s="5">
+        <v>17</v>
+      </c>
+      <c r="K7" s="5">
+        <v>17</v>
+      </c>
       <c r="L7" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="18">
+    <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A8" s="16">
         <v>4</v>
       </c>
@@ -5233,22 +5318,34 @@
       <c r="D8" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="G8" s="5">
+        <v>18</v>
+      </c>
+      <c r="H8" s="5">
+        <v>18</v>
+      </c>
+      <c r="I8" s="5">
+        <v>18</v>
+      </c>
+      <c r="J8" s="5">
+        <v>18</v>
+      </c>
+      <c r="K8" s="5">
+        <v>18</v>
+      </c>
       <c r="L8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="18">
+    <row r="9" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A9" s="16">
         <v>5</v>
       </c>
@@ -5261,22 +5358,34 @@
       <c r="D9" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="G9" s="5">
+        <v>15</v>
+      </c>
+      <c r="H9" s="5">
+        <v>15</v>
+      </c>
+      <c r="I9" s="5">
+        <v>15</v>
+      </c>
+      <c r="J9" s="5">
+        <v>15</v>
+      </c>
+      <c r="K9" s="5">
+        <v>15</v>
+      </c>
       <c r="L9" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="18">
+    <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A10" s="16">
         <v>6</v>
       </c>
@@ -5289,22 +5398,34 @@
       <c r="D10" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="G10" s="5">
+        <v>18</v>
+      </c>
+      <c r="H10" s="5">
+        <v>18</v>
+      </c>
+      <c r="I10" s="5">
+        <v>18</v>
+      </c>
+      <c r="J10" s="5">
+        <v>18</v>
+      </c>
+      <c r="K10" s="5">
+        <v>18</v>
+      </c>
       <c r="L10" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="18">
+    <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A11" s="16">
         <v>7</v>
       </c>
@@ -5317,22 +5438,34 @@
       <c r="D11" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="G11" s="5">
+        <v>19</v>
+      </c>
+      <c r="H11" s="5">
+        <v>19</v>
+      </c>
+      <c r="I11" s="5">
+        <v>19</v>
+      </c>
+      <c r="J11" s="5">
+        <v>19</v>
+      </c>
+      <c r="K11" s="5">
+        <v>19</v>
+      </c>
       <c r="L11" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="18">
+    <row r="12" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A12" s="16">
         <v>8</v>
       </c>
@@ -5345,22 +5478,34 @@
       <c r="D12" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="G12" s="5">
+        <v>17</v>
+      </c>
+      <c r="H12" s="5">
+        <v>18</v>
+      </c>
+      <c r="I12" s="5">
+        <v>16</v>
+      </c>
+      <c r="J12" s="5">
+        <v>17</v>
+      </c>
+      <c r="K12" s="5">
+        <v>17</v>
+      </c>
       <c r="L12" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="18">
+    <row r="13" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A13" s="16">
         <v>9</v>
       </c>
@@ -5373,22 +5518,34 @@
       <c r="D13" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="G13" s="5">
+        <v>17</v>
+      </c>
+      <c r="H13" s="5">
+        <v>18</v>
+      </c>
+      <c r="I13" s="5">
+        <v>16</v>
+      </c>
+      <c r="J13" s="5">
+        <v>17</v>
+      </c>
+      <c r="K13" s="5">
+        <v>17</v>
+      </c>
       <c r="L13" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="18">
+    <row r="14" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A14" s="16">
         <v>10</v>
       </c>
@@ -5401,22 +5558,34 @@
       <c r="D14" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="G14" s="5">
+        <v>18</v>
+      </c>
+      <c r="H14" s="5">
+        <v>18</v>
+      </c>
+      <c r="I14" s="5">
+        <v>18</v>
+      </c>
+      <c r="J14" s="5">
+        <v>18</v>
+      </c>
+      <c r="K14" s="5">
+        <v>18</v>
+      </c>
       <c r="L14" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M14" s="6"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="18">
+    <row r="15" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A15" s="16">
         <v>11</v>
       </c>
@@ -5429,22 +5598,34 @@
       <c r="D15" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="G15" s="5">
+        <v>18</v>
+      </c>
+      <c r="H15" s="5">
+        <v>18</v>
+      </c>
+      <c r="I15" s="5">
+        <v>18</v>
+      </c>
+      <c r="J15" s="5">
+        <v>18</v>
+      </c>
+      <c r="K15" s="5">
+        <v>18</v>
+      </c>
       <c r="L15" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M15" s="6"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="18">
+    <row r="16" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A16" s="16">
         <v>12</v>
       </c>
@@ -5457,22 +5638,34 @@
       <c r="D16" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="G16" s="5">
+        <v>18</v>
+      </c>
+      <c r="H16" s="5">
+        <v>18</v>
+      </c>
+      <c r="I16" s="5">
+        <v>18</v>
+      </c>
+      <c r="J16" s="5">
+        <v>18</v>
+      </c>
+      <c r="K16" s="5">
+        <v>18</v>
+      </c>
       <c r="L16" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M16" s="6"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="18">
+    <row r="17" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A17" s="16">
         <v>13</v>
       </c>
@@ -5485,22 +5678,34 @@
       <c r="D17" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="G17" s="5">
+        <v>18</v>
+      </c>
+      <c r="H17" s="5">
+        <v>18</v>
+      </c>
+      <c r="I17" s="5">
+        <v>18</v>
+      </c>
+      <c r="J17" s="5">
+        <v>18</v>
+      </c>
+      <c r="K17" s="5">
+        <v>18</v>
+      </c>
       <c r="L17" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="18">
+    <row r="18" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A18" s="16">
         <v>14</v>
       </c>
@@ -5513,22 +5718,34 @@
       <c r="D18" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="G18" s="5">
+        <v>17</v>
+      </c>
+      <c r="H18" s="5">
+        <v>18</v>
+      </c>
+      <c r="I18" s="5">
+        <v>16</v>
+      </c>
+      <c r="J18" s="5">
+        <v>17</v>
+      </c>
+      <c r="K18" s="5">
+        <v>17</v>
+      </c>
       <c r="L18" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="M18" s="6"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="18">
+    <row r="19" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A19" s="16">
         <v>15</v>
       </c>
@@ -5541,22 +5758,34 @@
       <c r="D19" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="G19" s="5">
+        <v>18</v>
+      </c>
+      <c r="H19" s="5">
+        <v>17</v>
+      </c>
+      <c r="I19" s="5">
+        <v>18</v>
+      </c>
+      <c r="J19" s="5">
+        <v>18</v>
+      </c>
+      <c r="K19" s="5">
+        <v>17</v>
+      </c>
       <c r="L19" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="M19" s="6"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="18">
+    <row r="20" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A20" s="16">
         <v>16</v>
       </c>
@@ -5569,22 +5798,34 @@
       <c r="D20" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="G20" s="5">
+        <v>19</v>
+      </c>
+      <c r="H20" s="5">
+        <v>19</v>
+      </c>
+      <c r="I20" s="5">
+        <v>19</v>
+      </c>
+      <c r="J20" s="5">
+        <v>19</v>
+      </c>
+      <c r="K20" s="5">
+        <v>19</v>
+      </c>
       <c r="L20" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="M20" s="6"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="18">
+    <row r="21" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A21" s="16">
         <v>17</v>
       </c>
@@ -5597,22 +5838,34 @@
       <c r="D21" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="G21" s="5">
+        <v>17</v>
+      </c>
+      <c r="H21" s="5">
+        <v>17</v>
+      </c>
+      <c r="I21" s="5">
+        <v>17</v>
+      </c>
+      <c r="J21" s="5">
+        <v>18</v>
+      </c>
+      <c r="K21" s="5">
+        <v>16</v>
+      </c>
       <c r="L21" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="M21" s="6"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="18">
+    <row r="22" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A22" s="16">
         <v>18</v>
       </c>
@@ -5625,22 +5878,34 @@
       <c r="D22" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="G22" s="5">
+        <v>17</v>
+      </c>
+      <c r="H22" s="5">
+        <v>17</v>
+      </c>
+      <c r="I22" s="5">
+        <v>17</v>
+      </c>
+      <c r="J22" s="5">
+        <v>18</v>
+      </c>
+      <c r="K22" s="5">
+        <v>16</v>
+      </c>
       <c r="L22" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="M22" s="6"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="18">
+    <row r="23" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A23" s="16">
         <v>19</v>
       </c>
@@ -5653,22 +5918,34 @@
       <c r="D23" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="G23" s="5">
+        <v>18</v>
+      </c>
+      <c r="H23" s="5">
+        <v>18</v>
+      </c>
+      <c r="I23" s="5">
+        <v>18</v>
+      </c>
+      <c r="J23" s="5">
+        <v>18</v>
+      </c>
+      <c r="K23" s="5">
+        <v>18</v>
+      </c>
       <c r="L23" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M23" s="6"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="18">
+    <row r="24" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A24" s="16">
         <v>20</v>
       </c>
@@ -5681,22 +5958,34 @@
       <c r="D24" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="G24" s="5">
+        <v>15</v>
+      </c>
+      <c r="H24" s="5">
+        <v>15</v>
+      </c>
+      <c r="I24" s="5">
+        <v>15</v>
+      </c>
+      <c r="J24" s="5">
+        <v>15</v>
+      </c>
+      <c r="K24" s="5">
+        <v>15</v>
+      </c>
       <c r="L24" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="M24" s="6"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="18">
+    <row r="25" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A25" s="16">
         <v>21</v>
       </c>
@@ -5709,22 +5998,34 @@
       <c r="D25" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="G25" s="5">
+        <v>19</v>
+      </c>
+      <c r="H25" s="5">
+        <v>19</v>
+      </c>
+      <c r="I25" s="5">
+        <v>19</v>
+      </c>
+      <c r="J25" s="5">
+        <v>19</v>
+      </c>
+      <c r="K25" s="5">
+        <v>19</v>
+      </c>
       <c r="L25" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="M25" s="6"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="18">
+    <row r="26" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A26" s="16">
         <v>22</v>
       </c>
@@ -5737,22 +6038,34 @@
       <c r="D26" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="G26" s="5">
+        <v>19</v>
+      </c>
+      <c r="H26" s="5">
+        <v>19</v>
+      </c>
+      <c r="I26" s="5">
+        <v>19</v>
+      </c>
+      <c r="J26" s="5">
+        <v>19</v>
+      </c>
+      <c r="K26" s="5">
+        <v>19</v>
+      </c>
       <c r="L26" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="18">
+    <row r="27" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A27" s="16">
         <v>23</v>
       </c>
@@ -5765,22 +6078,34 @@
       <c r="D27" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="G27" s="5">
+        <v>17</v>
+      </c>
+      <c r="H27" s="5">
+        <v>18</v>
+      </c>
+      <c r="I27" s="5">
+        <v>16</v>
+      </c>
+      <c r="J27" s="5">
+        <v>17</v>
+      </c>
+      <c r="K27" s="5">
+        <v>17</v>
+      </c>
       <c r="L27" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="M27" s="6"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="18">
+    <row r="28" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A28" s="16">
         <v>24</v>
       </c>
@@ -5793,22 +6118,34 @@
       <c r="D28" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="G28" s="5">
+        <v>19</v>
+      </c>
+      <c r="H28" s="5">
+        <v>19</v>
+      </c>
+      <c r="I28" s="5">
+        <v>19</v>
+      </c>
+      <c r="J28" s="5">
+        <v>19</v>
+      </c>
+      <c r="K28" s="5">
+        <v>19</v>
+      </c>
       <c r="L28" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="M28" s="6"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="18">
+    <row r="29" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A29" s="16">
         <v>25</v>
       </c>
@@ -5821,22 +6158,34 @@
       <c r="D29" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="E29" s="23"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="G29" s="5">
+        <v>17</v>
+      </c>
+      <c r="H29" s="5">
+        <v>17</v>
+      </c>
+      <c r="I29" s="5">
+        <v>17</v>
+      </c>
+      <c r="J29" s="5">
+        <v>18</v>
+      </c>
+      <c r="K29" s="5">
+        <v>16</v>
+      </c>
       <c r="L29" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="M29" s="6"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="18">
+    <row r="30" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A30" s="16">
         <v>26</v>
       </c>
@@ -5849,22 +6198,34 @@
       <c r="D30" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="G30" s="5">
+        <v>19</v>
+      </c>
+      <c r="H30" s="5">
+        <v>19</v>
+      </c>
+      <c r="I30" s="5">
+        <v>19</v>
+      </c>
+      <c r="J30" s="5">
+        <v>19</v>
+      </c>
+      <c r="K30" s="5">
+        <v>19</v>
+      </c>
       <c r="L30" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="M30" s="6"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="18">
+    <row r="31" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A31" s="16">
         <v>27</v>
       </c>
@@ -5877,22 +6238,34 @@
       <c r="D31" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="G31" s="5">
+        <v>18</v>
+      </c>
+      <c r="H31" s="5">
+        <v>18</v>
+      </c>
+      <c r="I31" s="5">
+        <v>18</v>
+      </c>
+      <c r="J31" s="5">
+        <v>18</v>
+      </c>
+      <c r="K31" s="5">
+        <v>18</v>
+      </c>
       <c r="L31" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M31" s="6"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="18">
+    <row r="32" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A32" s="16">
         <v>28</v>
       </c>
@@ -5905,22 +6278,34 @@
       <c r="D32" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="G32" s="5">
+        <v>18</v>
+      </c>
+      <c r="H32" s="5">
+        <v>17</v>
+      </c>
+      <c r="I32" s="5">
+        <v>18</v>
+      </c>
+      <c r="J32" s="5">
+        <v>18</v>
+      </c>
+      <c r="K32" s="5">
+        <v>17</v>
+      </c>
       <c r="L32" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="M32" s="6"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="18">
+    <row r="33" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A33" s="16">
         <v>29</v>
       </c>
@@ -5933,22 +6318,34 @@
       <c r="D33" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="E33" s="23"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="G33" s="5">
+        <v>17</v>
+      </c>
+      <c r="H33" s="5">
+        <v>18</v>
+      </c>
+      <c r="I33" s="5">
+        <v>16</v>
+      </c>
+      <c r="J33" s="5">
+        <v>17</v>
+      </c>
+      <c r="K33" s="5">
+        <v>17</v>
+      </c>
       <c r="L33" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="M33" s="6"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="18">
+    <row r="34" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A34" s="16">
         <v>30</v>
       </c>
@@ -5961,22 +6358,34 @@
       <c r="D34" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="G34" s="5">
+        <v>19</v>
+      </c>
+      <c r="H34" s="5">
+        <v>19</v>
+      </c>
+      <c r="I34" s="5">
+        <v>19</v>
+      </c>
+      <c r="J34" s="5">
+        <v>19</v>
+      </c>
+      <c r="K34" s="5">
+        <v>19</v>
+      </c>
       <c r="L34" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="M34" s="6"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="18">
+    <row r="35" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A35" s="16">
         <v>31</v>
       </c>
@@ -5989,22 +6398,34 @@
       <c r="D35" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E35" s="24"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="G35" s="5">
+        <v>19</v>
+      </c>
+      <c r="H35" s="5">
+        <v>19</v>
+      </c>
+      <c r="I35" s="5">
+        <v>19</v>
+      </c>
+      <c r="J35" s="5">
+        <v>19</v>
+      </c>
+      <c r="K35" s="5">
+        <v>19</v>
+      </c>
       <c r="L35" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="M35" s="6"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="18">
+    <row r="36" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A36" s="16">
         <v>32</v>
       </c>
@@ -6017,22 +6438,34 @@
       <c r="D36" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="G36" s="5">
+        <v>18</v>
+      </c>
+      <c r="H36" s="5">
+        <v>18</v>
+      </c>
+      <c r="I36" s="5">
+        <v>18</v>
+      </c>
+      <c r="J36" s="5">
+        <v>18</v>
+      </c>
+      <c r="K36" s="5">
+        <v>18</v>
+      </c>
       <c r="L36" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M36" s="6"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="18">
+    <row r="37" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A37" s="16">
         <v>33</v>
       </c>
@@ -6045,22 +6478,34 @@
       <c r="D37" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E37" s="23"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="G37" s="5">
+        <v>18</v>
+      </c>
+      <c r="H37" s="5">
+        <v>18</v>
+      </c>
+      <c r="I37" s="5">
+        <v>17</v>
+      </c>
+      <c r="J37" s="5">
+        <v>17</v>
+      </c>
+      <c r="K37" s="5">
+        <v>17</v>
+      </c>
       <c r="L37" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="M37" s="6"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="18">
+    <row r="38" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A38" s="16">
         <v>34</v>
       </c>
@@ -6073,22 +6518,34 @@
       <c r="D38" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="G38" s="5">
+        <v>18</v>
+      </c>
+      <c r="H38" s="5">
+        <v>18</v>
+      </c>
+      <c r="I38" s="5">
+        <v>18</v>
+      </c>
+      <c r="J38" s="5">
+        <v>18</v>
+      </c>
+      <c r="K38" s="5">
+        <v>18</v>
+      </c>
       <c r="L38" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M38" s="6"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="18">
+    <row r="39" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A39" s="16">
         <v>35</v>
       </c>
@@ -6101,22 +6558,34 @@
       <c r="D39" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="24"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="G39" s="5">
+        <v>17</v>
+      </c>
+      <c r="H39" s="5">
+        <v>17</v>
+      </c>
+      <c r="I39" s="5">
+        <v>17</v>
+      </c>
+      <c r="J39" s="5">
+        <v>18</v>
+      </c>
+      <c r="K39" s="5">
+        <v>16</v>
+      </c>
       <c r="L39" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="M39" s="6"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="18">
+    <row r="40" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A40" s="16">
         <v>36</v>
       </c>
@@ -6129,22 +6598,34 @@
       <c r="D40" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E40" s="25"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="G40" s="5">
+        <v>15</v>
+      </c>
+      <c r="H40" s="5">
+        <v>15</v>
+      </c>
+      <c r="I40" s="5">
+        <v>15</v>
+      </c>
+      <c r="J40" s="5">
+        <v>15</v>
+      </c>
+      <c r="K40" s="5">
+        <v>15</v>
+      </c>
       <c r="L40" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="L40" si="1">SUM(G40:K40)</f>
+        <v>75</v>
       </c>
       <c r="M40" s="6"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="18">
+    <row r="41" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A41" s="16">
         <v>37</v>
       </c>
@@ -6157,22 +6638,34 @@
       <c r="D41" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="G41" s="5">
+        <v>15</v>
+      </c>
+      <c r="H41" s="5">
+        <v>15</v>
+      </c>
+      <c r="I41" s="5">
+        <v>15</v>
+      </c>
+      <c r="J41" s="5">
+        <v>15</v>
+      </c>
+      <c r="K41" s="5">
+        <v>15</v>
+      </c>
       <c r="L41" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="M41" s="6"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="18">
+    <row r="42" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A42" s="16">
         <v>38</v>
       </c>
@@ -6185,22 +6678,34 @@
       <c r="D42" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="G42" s="5">
+        <v>18</v>
+      </c>
+      <c r="H42" s="5">
+        <v>18</v>
+      </c>
+      <c r="I42" s="5">
+        <v>18</v>
+      </c>
+      <c r="J42" s="5">
+        <v>18</v>
+      </c>
+      <c r="K42" s="5">
+        <v>18</v>
+      </c>
       <c r="L42" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="L42" si="2">SUM(G42:K42)</f>
+        <v>90</v>
       </c>
       <c r="M42" s="6"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="18">
+    <row r="43" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A43" s="16">
         <v>39</v>
       </c>
@@ -6213,22 +6718,34 @@
       <c r="D43" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="G43" s="5">
+        <v>17</v>
+      </c>
+      <c r="H43" s="5">
+        <v>18</v>
+      </c>
+      <c r="I43" s="5">
+        <v>16</v>
+      </c>
+      <c r="J43" s="5">
+        <v>17</v>
+      </c>
+      <c r="K43" s="5">
+        <v>17</v>
+      </c>
       <c r="L43" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="M43" s="6"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="18">
+    <row r="44" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A44" s="16">
         <v>40</v>
       </c>
@@ -6241,22 +6758,34 @@
       <c r="D44" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E44" s="25"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="G44" s="5">
+        <v>19</v>
+      </c>
+      <c r="H44" s="5">
+        <v>19</v>
+      </c>
+      <c r="I44" s="5">
+        <v>18</v>
+      </c>
+      <c r="J44" s="5">
+        <v>18</v>
+      </c>
+      <c r="K44" s="5">
+        <v>18</v>
+      </c>
       <c r="L44" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="M44" s="6"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="18">
+    <row r="45" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A45" s="16">
         <v>41</v>
       </c>
@@ -6269,22 +6798,34 @@
       <c r="D45" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="E45" s="23"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="G45" s="5">
+        <v>18</v>
+      </c>
+      <c r="H45" s="5">
+        <v>17</v>
+      </c>
+      <c r="I45" s="5">
+        <v>18</v>
+      </c>
+      <c r="J45" s="5">
+        <v>18</v>
+      </c>
+      <c r="K45" s="5">
+        <v>17</v>
+      </c>
       <c r="L45" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="M45" s="6"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="18">
+    <row r="46" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A46" s="16">
         <v>42</v>
       </c>
@@ -6297,22 +6838,34 @@
       <c r="D46" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="G46" s="5">
+        <v>19</v>
+      </c>
+      <c r="H46" s="5">
+        <v>19</v>
+      </c>
+      <c r="I46" s="5">
+        <v>19</v>
+      </c>
+      <c r="J46" s="5">
+        <v>19</v>
+      </c>
+      <c r="K46" s="5">
+        <v>19</v>
+      </c>
       <c r="L46" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="M46" s="6"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="18">
+    <row r="47" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A47" s="16">
         <v>43</v>
       </c>
@@ -6325,22 +6878,34 @@
       <c r="D47" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="G47" s="5">
+        <v>18</v>
+      </c>
+      <c r="H47" s="5">
+        <v>18</v>
+      </c>
+      <c r="I47" s="5">
+        <v>18</v>
+      </c>
+      <c r="J47" s="5">
+        <v>18</v>
+      </c>
+      <c r="K47" s="5">
+        <v>18</v>
+      </c>
       <c r="L47" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M47" s="6"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="18">
+    <row r="48" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A48" s="16">
         <v>44</v>
       </c>
@@ -6353,22 +6918,34 @@
       <c r="D48" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E48" s="25"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="G48" s="5">
+        <v>19</v>
+      </c>
+      <c r="H48" s="5">
+        <v>19</v>
+      </c>
+      <c r="I48" s="5">
+        <v>19</v>
+      </c>
+      <c r="J48" s="5">
+        <v>19</v>
+      </c>
+      <c r="K48" s="5">
+        <v>19</v>
+      </c>
       <c r="L48" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="M48" s="6"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="18">
+    <row r="49" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A49" s="16">
         <v>45</v>
       </c>
@@ -6381,22 +6958,34 @@
       <c r="D49" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E49" s="23"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="G49" s="5">
+        <v>19</v>
+      </c>
+      <c r="H49" s="5">
+        <v>19</v>
+      </c>
+      <c r="I49" s="5">
+        <v>18</v>
+      </c>
+      <c r="J49" s="5">
+        <v>18</v>
+      </c>
+      <c r="K49" s="5">
+        <v>18</v>
+      </c>
       <c r="L49" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="L49" si="3">SUM(G49:K49)</f>
+        <v>92</v>
       </c>
       <c r="M49" s="6"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="18">
+    <row r="50" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A50" s="16">
         <v>46</v>
       </c>
@@ -6409,22 +6998,34 @@
       <c r="D50" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E50" s="24"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="8"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="G50" s="5">
+        <v>18</v>
+      </c>
+      <c r="H50" s="5">
+        <v>17</v>
+      </c>
+      <c r="I50" s="5">
+        <v>18</v>
+      </c>
+      <c r="J50" s="5">
+        <v>18</v>
+      </c>
+      <c r="K50" s="5">
+        <v>17</v>
+      </c>
       <c r="L50" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="M50" s="6"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="18">
+    <row r="51" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A51" s="16">
         <v>47</v>
       </c>
@@ -6437,22 +7038,34 @@
       <c r="D51" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E51" s="24"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="8"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="G51" s="5">
+        <v>18</v>
+      </c>
+      <c r="H51" s="5">
+        <v>18</v>
+      </c>
+      <c r="I51" s="5">
+        <v>18</v>
+      </c>
+      <c r="J51" s="5">
+        <v>18</v>
+      </c>
+      <c r="K51" s="5">
+        <v>18</v>
+      </c>
       <c r="L51" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M51" s="6"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="18">
+    <row r="52" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A52" s="16">
         <v>48</v>
       </c>
@@ -6465,53 +7078,43 @@
       <c r="D52" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="E52" s="25"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="8"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="G52" s="5">
+        <v>17</v>
+      </c>
+      <c r="H52" s="5">
+        <v>18</v>
+      </c>
+      <c r="I52" s="5">
+        <v>16</v>
+      </c>
+      <c r="J52" s="5">
+        <v>17</v>
+      </c>
+      <c r="K52" s="5">
+        <v>17</v>
+      </c>
       <c r="L52" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="M52" s="6"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="6">
+    <mergeCell ref="E5:E52"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="G3:K3"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="F49:F52"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="E37:E40"/>
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="E41:E44"/>
-    <mergeCell ref="F41:F44"/>
-    <mergeCell ref="E45:E48"/>
-    <mergeCell ref="F45:F48"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -6522,92 +7125,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C58AC392-8AF7-4A44-9626-3E0D6726ABEF}">
   <dimension ref="A1:Y52"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52:K52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="69.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="69.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.5546875" customWidth="1"/>
-    <col min="7" max="7" width="24.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="47.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.77734375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="99.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="23.21875" style="1" customWidth="1"/>
-    <col min="16" max="25" width="69.88671875" style="1"/>
+    <col min="6" max="6" width="22.75" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="99.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="23.25" style="1" customWidth="1"/>
+    <col min="16" max="25" width="69.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17.399999999999999">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:15" ht="18">
+    <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
       <c r="N2" s="3"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:15" ht="17.399999999999999">
+    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="12"/>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
       <c r="L3" s="14"/>
       <c r="M3" s="13"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" ht="17.399999999999999">
+    <row r="4" spans="1:15" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
@@ -6654,7 +7257,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18">
+    <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="16">
         <v>1</v>
       </c>
@@ -6667,22 +7270,36 @@
       <c r="D5" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="E5" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="G5" s="5">
+        <v>18</v>
+      </c>
+      <c r="H5" s="5">
+        <v>18</v>
+      </c>
+      <c r="I5" s="5">
+        <v>20</v>
+      </c>
+      <c r="J5" s="5">
+        <v>18</v>
+      </c>
+      <c r="K5" s="5">
+        <v>18</v>
+      </c>
       <c r="L5" s="5">
-        <f>SUM(G5:K5)</f>
-        <v>0</v>
+        <f t="shared" ref="L5" si="0">SUM(G5:K5)</f>
+        <v>92</v>
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="18">
+    <row r="6" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="16">
         <v>2</v>
       </c>
@@ -6695,22 +7312,34 @@
       <c r="D6" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="G6" s="5">
+        <v>18</v>
+      </c>
+      <c r="H6" s="5">
+        <v>18</v>
+      </c>
+      <c r="I6" s="5">
+        <v>20</v>
+      </c>
+      <c r="J6" s="5">
+        <v>18</v>
+      </c>
+      <c r="K6" s="5">
+        <v>18</v>
+      </c>
       <c r="L6" s="5">
-        <f t="shared" ref="L6:L52" si="0">SUM(G6:K6)</f>
-        <v>0</v>
+        <f t="shared" ref="L6:L52" si="1">SUM(G6:K6)</f>
+        <v>92</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="18">
+    <row r="7" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A7" s="16">
         <v>3</v>
       </c>
@@ -6723,22 +7352,34 @@
       <c r="D7" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="G7" s="5">
+        <v>18</v>
+      </c>
+      <c r="H7" s="5">
+        <v>18</v>
+      </c>
+      <c r="I7" s="5">
+        <v>18</v>
+      </c>
+      <c r="J7" s="5">
+        <v>18</v>
+      </c>
+      <c r="K7" s="5">
+        <v>18</v>
+      </c>
       <c r="L7" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="18">
+    <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A8" s="16">
         <v>4</v>
       </c>
@@ -6751,22 +7392,22 @@
       <c r="D8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="22"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="18">
+    <row r="9" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A9" s="16">
         <v>5</v>
       </c>
@@ -6779,22 +7420,34 @@
       <c r="D9" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="G9" s="5">
+        <v>15</v>
+      </c>
+      <c r="H9" s="5">
+        <v>18</v>
+      </c>
+      <c r="I9" s="5">
+        <v>17</v>
+      </c>
+      <c r="J9" s="5">
+        <v>18</v>
+      </c>
+      <c r="K9" s="5">
+        <v>17</v>
+      </c>
       <c r="L9" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>85</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="18">
+    <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A10" s="16">
         <v>6</v>
       </c>
@@ -6807,22 +7460,34 @@
       <c r="D10" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="G10" s="5">
+        <v>17</v>
+      </c>
+      <c r="H10" s="5">
+        <v>17</v>
+      </c>
+      <c r="I10" s="5">
+        <v>17</v>
+      </c>
+      <c r="J10" s="5">
+        <v>18</v>
+      </c>
+      <c r="K10" s="5">
+        <v>16</v>
+      </c>
       <c r="L10" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>85</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="18">
+    <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A11" s="16">
         <v>7</v>
       </c>
@@ -6835,22 +7500,34 @@
       <c r="D11" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="G11" s="5">
+        <v>18</v>
+      </c>
+      <c r="H11" s="5">
+        <v>18</v>
+      </c>
+      <c r="I11" s="5">
+        <v>18</v>
+      </c>
+      <c r="J11" s="5">
+        <v>18</v>
+      </c>
+      <c r="K11" s="5">
+        <v>18</v>
+      </c>
       <c r="L11" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="18">
+    <row r="12" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A12" s="16">
         <v>8</v>
       </c>
@@ -6863,22 +7540,34 @@
       <c r="D12" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="G12" s="5">
+        <v>18</v>
+      </c>
+      <c r="H12" s="5">
+        <v>18</v>
+      </c>
+      <c r="I12" s="5">
+        <v>18</v>
+      </c>
+      <c r="J12" s="5">
+        <v>18</v>
+      </c>
+      <c r="K12" s="5">
+        <v>18</v>
+      </c>
       <c r="L12" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="18">
+    <row r="13" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A13" s="16">
         <v>9</v>
       </c>
@@ -6891,22 +7580,34 @@
       <c r="D13" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="G13" s="5">
+        <v>17</v>
+      </c>
+      <c r="H13" s="5">
+        <v>17</v>
+      </c>
+      <c r="I13" s="5">
+        <v>17</v>
+      </c>
+      <c r="J13" s="5">
+        <v>18</v>
+      </c>
+      <c r="K13" s="5">
+        <v>16</v>
+      </c>
       <c r="L13" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>85</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="18">
+    <row r="14" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A14" s="16">
         <v>10</v>
       </c>
@@ -6919,22 +7620,34 @@
       <c r="D14" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="G14" s="5">
+        <v>18</v>
+      </c>
+      <c r="H14" s="5">
+        <v>18</v>
+      </c>
+      <c r="I14" s="5">
+        <v>18</v>
+      </c>
+      <c r="J14" s="5">
+        <v>18</v>
+      </c>
+      <c r="K14" s="5">
+        <v>18</v>
+      </c>
       <c r="L14" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
       <c r="M14" s="6"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="18">
+    <row r="15" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A15" s="16">
         <v>11</v>
       </c>
@@ -6947,22 +7660,34 @@
       <c r="D15" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="G15" s="5">
+        <v>17</v>
+      </c>
+      <c r="H15" s="5">
+        <v>17</v>
+      </c>
+      <c r="I15" s="5">
+        <v>17</v>
+      </c>
+      <c r="J15" s="5">
+        <v>18</v>
+      </c>
+      <c r="K15" s="5">
+        <v>16</v>
+      </c>
       <c r="L15" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>85</v>
       </c>
       <c r="M15" s="6"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="18">
+    <row r="16" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A16" s="16">
         <v>12</v>
       </c>
@@ -6975,22 +7700,34 @@
       <c r="D16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="G16" s="5">
+        <v>18</v>
+      </c>
+      <c r="H16" s="5">
+        <v>18</v>
+      </c>
+      <c r="I16" s="5">
+        <v>18</v>
+      </c>
+      <c r="J16" s="5">
+        <v>18</v>
+      </c>
+      <c r="K16" s="5">
+        <v>18</v>
+      </c>
       <c r="L16" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="L16" si="2">SUM(G16:K16)</f>
+        <v>90</v>
       </c>
       <c r="M16" s="6"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="18">
+    <row r="17" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A17" s="16">
         <v>13</v>
       </c>
@@ -7003,22 +7740,34 @@
       <c r="D17" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="G17" s="5">
+        <v>17</v>
+      </c>
+      <c r="H17" s="5">
+        <v>17</v>
+      </c>
+      <c r="I17" s="5">
+        <v>18</v>
+      </c>
+      <c r="J17" s="5">
+        <v>18</v>
+      </c>
+      <c r="K17" s="5">
+        <v>18</v>
+      </c>
       <c r="L17" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>88</v>
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="18">
+    <row r="18" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A18" s="16">
         <v>14</v>
       </c>
@@ -7031,22 +7780,34 @@
       <c r="D18" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="G18" s="5">
+        <v>18</v>
+      </c>
+      <c r="H18" s="5">
+        <v>18</v>
+      </c>
+      <c r="I18" s="5">
+        <v>18</v>
+      </c>
+      <c r="J18" s="5">
+        <v>18</v>
+      </c>
+      <c r="K18" s="5">
+        <v>18</v>
+      </c>
       <c r="L18" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
       <c r="M18" s="6"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="18">
+    <row r="19" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A19" s="16">
         <v>15</v>
       </c>
@@ -7059,22 +7820,34 @@
       <c r="D19" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="G19" s="5">
+        <v>18</v>
+      </c>
+      <c r="H19" s="5">
+        <v>18</v>
+      </c>
+      <c r="I19" s="5">
+        <v>20</v>
+      </c>
+      <c r="J19" s="5">
+        <v>18</v>
+      </c>
+      <c r="K19" s="5">
+        <v>18</v>
+      </c>
       <c r="L19" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>92</v>
       </c>
       <c r="M19" s="6"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="18">
+    <row r="20" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A20" s="16">
         <v>16</v>
       </c>
@@ -7087,22 +7860,34 @@
       <c r="D20" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="G20" s="5">
+        <v>18</v>
+      </c>
+      <c r="H20" s="5">
+        <v>18</v>
+      </c>
+      <c r="I20" s="5">
+        <v>18</v>
+      </c>
+      <c r="J20" s="5">
+        <v>18</v>
+      </c>
+      <c r="K20" s="5">
+        <v>18</v>
+      </c>
       <c r="L20" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
       <c r="M20" s="6"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="18">
+    <row r="21" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A21" s="16">
         <v>17</v>
       </c>
@@ -7115,22 +7900,34 @@
       <c r="D21" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="G21" s="5">
+        <v>17</v>
+      </c>
+      <c r="H21" s="5">
+        <v>17</v>
+      </c>
+      <c r="I21" s="5">
+        <v>17</v>
+      </c>
+      <c r="J21" s="5">
+        <v>18</v>
+      </c>
+      <c r="K21" s="5">
+        <v>16</v>
+      </c>
       <c r="L21" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>85</v>
       </c>
       <c r="M21" s="6"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="18">
+    <row r="22" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A22" s="16">
         <v>18</v>
       </c>
@@ -7143,22 +7940,22 @@
       <c r="D22" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="21"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="27"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M22" s="6"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="18">
+    <row r="23" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A23" s="16">
         <v>19</v>
       </c>
@@ -7171,22 +7968,34 @@
       <c r="D23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="G23" s="5">
+        <v>18</v>
+      </c>
+      <c r="H23" s="5">
+        <v>18</v>
+      </c>
+      <c r="I23" s="5">
+        <v>18</v>
+      </c>
+      <c r="J23" s="5">
+        <v>18</v>
+      </c>
+      <c r="K23" s="5">
+        <v>18</v>
+      </c>
       <c r="L23" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
       <c r="M23" s="6"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="18">
+    <row r="24" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A24" s="16">
         <v>20</v>
       </c>
@@ -7199,22 +8008,34 @@
       <c r="D24" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="G24" s="5">
+        <v>18</v>
+      </c>
+      <c r="H24" s="5">
+        <v>18</v>
+      </c>
+      <c r="I24" s="5">
+        <v>20</v>
+      </c>
+      <c r="J24" s="5">
+        <v>18</v>
+      </c>
+      <c r="K24" s="5">
+        <v>18</v>
+      </c>
       <c r="L24" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>92</v>
       </c>
       <c r="M24" s="6"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="18">
+    <row r="25" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A25" s="16">
         <v>21</v>
       </c>
@@ -7227,22 +8048,34 @@
       <c r="D25" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="G25" s="5">
+        <v>18</v>
+      </c>
+      <c r="H25" s="5">
+        <v>18</v>
+      </c>
+      <c r="I25" s="5">
+        <v>18</v>
+      </c>
+      <c r="J25" s="5">
+        <v>18</v>
+      </c>
+      <c r="K25" s="5">
+        <v>18</v>
+      </c>
       <c r="L25" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
       <c r="M25" s="6"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="18">
+    <row r="26" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A26" s="16">
         <v>22</v>
       </c>
@@ -7255,22 +8088,34 @@
       <c r="D26" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="G26" s="5">
+        <v>17</v>
+      </c>
+      <c r="H26" s="5">
+        <v>17</v>
+      </c>
+      <c r="I26" s="5">
+        <v>17</v>
+      </c>
+      <c r="J26" s="5">
+        <v>18</v>
+      </c>
+      <c r="K26" s="5">
+        <v>16</v>
+      </c>
       <c r="L26" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>85</v>
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="18">
+    <row r="27" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A27" s="16">
         <v>23</v>
       </c>
@@ -7283,22 +8128,34 @@
       <c r="D27" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="G27" s="5">
+        <v>15</v>
+      </c>
+      <c r="H27" s="5">
+        <v>18</v>
+      </c>
+      <c r="I27" s="5">
+        <v>17</v>
+      </c>
+      <c r="J27" s="5">
+        <v>18</v>
+      </c>
+      <c r="K27" s="5">
+        <v>17</v>
+      </c>
       <c r="L27" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>85</v>
       </c>
       <c r="M27" s="6"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="18">
+    <row r="28" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A28" s="16">
         <v>24</v>
       </c>
@@ -7311,22 +8168,34 @@
       <c r="D28" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="G28" s="5">
+        <v>18</v>
+      </c>
+      <c r="H28" s="5">
+        <v>18</v>
+      </c>
+      <c r="I28" s="5">
+        <v>18</v>
+      </c>
+      <c r="J28" s="5">
+        <v>18</v>
+      </c>
+      <c r="K28" s="5">
+        <v>18</v>
+      </c>
       <c r="L28" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
       <c r="M28" s="6"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="18">
+    <row r="29" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A29" s="16">
         <v>25</v>
       </c>
@@ -7339,22 +8208,34 @@
       <c r="D29" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E29" s="23"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="G29" s="5">
+        <v>17</v>
+      </c>
+      <c r="H29" s="5">
+        <v>17</v>
+      </c>
+      <c r="I29" s="5">
+        <v>17</v>
+      </c>
+      <c r="J29" s="5">
+        <v>18</v>
+      </c>
+      <c r="K29" s="5">
+        <v>16</v>
+      </c>
       <c r="L29" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>85</v>
       </c>
       <c r="M29" s="6"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="18">
+    <row r="30" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A30" s="16">
         <v>26</v>
       </c>
@@ -7367,22 +8248,34 @@
       <c r="D30" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="G30" s="5">
+        <v>18</v>
+      </c>
+      <c r="H30" s="5">
+        <v>18</v>
+      </c>
+      <c r="I30" s="5">
+        <v>18</v>
+      </c>
+      <c r="J30" s="5">
+        <v>18</v>
+      </c>
+      <c r="K30" s="5">
+        <v>18</v>
+      </c>
       <c r="L30" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
       <c r="M30" s="6"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="18">
+    <row r="31" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A31" s="16">
         <v>27</v>
       </c>
@@ -7395,22 +8288,34 @@
       <c r="D31" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="G31" s="5">
+        <v>17</v>
+      </c>
+      <c r="H31" s="5">
+        <v>17</v>
+      </c>
+      <c r="I31" s="5">
+        <v>17</v>
+      </c>
+      <c r="J31" s="5">
+        <v>18</v>
+      </c>
+      <c r="K31" s="5">
+        <v>16</v>
+      </c>
       <c r="L31" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>85</v>
       </c>
       <c r="M31" s="6"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="18">
+    <row r="32" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A32" s="16">
         <v>28</v>
       </c>
@@ -7423,22 +8328,34 @@
       <c r="D32" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="G32" s="5">
+        <v>17</v>
+      </c>
+      <c r="H32" s="5">
+        <v>17</v>
+      </c>
+      <c r="I32" s="5">
+        <v>17</v>
+      </c>
+      <c r="J32" s="5">
+        <v>18</v>
+      </c>
+      <c r="K32" s="5">
+        <v>16</v>
+      </c>
       <c r="L32" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>85</v>
       </c>
       <c r="M32" s="6"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="18">
+    <row r="33" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A33" s="16">
         <v>29</v>
       </c>
@@ -7451,22 +8368,34 @@
       <c r="D33" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="23"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="G33" s="5">
+        <v>18</v>
+      </c>
+      <c r="H33" s="5">
+        <v>18</v>
+      </c>
+      <c r="I33" s="5">
+        <v>18</v>
+      </c>
+      <c r="J33" s="5">
+        <v>18</v>
+      </c>
+      <c r="K33" s="5">
+        <v>18</v>
+      </c>
       <c r="L33" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
       <c r="M33" s="6"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="18">
+    <row r="34" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A34" s="16">
         <v>30</v>
       </c>
@@ -7479,22 +8408,34 @@
       <c r="D34" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="G34" s="5">
+        <v>17</v>
+      </c>
+      <c r="H34" s="5">
+        <v>17</v>
+      </c>
+      <c r="I34" s="5">
+        <v>17</v>
+      </c>
+      <c r="J34" s="5">
+        <v>18</v>
+      </c>
+      <c r="K34" s="5">
+        <v>16</v>
+      </c>
       <c r="L34" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>85</v>
       </c>
       <c r="M34" s="6"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="18">
+    <row r="35" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A35" s="16">
         <v>31</v>
       </c>
@@ -7507,22 +8448,34 @@
       <c r="D35" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="E35" s="24"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="G35" s="5">
+        <v>18</v>
+      </c>
+      <c r="H35" s="5">
+        <v>18</v>
+      </c>
+      <c r="I35" s="5">
+        <v>18</v>
+      </c>
+      <c r="J35" s="5">
+        <v>18</v>
+      </c>
+      <c r="K35" s="5">
+        <v>18</v>
+      </c>
       <c r="L35" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
       <c r="M35" s="6"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="18">
+    <row r="36" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A36" s="16">
         <v>32</v>
       </c>
@@ -7535,22 +8488,34 @@
       <c r="D36" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="G36" s="5">
+        <v>18</v>
+      </c>
+      <c r="H36" s="5">
+        <v>18</v>
+      </c>
+      <c r="I36" s="5">
+        <v>18</v>
+      </c>
+      <c r="J36" s="5">
+        <v>18</v>
+      </c>
+      <c r="K36" s="5">
+        <v>18</v>
+      </c>
       <c r="L36" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
       <c r="M36" s="6"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="18">
+    <row r="37" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A37" s="16">
         <v>33</v>
       </c>
@@ -7563,22 +8528,34 @@
       <c r="D37" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E37" s="23"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="G37" s="5">
+        <v>17</v>
+      </c>
+      <c r="H37" s="5">
+        <v>17</v>
+      </c>
+      <c r="I37" s="5">
+        <v>17</v>
+      </c>
+      <c r="J37" s="5">
+        <v>18</v>
+      </c>
+      <c r="K37" s="5">
+        <v>16</v>
+      </c>
       <c r="L37" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>85</v>
       </c>
       <c r="M37" s="6"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="18">
+    <row r="38" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A38" s="16">
         <v>34</v>
       </c>
@@ -7591,22 +8568,34 @@
       <c r="D38" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="G38" s="5">
+        <v>18</v>
+      </c>
+      <c r="H38" s="5">
+        <v>18</v>
+      </c>
+      <c r="I38" s="5">
+        <v>18</v>
+      </c>
+      <c r="J38" s="5">
+        <v>18</v>
+      </c>
+      <c r="K38" s="5">
+        <v>18</v>
+      </c>
       <c r="L38" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="L38" si="3">SUM(G38:K38)</f>
+        <v>90</v>
       </c>
       <c r="M38" s="6"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="18">
+    <row r="39" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A39" s="16">
         <v>38</v>
       </c>
@@ -7619,22 +8608,34 @@
       <c r="D39" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E39" s="24"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="G39" s="5">
+        <v>18</v>
+      </c>
+      <c r="H39" s="5">
+        <v>18</v>
+      </c>
+      <c r="I39" s="5">
+        <v>18</v>
+      </c>
+      <c r="J39" s="5">
+        <v>18</v>
+      </c>
+      <c r="K39" s="5">
+        <v>18</v>
+      </c>
       <c r="L39" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
       <c r="M39" s="6"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="18">
+    <row r="40" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A40" s="16">
         <v>36</v>
       </c>
@@ -7647,22 +8648,34 @@
       <c r="D40" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="E40" s="25"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="G40" s="5">
+        <v>17</v>
+      </c>
+      <c r="H40" s="5">
+        <v>17</v>
+      </c>
+      <c r="I40" s="5">
+        <v>17</v>
+      </c>
+      <c r="J40" s="5">
+        <v>18</v>
+      </c>
+      <c r="K40" s="5">
+        <v>16</v>
+      </c>
       <c r="L40" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>85</v>
       </c>
       <c r="M40" s="6"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="18">
+    <row r="41" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A41" s="16">
         <v>37</v>
       </c>
@@ -7675,22 +8688,34 @@
       <c r="D41" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="G41" s="5">
+        <v>18</v>
+      </c>
+      <c r="H41" s="5">
+        <v>18</v>
+      </c>
+      <c r="I41" s="5">
+        <v>18</v>
+      </c>
+      <c r="J41" s="5">
+        <v>18</v>
+      </c>
+      <c r="K41" s="5">
+        <v>18</v>
+      </c>
       <c r="L41" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
       <c r="M41" s="6"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="18">
+    <row r="42" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A42" s="16">
         <v>38</v>
       </c>
@@ -7703,22 +8728,34 @@
       <c r="D42" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="G42" s="5">
+        <v>18</v>
+      </c>
+      <c r="H42" s="5">
+        <v>18</v>
+      </c>
+      <c r="I42" s="5">
+        <v>20</v>
+      </c>
+      <c r="J42" s="5">
+        <v>18</v>
+      </c>
+      <c r="K42" s="5">
+        <v>18</v>
+      </c>
       <c r="L42" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>92</v>
       </c>
       <c r="M42" s="6"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="18">
+    <row r="43" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A43" s="16">
         <v>39</v>
       </c>
@@ -7731,22 +8768,34 @@
       <c r="D43" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="G43" s="5">
+        <v>18</v>
+      </c>
+      <c r="H43" s="5">
+        <v>18</v>
+      </c>
+      <c r="I43" s="5">
+        <v>18</v>
+      </c>
+      <c r="J43" s="5">
+        <v>18</v>
+      </c>
+      <c r="K43" s="5">
+        <v>18</v>
+      </c>
       <c r="L43" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
       <c r="M43" s="6"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="18">
+    <row r="44" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A44" s="16">
         <v>40</v>
       </c>
@@ -7759,22 +8808,22 @@
       <c r="D44" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E44" s="25"/>
-      <c r="F44" s="22"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="28"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M44" s="6"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="18">
+    <row r="45" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A45" s="16">
         <v>41</v>
       </c>
@@ -7787,22 +8836,34 @@
       <c r="D45" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E45" s="23"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="G45" s="5">
+        <v>17</v>
+      </c>
+      <c r="H45" s="5">
+        <v>17</v>
+      </c>
+      <c r="I45" s="5">
+        <v>18</v>
+      </c>
+      <c r="J45" s="5">
+        <v>18</v>
+      </c>
+      <c r="K45" s="5">
+        <v>18</v>
+      </c>
       <c r="L45" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>88</v>
       </c>
       <c r="M45" s="6"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="18">
+    <row r="46" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A46" s="16">
         <v>42</v>
       </c>
@@ -7815,22 +8876,34 @@
       <c r="D46" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="G46" s="5">
+        <v>18</v>
+      </c>
+      <c r="H46" s="5">
+        <v>18</v>
+      </c>
+      <c r="I46" s="5">
+        <v>18</v>
+      </c>
+      <c r="J46" s="5">
+        <v>18</v>
+      </c>
+      <c r="K46" s="5">
+        <v>18</v>
+      </c>
       <c r="L46" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
       <c r="M46" s="6"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="18">
+    <row r="47" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A47" s="16">
         <v>43</v>
       </c>
@@ -7843,22 +8916,34 @@
       <c r="D47" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="G47" s="5">
+        <v>15</v>
+      </c>
+      <c r="H47" s="5">
+        <v>18</v>
+      </c>
+      <c r="I47" s="5">
+        <v>17</v>
+      </c>
+      <c r="J47" s="5">
+        <v>18</v>
+      </c>
+      <c r="K47" s="5">
+        <v>17</v>
+      </c>
       <c r="L47" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>85</v>
       </c>
       <c r="M47" s="6"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="18">
+    <row r="48" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A48" s="16">
         <v>44</v>
       </c>
@@ -7871,22 +8956,22 @@
       <c r="D48" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E48" s="25"/>
-      <c r="F48" s="22"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="27"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M48" s="6"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="18">
+    <row r="49" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A49" s="16">
         <v>45</v>
       </c>
@@ -7899,22 +8984,34 @@
       <c r="D49" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="E49" s="23"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="G49" s="5">
+        <v>15</v>
+      </c>
+      <c r="H49" s="5">
+        <v>18</v>
+      </c>
+      <c r="I49" s="5">
+        <v>17</v>
+      </c>
+      <c r="J49" s="5">
+        <v>18</v>
+      </c>
+      <c r="K49" s="5">
+        <v>17</v>
+      </c>
       <c r="L49" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>85</v>
       </c>
       <c r="M49" s="6"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="18">
+    <row r="50" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A50" s="16">
         <v>46</v>
       </c>
@@ -7927,22 +9024,34 @@
       <c r="D50" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E50" s="24"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="8"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="G50" s="5">
+        <v>18</v>
+      </c>
+      <c r="H50" s="5">
+        <v>18</v>
+      </c>
+      <c r="I50" s="5">
+        <v>18</v>
+      </c>
+      <c r="J50" s="5">
+        <v>18</v>
+      </c>
+      <c r="K50" s="5">
+        <v>18</v>
+      </c>
       <c r="L50" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
       <c r="M50" s="6"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="18">
+    <row r="51" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A51" s="16">
         <v>47</v>
       </c>
@@ -7955,22 +9064,34 @@
       <c r="D51" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E51" s="24"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="8"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="G51" s="5">
+        <v>17</v>
+      </c>
+      <c r="H51" s="5">
+        <v>17</v>
+      </c>
+      <c r="I51" s="5">
+        <v>17</v>
+      </c>
+      <c r="J51" s="5">
+        <v>18</v>
+      </c>
+      <c r="K51" s="5">
+        <v>16</v>
+      </c>
       <c r="L51" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>85</v>
       </c>
       <c r="M51" s="6"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="18">
+    <row r="52" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A52" s="16">
         <v>48</v>
       </c>
@@ -7983,52 +9104,43 @@
       <c r="D52" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="E52" s="25"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="8"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="G52" s="5">
+        <v>18</v>
+      </c>
+      <c r="H52" s="5">
+        <v>18</v>
+      </c>
+      <c r="I52" s="5">
+        <v>18</v>
+      </c>
+      <c r="J52" s="5">
+        <v>18</v>
+      </c>
+      <c r="K52" s="5">
+        <v>18</v>
+      </c>
       <c r="L52" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
       <c r="M52" s="6"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="F29:F32"/>
+  <mergeCells count="6">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="G3:K3"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="E45:E48"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="F49:F52"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="E37:E40"/>
-    <mergeCell ref="E41:E44"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="F41:F44"/>
-    <mergeCell ref="F45:F48"/>
+    <mergeCell ref="E5:E52"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Grade 2018/ProjectScores/NIIT-Project-Score-YC-2018.xlsx
+++ b/Grade 2018/ProjectScores/NIIT-Project-Score-YC-2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NIIT\NIIT教案\Sept-2020---Jan-2021\Grade 2018\ProjectScores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A144B9-ABAC-4C9A-8D16-62E30123E4D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04ACC710-4691-4696-BA88-CADDEEF831DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="392">
   <si>
     <t>Trainer</t>
   </si>
@@ -1393,7 +1393,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1443,14 +1443,11 @@
     <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1459,6 +1456,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1473,23 +1479,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2079,21 +2076,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
@@ -2101,39 +2098,39 @@
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
       <c r="N2" s="3"/>
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="12"/>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
       <c r="L3" s="14"/>
       <c r="M3" s="13"/>
       <c r="N3" s="4"/>
@@ -2199,8 +2196,8 @@
       <c r="D5" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="20"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="19"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -2227,8 +2224,8 @@
       <c r="D6" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="21"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="20"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -2255,8 +2252,8 @@
       <c r="D7" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="21"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="20"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -2283,8 +2280,8 @@
       <c r="D8" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="22"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -2311,8 +2308,8 @@
       <c r="D9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="20"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="19"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -2339,8 +2336,8 @@
       <c r="D10" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="21"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -2367,8 +2364,8 @@
       <c r="D11" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="21"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -2395,8 +2392,8 @@
       <c r="D12" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="22"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -2423,8 +2420,8 @@
       <c r="D13" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="20"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="19"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -2451,8 +2448,8 @@
       <c r="D14" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="21"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -2479,8 +2476,8 @@
       <c r="D15" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="21"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -2507,8 +2504,8 @@
       <c r="D16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="22"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="21"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -2535,8 +2532,8 @@
       <c r="D17" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="20"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="19"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -2563,8 +2560,8 @@
       <c r="D18" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="21"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="20"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -2591,8 +2588,8 @@
       <c r="D19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="21"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="20"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -2619,8 +2616,8 @@
       <c r="D20" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="22"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="21"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -2647,8 +2644,8 @@
       <c r="D21" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="20"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="19"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -2675,8 +2672,8 @@
       <c r="D22" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="21"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="20"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -2703,8 +2700,8 @@
       <c r="D23" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="21"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="20"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -2731,8 +2728,8 @@
       <c r="D24" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="22"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="21"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -2759,8 +2756,8 @@
       <c r="D25" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="20"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="19"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -2787,8 +2784,8 @@
       <c r="D26" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="21"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="20"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -2815,8 +2812,8 @@
       <c r="D27" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="21"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="20"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -2843,8 +2840,8 @@
       <c r="D28" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="22"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="21"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -2871,8 +2868,8 @@
       <c r="D29" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="20"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="19"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
@@ -2899,8 +2896,8 @@
       <c r="D30" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="21"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="20"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -2927,8 +2924,8 @@
       <c r="D31" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="21"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="20"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -2955,8 +2952,8 @@
       <c r="D32" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="22"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="21"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
@@ -2983,8 +2980,8 @@
       <c r="D33" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="20"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="19"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
@@ -3011,8 +3008,8 @@
       <c r="D34" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="18"/>
-      <c r="F34" s="21"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="20"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
@@ -3039,8 +3036,8 @@
       <c r="D35" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="E35" s="18"/>
-      <c r="F35" s="21"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="20"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
@@ -3067,8 +3064,8 @@
       <c r="D36" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="E36" s="19"/>
-      <c r="F36" s="22"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="21"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
@@ -3095,8 +3092,8 @@
       <c r="D37" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="20"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="19"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -3123,8 +3120,8 @@
       <c r="D38" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="21"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="20"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
@@ -3151,8 +3148,8 @@
       <c r="D39" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="18"/>
-      <c r="F39" s="21"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="20"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -3179,8 +3176,8 @@
       <c r="D40" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="E40" s="19"/>
-      <c r="F40" s="22"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="21"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -3207,8 +3204,8 @@
       <c r="D41" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="20"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="19"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
@@ -3235,8 +3232,8 @@
       <c r="D42" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="18"/>
-      <c r="F42" s="21"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="20"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -3263,8 +3260,8 @@
       <c r="D43" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E43" s="18"/>
-      <c r="F43" s="21"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="20"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
@@ -3291,8 +3288,8 @@
       <c r="D44" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="19"/>
-      <c r="F44" s="22"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="21"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
@@ -3319,8 +3316,8 @@
       <c r="D45" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="E45" s="17"/>
-      <c r="F45" s="20"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="19"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
@@ -3347,8 +3344,8 @@
       <c r="D46" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E46" s="18"/>
-      <c r="F46" s="21"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="20"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
@@ -3375,8 +3372,8 @@
       <c r="D47" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E47" s="18"/>
-      <c r="F47" s="21"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="20"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
@@ -3403,8 +3400,8 @@
       <c r="D48" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="E48" s="19"/>
-      <c r="F48" s="22"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="21"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
@@ -3431,8 +3428,8 @@
       <c r="D49" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="E49" s="17"/>
-      <c r="F49" s="20"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="19"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
@@ -3459,8 +3456,8 @@
       <c r="D50" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E50" s="18"/>
-      <c r="F50" s="21"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="20"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
@@ -3487,8 +3484,8 @@
       <c r="D51" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E51" s="19"/>
-      <c r="F51" s="22"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="21"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
@@ -3504,19 +3501,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="E41:E44"/>
-    <mergeCell ref="F41:F44"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="F29:F32"/>
     <mergeCell ref="E45:E48"/>
     <mergeCell ref="F45:F48"/>
     <mergeCell ref="E49:E51"/>
@@ -3533,6 +3517,19 @@
     <mergeCell ref="E33:E36"/>
     <mergeCell ref="F33:F36"/>
     <mergeCell ref="E37:E40"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="E41:E44"/>
+    <mergeCell ref="F41:F44"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="F29:F32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3569,21 +3566,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
@@ -3591,39 +3588,39 @@
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
       <c r="N2" s="3"/>
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="12"/>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
       <c r="L3" s="14"/>
       <c r="M3" s="13"/>
       <c r="N3" s="4"/>
@@ -3689,8 +3686,8 @@
       <c r="D5" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="20"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="19"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -3717,8 +3714,8 @@
       <c r="D6" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="21"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="20"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -3745,8 +3742,8 @@
       <c r="D7" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="21"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="20"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -3773,8 +3770,8 @@
       <c r="D8" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="22"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -3801,8 +3798,8 @@
       <c r="D9" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="20"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="19"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -3829,8 +3826,8 @@
       <c r="D10" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="21"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -3857,8 +3854,8 @@
       <c r="D11" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="21"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -3885,8 +3882,8 @@
       <c r="D12" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="22"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -3913,8 +3910,8 @@
       <c r="D13" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="20"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="19"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -3941,8 +3938,8 @@
       <c r="D14" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="21"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -3969,8 +3966,8 @@
       <c r="D15" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="21"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -3997,8 +3994,8 @@
       <c r="D16" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="22"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="21"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -4025,8 +4022,8 @@
       <c r="D17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="20"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="19"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -4053,8 +4050,8 @@
       <c r="D18" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="21"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="20"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -4081,8 +4078,8 @@
       <c r="D19" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="21"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="20"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -4109,8 +4106,8 @@
       <c r="D20" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="22"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="21"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -4137,8 +4134,8 @@
       <c r="D21" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="20"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="19"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -4165,8 +4162,8 @@
       <c r="D22" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="21"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="20"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -4193,8 +4190,8 @@
       <c r="D23" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="21"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="20"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -4221,8 +4218,8 @@
       <c r="D24" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="22"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="21"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -4249,8 +4246,8 @@
       <c r="D25" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="20"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="19"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -4277,8 +4274,8 @@
       <c r="D26" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="21"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="20"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -4305,8 +4302,8 @@
       <c r="D27" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="21"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="20"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -4333,8 +4330,8 @@
       <c r="D28" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="22"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="21"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -4361,8 +4358,8 @@
       <c r="D29" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="20"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="19"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
@@ -4389,8 +4386,8 @@
       <c r="D30" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="21"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="20"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -4417,8 +4414,8 @@
       <c r="D31" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="21"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="20"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -4445,8 +4442,8 @@
       <c r="D32" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="22"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="21"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
@@ -4473,8 +4470,8 @@
       <c r="D33" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="20"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="19"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
@@ -4501,8 +4498,8 @@
       <c r="D34" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E34" s="18"/>
-      <c r="F34" s="21"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="20"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
@@ -4529,8 +4526,8 @@
       <c r="D35" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="E35" s="18"/>
-      <c r="F35" s="21"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="20"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
@@ -4557,8 +4554,8 @@
       <c r="D36" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="E36" s="19"/>
-      <c r="F36" s="22"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="21"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
@@ -4585,8 +4582,8 @@
       <c r="D37" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="20"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="19"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -4613,8 +4610,8 @@
       <c r="D38" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="21"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="20"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
@@ -4641,8 +4638,8 @@
       <c r="D39" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E39" s="18"/>
-      <c r="F39" s="21"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="20"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -4669,8 +4666,8 @@
       <c r="D40" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E40" s="19"/>
-      <c r="F40" s="22"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="21"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -4697,8 +4694,8 @@
       <c r="D41" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="20"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="19"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
@@ -4725,8 +4722,8 @@
       <c r="D42" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="E42" s="18"/>
-      <c r="F42" s="21"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="20"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -4753,8 +4750,8 @@
       <c r="D43" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E43" s="18"/>
-      <c r="F43" s="21"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="20"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
@@ -4781,8 +4778,8 @@
       <c r="D44" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E44" s="19"/>
-      <c r="F44" s="22"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="21"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
@@ -4809,8 +4806,8 @@
       <c r="D45" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E45" s="17"/>
-      <c r="F45" s="20"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="19"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
@@ -4837,8 +4834,8 @@
       <c r="D46" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E46" s="18"/>
-      <c r="F46" s="21"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="20"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
@@ -4865,8 +4862,8 @@
       <c r="D47" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="E47" s="18"/>
-      <c r="F47" s="21"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="20"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
@@ -4893,8 +4890,8 @@
       <c r="D48" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E48" s="19"/>
-      <c r="F48" s="22"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="21"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
@@ -4921,8 +4918,8 @@
       <c r="D49" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="E49" s="17"/>
-      <c r="F49" s="20"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="19"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
@@ -4949,8 +4946,8 @@
       <c r="D50" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E50" s="18"/>
-      <c r="F50" s="21"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="20"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
@@ -4977,8 +4974,8 @@
       <c r="D51" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="E51" s="18"/>
-      <c r="F51" s="21"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="20"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
@@ -5005,8 +5002,8 @@
       <c r="D52" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E52" s="19"/>
-      <c r="F52" s="22"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="21"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
@@ -5022,6 +5019,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F13:F16"/>
     <mergeCell ref="E49:E52"/>
     <mergeCell ref="F49:F52"/>
     <mergeCell ref="E29:E32"/>
@@ -5034,23 +5048,6 @@
     <mergeCell ref="F41:F44"/>
     <mergeCell ref="E45:E48"/>
     <mergeCell ref="F45:F48"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:K3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5088,21 +5085,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
@@ -5110,45 +5107,45 @@
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
       <c r="N2" s="3"/>
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="12"/>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
       <c r="L3" s="14"/>
       <c r="M3" s="13"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" ht="112.5" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
@@ -5208,10 +5205,10 @@
       <c r="D5" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="29" t="s">
         <v>384</v>
       </c>
-      <c r="F5" s="27"/>
+      <c r="F5" s="17"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -5238,8 +5235,8 @@
       <c r="D6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="32" t="s">
+      <c r="E6" s="30"/>
+      <c r="F6" s="18" t="s">
         <v>390</v>
       </c>
       <c r="G6" s="5">
@@ -5278,8 +5275,8 @@
       <c r="D7" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="32" t="s">
+      <c r="E7" s="30"/>
+      <c r="F7" s="18" t="s">
         <v>388</v>
       </c>
       <c r="G7" s="5">
@@ -5318,8 +5315,8 @@
       <c r="D8" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="32" t="s">
+      <c r="E8" s="30"/>
+      <c r="F8" s="18" t="s">
         <v>388</v>
       </c>
       <c r="G8" s="5">
@@ -5358,8 +5355,8 @@
       <c r="D9" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="32" t="s">
+      <c r="E9" s="30"/>
+      <c r="F9" s="18" t="s">
         <v>387</v>
       </c>
       <c r="G9" s="5">
@@ -5398,8 +5395,8 @@
       <c r="D10" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="32" t="s">
+      <c r="E10" s="30"/>
+      <c r="F10" s="18" t="s">
         <v>386</v>
       </c>
       <c r="G10" s="5">
@@ -5438,8 +5435,8 @@
       <c r="D11" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="32" t="s">
+      <c r="E11" s="30"/>
+      <c r="F11" s="18" t="s">
         <v>385</v>
       </c>
       <c r="G11" s="5">
@@ -5478,8 +5475,8 @@
       <c r="D12" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="32" t="s">
+      <c r="E12" s="30"/>
+      <c r="F12" s="18" t="s">
         <v>389</v>
       </c>
       <c r="G12" s="5">
@@ -5518,8 +5515,8 @@
       <c r="D13" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="32" t="s">
+      <c r="E13" s="30"/>
+      <c r="F13" s="18" t="s">
         <v>389</v>
       </c>
       <c r="G13" s="5">
@@ -5558,8 +5555,8 @@
       <c r="D14" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="32" t="s">
+      <c r="E14" s="30"/>
+      <c r="F14" s="18" t="s">
         <v>386</v>
       </c>
       <c r="G14" s="5">
@@ -5598,8 +5595,8 @@
       <c r="D15" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="32" t="s">
+      <c r="E15" s="30"/>
+      <c r="F15" s="18" t="s">
         <v>386</v>
       </c>
       <c r="G15" s="5">
@@ -5638,8 +5635,8 @@
       <c r="D16" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="32" t="s">
+      <c r="E16" s="30"/>
+      <c r="F16" s="18" t="s">
         <v>388</v>
       </c>
       <c r="G16" s="5">
@@ -5678,8 +5675,8 @@
       <c r="D17" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="32" t="s">
+      <c r="E17" s="30"/>
+      <c r="F17" s="18" t="s">
         <v>388</v>
       </c>
       <c r="G17" s="5">
@@ -5718,8 +5715,8 @@
       <c r="D18" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="32" t="s">
+      <c r="E18" s="30"/>
+      <c r="F18" s="18" t="s">
         <v>388</v>
       </c>
       <c r="G18" s="5">
@@ -5758,8 +5755,8 @@
       <c r="D19" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="32" t="s">
+      <c r="E19" s="30"/>
+      <c r="F19" s="18" t="s">
         <v>390</v>
       </c>
       <c r="G19" s="5">
@@ -5798,8 +5795,8 @@
       <c r="D20" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="32" t="s">
+      <c r="E20" s="30"/>
+      <c r="F20" s="18" t="s">
         <v>385</v>
       </c>
       <c r="G20" s="5">
@@ -5838,8 +5835,8 @@
       <c r="D21" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="32" t="s">
+      <c r="E21" s="30"/>
+      <c r="F21" s="18" t="s">
         <v>389</v>
       </c>
       <c r="G21" s="5">
@@ -5878,8 +5875,8 @@
       <c r="D22" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="29"/>
-      <c r="F22" s="32" t="s">
+      <c r="E22" s="30"/>
+      <c r="F22" s="18" t="s">
         <v>389</v>
       </c>
       <c r="G22" s="5">
@@ -5918,8 +5915,8 @@
       <c r="D23" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E23" s="29"/>
-      <c r="F23" s="32" t="s">
+      <c r="E23" s="30"/>
+      <c r="F23" s="18" t="s">
         <v>386</v>
       </c>
       <c r="G23" s="5">
@@ -5958,8 +5955,8 @@
       <c r="D24" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="29"/>
-      <c r="F24" s="32" t="s">
+      <c r="E24" s="30"/>
+      <c r="F24" s="18" t="s">
         <v>387</v>
       </c>
       <c r="G24" s="5">
@@ -5998,8 +5995,8 @@
       <c r="D25" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="29"/>
-      <c r="F25" s="32" t="s">
+      <c r="E25" s="30"/>
+      <c r="F25" s="18" t="s">
         <v>387</v>
       </c>
       <c r="G25" s="5">
@@ -6038,8 +6035,8 @@
       <c r="D26" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="32" t="s">
+      <c r="E26" s="30"/>
+      <c r="F26" s="18" t="s">
         <v>385</v>
       </c>
       <c r="G26" s="5">
@@ -6078,8 +6075,8 @@
       <c r="D27" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E27" s="29"/>
-      <c r="F27" s="32" t="s">
+      <c r="E27" s="30"/>
+      <c r="F27" s="18" t="s">
         <v>389</v>
       </c>
       <c r="G27" s="5">
@@ -6118,8 +6115,8 @@
       <c r="D28" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="29"/>
-      <c r="F28" s="32" t="s">
+      <c r="E28" s="30"/>
+      <c r="F28" s="18" t="s">
         <v>387</v>
       </c>
       <c r="G28" s="5">
@@ -6158,8 +6155,8 @@
       <c r="D29" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="E29" s="29"/>
-      <c r="F29" s="32" t="s">
+      <c r="E29" s="30"/>
+      <c r="F29" s="18" t="s">
         <v>389</v>
       </c>
       <c r="G29" s="5">
@@ -6198,8 +6195,8 @@
       <c r="D30" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="29"/>
-      <c r="F30" s="32" t="s">
+      <c r="E30" s="30"/>
+      <c r="F30" s="18" t="s">
         <v>387</v>
       </c>
       <c r="G30" s="5">
@@ -6238,8 +6235,8 @@
       <c r="D31" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="E31" s="29"/>
-      <c r="F31" s="32" t="s">
+      <c r="E31" s="30"/>
+      <c r="F31" s="18" t="s">
         <v>386</v>
       </c>
       <c r="G31" s="5">
@@ -6278,8 +6275,8 @@
       <c r="D32" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="E32" s="29"/>
-      <c r="F32" s="32" t="s">
+      <c r="E32" s="30"/>
+      <c r="F32" s="18" t="s">
         <v>390</v>
       </c>
       <c r="G32" s="5">
@@ -6318,8 +6315,8 @@
       <c r="D33" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="E33" s="29"/>
-      <c r="F33" s="32" t="s">
+      <c r="E33" s="30"/>
+      <c r="F33" s="18" t="s">
         <v>388</v>
       </c>
       <c r="G33" s="5">
@@ -6358,8 +6355,8 @@
       <c r="D34" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E34" s="29"/>
-      <c r="F34" s="32" t="s">
+      <c r="E34" s="30"/>
+      <c r="F34" s="18" t="s">
         <v>385</v>
       </c>
       <c r="G34" s="5">
@@ -6398,8 +6395,8 @@
       <c r="D35" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E35" s="29"/>
-      <c r="F35" s="32" t="s">
+      <c r="E35" s="30"/>
+      <c r="F35" s="18" t="s">
         <v>391</v>
       </c>
       <c r="G35" s="5">
@@ -6438,8 +6435,8 @@
       <c r="D36" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="E36" s="29"/>
-      <c r="F36" s="32" t="s">
+      <c r="E36" s="30"/>
+      <c r="F36" s="18" t="s">
         <v>386</v>
       </c>
       <c r="G36" s="5">
@@ -6478,8 +6475,8 @@
       <c r="D37" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E37" s="29"/>
-      <c r="F37" s="32" t="s">
+      <c r="E37" s="30"/>
+      <c r="F37" s="18" t="s">
         <v>390</v>
       </c>
       <c r="G37" s="5">
@@ -6518,8 +6515,8 @@
       <c r="D38" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="E38" s="29"/>
-      <c r="F38" s="32" t="s">
+      <c r="E38" s="30"/>
+      <c r="F38" s="18" t="s">
         <v>388</v>
       </c>
       <c r="G38" s="5">
@@ -6558,8 +6555,8 @@
       <c r="D39" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="29"/>
-      <c r="F39" s="32" t="s">
+      <c r="E39" s="30"/>
+      <c r="F39" s="18" t="s">
         <v>389</v>
       </c>
       <c r="G39" s="5">
@@ -6598,8 +6595,8 @@
       <c r="D40" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E40" s="29"/>
-      <c r="F40" s="32" t="s">
+      <c r="E40" s="30"/>
+      <c r="F40" s="18" t="s">
         <v>387</v>
       </c>
       <c r="G40" s="5">
@@ -6638,8 +6635,8 @@
       <c r="D41" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E41" s="29"/>
-      <c r="F41" s="32" t="s">
+      <c r="E41" s="30"/>
+      <c r="F41" s="18" t="s">
         <v>387</v>
       </c>
       <c r="G41" s="5">
@@ -6678,8 +6675,8 @@
       <c r="D42" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="29"/>
-      <c r="F42" s="32" t="s">
+      <c r="E42" s="30"/>
+      <c r="F42" s="18" t="s">
         <v>390</v>
       </c>
       <c r="G42" s="5">
@@ -6718,8 +6715,8 @@
       <c r="D43" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="E43" s="29"/>
-      <c r="F43" s="32" t="s">
+      <c r="E43" s="30"/>
+      <c r="F43" s="18" t="s">
         <v>389</v>
       </c>
       <c r="G43" s="5">
@@ -6758,8 +6755,8 @@
       <c r="D44" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E44" s="29"/>
-      <c r="F44" s="32" t="s">
+      <c r="E44" s="30"/>
+      <c r="F44" s="18" t="s">
         <v>386</v>
       </c>
       <c r="G44" s="5">
@@ -6798,8 +6795,8 @@
       <c r="D45" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="E45" s="29"/>
-      <c r="F45" s="32" t="s">
+      <c r="E45" s="30"/>
+      <c r="F45" s="18" t="s">
         <v>390</v>
       </c>
       <c r="G45" s="5">
@@ -6838,8 +6835,8 @@
       <c r="D46" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E46" s="29"/>
-      <c r="F46" s="32" t="s">
+      <c r="E46" s="30"/>
+      <c r="F46" s="18" t="s">
         <v>387</v>
       </c>
       <c r="G46" s="5">
@@ -6878,8 +6875,8 @@
       <c r="D47" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="E47" s="29"/>
-      <c r="F47" s="32" t="s">
+      <c r="E47" s="30"/>
+      <c r="F47" s="18" t="s">
         <v>390</v>
       </c>
       <c r="G47" s="5">
@@ -6918,8 +6915,8 @@
       <c r="D48" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E48" s="29"/>
-      <c r="F48" s="32" t="s">
+      <c r="E48" s="30"/>
+      <c r="F48" s="18" t="s">
         <v>391</v>
       </c>
       <c r="G48" s="5">
@@ -6958,8 +6955,8 @@
       <c r="D49" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E49" s="29"/>
-      <c r="F49" s="32" t="s">
+      <c r="E49" s="30"/>
+      <c r="F49" s="18" t="s">
         <v>386</v>
       </c>
       <c r="G49" s="5">
@@ -6998,8 +6995,8 @@
       <c r="D50" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E50" s="29"/>
-      <c r="F50" s="32" t="s">
+      <c r="E50" s="30"/>
+      <c r="F50" s="18" t="s">
         <v>390</v>
       </c>
       <c r="G50" s="5">
@@ -7038,8 +7035,8 @@
       <c r="D51" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E51" s="29"/>
-      <c r="F51" s="32" t="s">
+      <c r="E51" s="30"/>
+      <c r="F51" s="18" t="s">
         <v>386</v>
       </c>
       <c r="G51" s="5">
@@ -7078,8 +7075,8 @@
       <c r="D52" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="E52" s="30"/>
-      <c r="F52" s="32" t="s">
+      <c r="E52" s="31"/>
+      <c r="F52" s="18" t="s">
         <v>388</v>
       </c>
       <c r="G52" s="5">
@@ -7125,8 +7122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C58AC392-8AF7-4A44-9626-3E0D6726ABEF}">
   <dimension ref="A1:Y52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52:K52"/>
+    <sheetView tabSelected="1" topLeftCell="C34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="69.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7150,21 +7147,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
@@ -7172,39 +7169,39 @@
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
       <c r="N2" s="3"/>
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="12"/>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
       <c r="L3" s="14"/>
       <c r="M3" s="13"/>
       <c r="N3" s="4"/>
@@ -7270,10 +7267,10 @@
       <c r="D5" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="29" t="s">
         <v>384</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="18" t="s">
         <v>389</v>
       </c>
       <c r="G5" s="5">
@@ -7312,8 +7309,8 @@
       <c r="D6" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="32" t="s">
+      <c r="E6" s="30"/>
+      <c r="F6" s="18" t="s">
         <v>389</v>
       </c>
       <c r="G6" s="5">
@@ -7352,8 +7349,8 @@
       <c r="D7" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="32" t="s">
+      <c r="E7" s="30"/>
+      <c r="F7" s="18" t="s">
         <v>388</v>
       </c>
       <c r="G7" s="5">
@@ -7392,16 +7389,28 @@
       <c r="D8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="G8" s="5">
+        <v>14</v>
+      </c>
+      <c r="H8" s="5">
+        <v>14</v>
+      </c>
+      <c r="I8" s="5">
+        <v>14</v>
+      </c>
+      <c r="J8" s="5">
+        <v>14</v>
+      </c>
+      <c r="K8" s="5">
+        <v>14</v>
+      </c>
       <c r="L8" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="L8" si="2">SUM(G8:K8)</f>
+        <v>70</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="3"/>
@@ -7420,8 +7429,8 @@
       <c r="D9" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="32" t="s">
+      <c r="E9" s="30"/>
+      <c r="F9" s="18" t="s">
         <v>387</v>
       </c>
       <c r="G9" s="5">
@@ -7460,8 +7469,8 @@
       <c r="D10" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="32" t="s">
+      <c r="E10" s="30"/>
+      <c r="F10" s="18" t="s">
         <v>389</v>
       </c>
       <c r="G10" s="5">
@@ -7500,8 +7509,8 @@
       <c r="D11" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="32" t="s">
+      <c r="E11" s="30"/>
+      <c r="F11" s="18" t="s">
         <v>387</v>
       </c>
       <c r="G11" s="5">
@@ -7540,8 +7549,8 @@
       <c r="D12" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="32" t="s">
+      <c r="E12" s="30"/>
+      <c r="F12" s="18" t="s">
         <v>388</v>
       </c>
       <c r="G12" s="5">
@@ -7580,8 +7589,8 @@
       <c r="D13" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="32" t="s">
+      <c r="E13" s="30"/>
+      <c r="F13" s="18" t="s">
         <v>386</v>
       </c>
       <c r="G13" s="5">
@@ -7620,8 +7629,8 @@
       <c r="D14" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="32" t="s">
+      <c r="E14" s="30"/>
+      <c r="F14" s="18" t="s">
         <v>388</v>
       </c>
       <c r="G14" s="5">
@@ -7660,8 +7669,8 @@
       <c r="D15" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="32" t="s">
+      <c r="E15" s="30"/>
+      <c r="F15" s="18" t="s">
         <v>386</v>
       </c>
       <c r="G15" s="5">
@@ -7700,8 +7709,8 @@
       <c r="D16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="32" t="s">
+      <c r="E16" s="30"/>
+      <c r="F16" s="18" t="s">
         <v>390</v>
       </c>
       <c r="G16" s="5">
@@ -7720,7 +7729,7 @@
         <v>18</v>
       </c>
       <c r="L16" s="5">
-        <f t="shared" ref="L16" si="2">SUM(G16:K16)</f>
+        <f t="shared" ref="L16" si="3">SUM(G16:K16)</f>
         <v>90</v>
       </c>
       <c r="M16" s="6"/>
@@ -7740,8 +7749,8 @@
       <c r="D17" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="32" t="s">
+      <c r="E17" s="30"/>
+      <c r="F17" s="18" t="s">
         <v>391</v>
       </c>
       <c r="G17" s="5">
@@ -7780,8 +7789,8 @@
       <c r="D18" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="32" t="s">
+      <c r="E18" s="30"/>
+      <c r="F18" s="18" t="s">
         <v>390</v>
       </c>
       <c r="G18" s="5">
@@ -7820,8 +7829,8 @@
       <c r="D19" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="32" t="s">
+      <c r="E19" s="30"/>
+      <c r="F19" s="18" t="s">
         <v>388</v>
       </c>
       <c r="G19" s="5">
@@ -7860,8 +7869,8 @@
       <c r="D20" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="32" t="s">
+      <c r="E20" s="30"/>
+      <c r="F20" s="18" t="s">
         <v>388</v>
       </c>
       <c r="G20" s="5">
@@ -7900,8 +7909,8 @@
       <c r="D21" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="32" t="s">
+      <c r="E21" s="30"/>
+      <c r="F21" s="18" t="s">
         <v>386</v>
       </c>
       <c r="G21" s="5">
@@ -7940,16 +7949,28 @@
       <c r="D22" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="29"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="G22" s="5">
+        <v>14</v>
+      </c>
+      <c r="H22" s="5">
+        <v>14</v>
+      </c>
+      <c r="I22" s="5">
+        <v>14</v>
+      </c>
+      <c r="J22" s="5">
+        <v>14</v>
+      </c>
+      <c r="K22" s="5">
+        <v>14</v>
+      </c>
       <c r="L22" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="M22" s="6"/>
       <c r="N22" s="3"/>
@@ -7968,8 +7989,8 @@
       <c r="D23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="29"/>
-      <c r="F23" s="32" t="s">
+      <c r="E23" s="30"/>
+      <c r="F23" s="18" t="s">
         <v>390</v>
       </c>
       <c r="G23" s="5">
@@ -8008,8 +8029,8 @@
       <c r="D24" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="E24" s="29"/>
-      <c r="F24" s="32" t="s">
+      <c r="E24" s="30"/>
+      <c r="F24" s="18" t="s">
         <v>389</v>
       </c>
       <c r="G24" s="5">
@@ -8048,8 +8069,8 @@
       <c r="D25" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="29"/>
-      <c r="F25" s="32" t="s">
+      <c r="E25" s="30"/>
+      <c r="F25" s="18" t="s">
         <v>391</v>
       </c>
       <c r="G25" s="5">
@@ -8088,8 +8109,8 @@
       <c r="D26" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="32" t="s">
+      <c r="E26" s="30"/>
+      <c r="F26" s="18" t="s">
         <v>389</v>
       </c>
       <c r="G26" s="5">
@@ -8128,8 +8149,8 @@
       <c r="D27" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="E27" s="29"/>
-      <c r="F27" s="32" t="s">
+      <c r="E27" s="30"/>
+      <c r="F27" s="18" t="s">
         <v>387</v>
       </c>
       <c r="G27" s="5">
@@ -8168,8 +8189,8 @@
       <c r="D28" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="29"/>
-      <c r="F28" s="32" t="s">
+      <c r="E28" s="30"/>
+      <c r="F28" s="18" t="s">
         <v>387</v>
       </c>
       <c r="G28" s="5">
@@ -8208,8 +8229,8 @@
       <c r="D29" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E29" s="29"/>
-      <c r="F29" s="32" t="s">
+      <c r="E29" s="30"/>
+      <c r="F29" s="18" t="s">
         <v>386</v>
       </c>
       <c r="G29" s="5">
@@ -8248,8 +8269,8 @@
       <c r="D30" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="E30" s="29"/>
-      <c r="F30" s="32" t="s">
+      <c r="E30" s="30"/>
+      <c r="F30" s="18" t="s">
         <v>387</v>
       </c>
       <c r="G30" s="5">
@@ -8288,8 +8309,8 @@
       <c r="D31" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="E31" s="29"/>
-      <c r="F31" s="32" t="s">
+      <c r="E31" s="30"/>
+      <c r="F31" s="18" t="s">
         <v>386</v>
       </c>
       <c r="G31" s="5">
@@ -8328,8 +8349,8 @@
       <c r="D32" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="E32" s="29"/>
-      <c r="F32" s="32" t="s">
+      <c r="E32" s="30"/>
+      <c r="F32" s="18" t="s">
         <v>389</v>
       </c>
       <c r="G32" s="5">
@@ -8368,8 +8389,8 @@
       <c r="D33" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="29"/>
-      <c r="F33" s="32" t="s">
+      <c r="E33" s="30"/>
+      <c r="F33" s="18" t="s">
         <v>387</v>
       </c>
       <c r="G33" s="5">
@@ -8408,8 +8429,8 @@
       <c r="D34" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E34" s="29"/>
-      <c r="F34" s="32" t="s">
+      <c r="E34" s="30"/>
+      <c r="F34" s="18" t="s">
         <v>389</v>
       </c>
       <c r="G34" s="5">
@@ -8448,8 +8469,8 @@
       <c r="D35" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="E35" s="29"/>
-      <c r="F35" s="32" t="s">
+      <c r="E35" s="30"/>
+      <c r="F35" s="18" t="s">
         <v>390</v>
       </c>
       <c r="G35" s="5">
@@ -8488,8 +8509,8 @@
       <c r="D36" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="29"/>
-      <c r="F36" s="32" t="s">
+      <c r="E36" s="30"/>
+      <c r="F36" s="18" t="s">
         <v>388</v>
       </c>
       <c r="G36" s="5">
@@ -8528,8 +8549,8 @@
       <c r="D37" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E37" s="29"/>
-      <c r="F37" s="32" t="s">
+      <c r="E37" s="30"/>
+      <c r="F37" s="18" t="s">
         <v>386</v>
       </c>
       <c r="G37" s="5">
@@ -8568,8 +8589,8 @@
       <c r="D38" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="29"/>
-      <c r="F38" s="32" t="s">
+      <c r="E38" s="30"/>
+      <c r="F38" s="18" t="s">
         <v>388</v>
       </c>
       <c r="G38" s="5">
@@ -8588,7 +8609,7 @@
         <v>18</v>
       </c>
       <c r="L38" s="5">
-        <f t="shared" ref="L38" si="3">SUM(G38:K38)</f>
+        <f t="shared" ref="L38" si="4">SUM(G38:K38)</f>
         <v>90</v>
       </c>
       <c r="M38" s="6"/>
@@ -8608,8 +8629,8 @@
       <c r="D39" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E39" s="29"/>
-      <c r="F39" s="32" t="s">
+      <c r="E39" s="30"/>
+      <c r="F39" s="18" t="s">
         <v>390</v>
       </c>
       <c r="G39" s="5">
@@ -8648,8 +8669,8 @@
       <c r="D40" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="E40" s="29"/>
-      <c r="F40" s="32" t="s">
+      <c r="E40" s="30"/>
+      <c r="F40" s="18" t="s">
         <v>386</v>
       </c>
       <c r="G40" s="5">
@@ -8688,8 +8709,8 @@
       <c r="D41" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E41" s="29"/>
-      <c r="F41" s="32" t="s">
+      <c r="E41" s="30"/>
+      <c r="F41" s="18" t="s">
         <v>388</v>
       </c>
       <c r="G41" s="5">
@@ -8728,8 +8749,8 @@
       <c r="D42" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E42" s="29"/>
-      <c r="F42" s="32" t="s">
+      <c r="E42" s="30"/>
+      <c r="F42" s="18" t="s">
         <v>389</v>
       </c>
       <c r="G42" s="5">
@@ -8768,8 +8789,8 @@
       <c r="D43" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E43" s="29"/>
-      <c r="F43" s="32" t="s">
+      <c r="E43" s="30"/>
+      <c r="F43" s="18" t="s">
         <v>391</v>
       </c>
       <c r="G43" s="5">
@@ -8808,16 +8829,28 @@
       <c r="D44" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E44" s="29"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="G44" s="5">
+        <v>14</v>
+      </c>
+      <c r="H44" s="5">
+        <v>14</v>
+      </c>
+      <c r="I44" s="5">
+        <v>14</v>
+      </c>
+      <c r="J44" s="5">
+        <v>14</v>
+      </c>
+      <c r="K44" s="5">
+        <v>14</v>
+      </c>
       <c r="L44" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="M44" s="6"/>
       <c r="N44" s="3"/>
@@ -8836,8 +8869,8 @@
       <c r="D45" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E45" s="29"/>
-      <c r="F45" s="32" t="s">
+      <c r="E45" s="30"/>
+      <c r="F45" s="18" t="s">
         <v>391</v>
       </c>
       <c r="G45" s="5">
@@ -8876,8 +8909,8 @@
       <c r="D46" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="E46" s="29"/>
-      <c r="F46" s="32" t="s">
+      <c r="E46" s="30"/>
+      <c r="F46" s="18" t="s">
         <v>390</v>
       </c>
       <c r="G46" s="5">
@@ -8916,8 +8949,8 @@
       <c r="D47" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="E47" s="29"/>
-      <c r="F47" s="32" t="s">
+      <c r="E47" s="30"/>
+      <c r="F47" s="18" t="s">
         <v>387</v>
       </c>
       <c r="G47" s="5">
@@ -8956,16 +8989,28 @@
       <c r="D48" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E48" s="29"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="G48" s="5">
+        <v>14</v>
+      </c>
+      <c r="H48" s="5">
+        <v>14</v>
+      </c>
+      <c r="I48" s="5">
+        <v>14</v>
+      </c>
+      <c r="J48" s="5">
+        <v>14</v>
+      </c>
+      <c r="K48" s="5">
+        <v>14</v>
+      </c>
       <c r="L48" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="M48" s="6"/>
       <c r="N48" s="3"/>
@@ -8984,8 +9029,8 @@
       <c r="D49" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="E49" s="29"/>
-      <c r="F49" s="32" t="s">
+      <c r="E49" s="30"/>
+      <c r="F49" s="18" t="s">
         <v>387</v>
       </c>
       <c r="G49" s="5">
@@ -9024,8 +9069,8 @@
       <c r="D50" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E50" s="29"/>
-      <c r="F50" s="32" t="s">
+      <c r="E50" s="30"/>
+      <c r="F50" s="18" t="s">
         <v>390</v>
       </c>
       <c r="G50" s="5">
@@ -9064,8 +9109,8 @@
       <c r="D51" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E51" s="29"/>
-      <c r="F51" s="32" t="s">
+      <c r="E51" s="30"/>
+      <c r="F51" s="18" t="s">
         <v>386</v>
       </c>
       <c r="G51" s="5">
@@ -9104,8 +9149,8 @@
       <c r="D52" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="E52" s="30"/>
-      <c r="F52" s="32" t="s">
+      <c r="E52" s="31"/>
+      <c r="F52" s="18" t="s">
         <v>390</v>
       </c>
       <c r="G52" s="5">
@@ -9133,12 +9178,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="E5:E52"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="G3:K3"/>
-    <mergeCell ref="E5:E52"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Grade 2018/ProjectScores/NIIT-Project-Score-YC-2018.xlsx
+++ b/Grade 2018/ProjectScores/NIIT-Project-Score-YC-2018.xlsx
@@ -1815,23 +1815,28 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1845,30 +1850,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1877,14 +1865,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2450,7 +2450,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Y51"/>
   <sheetViews>
-    <sheetView topLeftCell="C22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
@@ -2474,21 +2474,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
@@ -2496,45 +2496,45 @@
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
       <c r="F2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
       <c r="N2" s="3"/>
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
       <c r="L3" s="14"/>
       <c r="M3" s="13"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="52.2" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>207</v>
       </c>
@@ -2582,37 +2582,37 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="30">
+      <c r="A5" s="20">
         <v>1</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="20">
         <v>12018242203</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="21">
         <v>19</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="21">
         <v>18</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="21">
         <v>19</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J5" s="21">
         <v>18</v>
       </c>
-      <c r="K5" s="31">
+      <c r="K5" s="21">
         <v>16</v>
       </c>
       <c r="L5" s="5">
@@ -2624,33 +2624,33 @@
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="30">
+      <c r="A6" s="20">
         <v>2</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="20">
         <v>12018242368</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="31">
+      <c r="E6" s="26"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="21">
         <v>19</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="21">
         <v>18</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="21">
         <v>19</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="21">
         <v>18</v>
       </c>
-      <c r="K6" s="31">
+      <c r="K6" s="21">
         <v>16</v>
       </c>
       <c r="L6" s="5">
@@ -2662,33 +2662,33 @@
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
+      <c r="A7" s="20">
         <v>3</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="20">
         <v>12018242202</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="31">
+      <c r="E7" s="26"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="21">
         <v>19</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="21">
         <v>18</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="21">
         <v>19</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J7" s="21">
         <v>18</v>
       </c>
-      <c r="K7" s="31">
+      <c r="K7" s="21">
         <v>16</v>
       </c>
       <c r="L7" s="5">
@@ -2700,33 +2700,33 @@
       <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="30">
+      <c r="A8" s="20">
         <v>4</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="20">
         <v>12018242292</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="31">
+      <c r="E8" s="26"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="21">
         <v>19</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="21">
         <v>18</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="21">
         <v>19</v>
       </c>
-      <c r="J8" s="31">
+      <c r="J8" s="21">
         <v>18</v>
       </c>
-      <c r="K8" s="31">
+      <c r="K8" s="21">
         <v>16</v>
       </c>
       <c r="L8" s="5">
@@ -2738,33 +2738,33 @@
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="30">
+      <c r="A9" s="20">
         <v>5</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="20">
         <v>12018242357</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="31">
+      <c r="E9" s="27"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="21">
         <v>19</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="21">
         <v>18</v>
       </c>
-      <c r="I9" s="31">
+      <c r="I9" s="21">
         <v>19</v>
       </c>
-      <c r="J9" s="31">
+      <c r="J9" s="21">
         <v>18</v>
       </c>
-      <c r="K9" s="31">
+      <c r="K9" s="21">
         <v>16</v>
       </c>
       <c r="L9" s="5">
@@ -2776,37 +2776,37 @@
       <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="30">
+      <c r="A10" s="20">
         <v>6</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="20">
         <v>12018242243</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="G10" s="31">
-        <v>16</v>
-      </c>
-      <c r="H10" s="31">
+      <c r="G10" s="21">
+        <v>16</v>
+      </c>
+      <c r="H10" s="21">
         <v>15</v>
       </c>
-      <c r="I10" s="31">
-        <v>16</v>
-      </c>
-      <c r="J10" s="31">
-        <v>16</v>
-      </c>
-      <c r="K10" s="31">
+      <c r="I10" s="21">
+        <v>16</v>
+      </c>
+      <c r="J10" s="21">
+        <v>16</v>
+      </c>
+      <c r="K10" s="21">
         <v>14</v>
       </c>
       <c r="L10" s="5">
@@ -2818,33 +2818,33 @@
       <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="30">
+      <c r="A11" s="20">
         <v>7</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="20">
         <v>12018242385</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="31">
-        <v>16</v>
-      </c>
-      <c r="H11" s="31">
+      <c r="E11" s="26"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="21">
+        <v>16</v>
+      </c>
+      <c r="H11" s="21">
         <v>15</v>
       </c>
-      <c r="I11" s="31">
-        <v>16</v>
-      </c>
-      <c r="J11" s="31">
-        <v>16</v>
-      </c>
-      <c r="K11" s="31">
+      <c r="I11" s="21">
+        <v>16</v>
+      </c>
+      <c r="J11" s="21">
+        <v>16</v>
+      </c>
+      <c r="K11" s="21">
         <v>14</v>
       </c>
       <c r="L11" s="5">
@@ -2856,33 +2856,33 @@
       <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="30">
+      <c r="A12" s="20">
         <v>8</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="20">
         <v>12018248482</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="31">
-        <v>16</v>
-      </c>
-      <c r="H12" s="31">
+      <c r="E12" s="26"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="21">
+        <v>16</v>
+      </c>
+      <c r="H12" s="21">
         <v>15</v>
       </c>
-      <c r="I12" s="31">
-        <v>16</v>
-      </c>
-      <c r="J12" s="31">
-        <v>16</v>
-      </c>
-      <c r="K12" s="31">
+      <c r="I12" s="21">
+        <v>16</v>
+      </c>
+      <c r="J12" s="21">
+        <v>16</v>
+      </c>
+      <c r="K12" s="21">
         <v>14</v>
       </c>
       <c r="L12" s="5">
@@ -2894,33 +2894,33 @@
       <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="30">
+      <c r="A13" s="20">
         <v>9</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="20">
         <v>12018242326</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="31">
-        <v>16</v>
-      </c>
-      <c r="H13" s="31">
+      <c r="E13" s="26"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="21">
+        <v>16</v>
+      </c>
+      <c r="H13" s="21">
         <v>15</v>
       </c>
-      <c r="I13" s="31">
-        <v>16</v>
-      </c>
-      <c r="J13" s="31">
-        <v>16</v>
-      </c>
-      <c r="K13" s="31">
+      <c r="I13" s="21">
+        <v>16</v>
+      </c>
+      <c r="J13" s="21">
+        <v>16</v>
+      </c>
+      <c r="K13" s="21">
         <v>14</v>
       </c>
       <c r="L13" s="5">
@@ -2932,33 +2932,33 @@
       <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="30">
+      <c r="A14" s="20">
         <v>10</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="20">
         <v>12018242324</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="31">
-        <v>16</v>
-      </c>
-      <c r="H14" s="31">
+      <c r="E14" s="27"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="21">
+        <v>16</v>
+      </c>
+      <c r="H14" s="21">
         <v>15</v>
       </c>
-      <c r="I14" s="31">
-        <v>16</v>
-      </c>
-      <c r="J14" s="31">
-        <v>16</v>
-      </c>
-      <c r="K14" s="31">
+      <c r="I14" s="21">
+        <v>16</v>
+      </c>
+      <c r="J14" s="21">
+        <v>16</v>
+      </c>
+      <c r="K14" s="21">
         <v>14</v>
       </c>
       <c r="L14" s="5">
@@ -2970,37 +2970,37 @@
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="30">
+      <c r="A15" s="20">
         <v>11</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="20">
         <v>12018242254</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="21">
         <v>12</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H15" s="21">
         <v>10</v>
       </c>
-      <c r="I15" s="31">
-        <v>16</v>
-      </c>
-      <c r="J15" s="31">
+      <c r="I15" s="21">
+        <v>16</v>
+      </c>
+      <c r="J15" s="21">
         <v>15</v>
       </c>
-      <c r="K15" s="31">
+      <c r="K15" s="21">
         <v>12</v>
       </c>
       <c r="L15" s="5">
@@ -3012,33 +3012,33 @@
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="30">
+      <c r="A16" s="20">
         <v>12</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="20">
         <v>12018242312</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="31">
+      <c r="E16" s="26"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="21">
         <v>12</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="21">
         <v>10</v>
       </c>
-      <c r="I16" s="31">
-        <v>16</v>
-      </c>
-      <c r="J16" s="31">
+      <c r="I16" s="21">
+        <v>16</v>
+      </c>
+      <c r="J16" s="21">
         <v>15</v>
       </c>
-      <c r="K16" s="31">
+      <c r="K16" s="21">
         <v>12</v>
       </c>
       <c r="L16" s="5">
@@ -3050,33 +3050,33 @@
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="30">
-        <v>13</v>
-      </c>
-      <c r="B17" s="30">
+      <c r="A17" s="20">
+        <v>13</v>
+      </c>
+      <c r="B17" s="20">
         <v>12018242223</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="31">
+      <c r="E17" s="26"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="21">
         <v>12</v>
       </c>
-      <c r="H17" s="31">
+      <c r="H17" s="21">
         <v>10</v>
       </c>
-      <c r="I17" s="31">
-        <v>16</v>
-      </c>
-      <c r="J17" s="31">
+      <c r="I17" s="21">
+        <v>16</v>
+      </c>
+      <c r="J17" s="21">
         <v>15</v>
       </c>
-      <c r="K17" s="31">
+      <c r="K17" s="21">
         <v>12</v>
       </c>
       <c r="L17" s="5">
@@ -3088,33 +3088,33 @@
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A18" s="30">
+      <c r="A18" s="20">
         <v>14</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18" s="20">
         <v>12018242318</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="31">
+      <c r="E18" s="26"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="21">
         <v>12</v>
       </c>
-      <c r="H18" s="31">
+      <c r="H18" s="21">
         <v>10</v>
       </c>
-      <c r="I18" s="31">
-        <v>16</v>
-      </c>
-      <c r="J18" s="31">
+      <c r="I18" s="21">
+        <v>16</v>
+      </c>
+      <c r="J18" s="21">
         <v>15</v>
       </c>
-      <c r="K18" s="31">
+      <c r="K18" s="21">
         <v>12</v>
       </c>
       <c r="L18" s="5">
@@ -3126,33 +3126,33 @@
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="30">
+      <c r="A19" s="20">
         <v>15</v>
       </c>
-      <c r="B19" s="30">
+      <c r="B19" s="20">
         <v>12018242374</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="31">
+      <c r="E19" s="27"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="21">
         <v>12</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H19" s="21">
         <v>10</v>
       </c>
-      <c r="I19" s="31">
-        <v>16</v>
-      </c>
-      <c r="J19" s="31">
+      <c r="I19" s="21">
+        <v>16</v>
+      </c>
+      <c r="J19" s="21">
         <v>15</v>
       </c>
-      <c r="K19" s="31">
+      <c r="K19" s="21">
         <v>12</v>
       </c>
       <c r="L19" s="5">
@@ -3164,37 +3164,37 @@
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20" s="30">
-        <v>16</v>
-      </c>
-      <c r="B20" s="30">
+      <c r="A20" s="20">
+        <v>16</v>
+      </c>
+      <c r="B20" s="20">
         <v>12018242315</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="G20" s="31">
-        <v>13</v>
-      </c>
-      <c r="H20" s="31">
+      <c r="G20" s="21">
+        <v>13</v>
+      </c>
+      <c r="H20" s="21">
         <v>10</v>
       </c>
-      <c r="I20" s="31">
+      <c r="I20" s="21">
         <v>15</v>
       </c>
-      <c r="J20" s="31">
+      <c r="J20" s="21">
         <v>15</v>
       </c>
-      <c r="K20" s="31">
+      <c r="K20" s="21">
         <v>12</v>
       </c>
       <c r="L20" s="5">
@@ -3206,33 +3206,33 @@
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A21" s="30">
+      <c r="A21" s="20">
         <v>17</v>
       </c>
-      <c r="B21" s="30">
+      <c r="B21" s="20">
         <v>12018242248</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="31">
-        <v>13</v>
-      </c>
-      <c r="H21" s="31">
+      <c r="E21" s="26"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="21">
+        <v>13</v>
+      </c>
+      <c r="H21" s="21">
         <v>10</v>
       </c>
-      <c r="I21" s="31">
+      <c r="I21" s="21">
         <v>15</v>
       </c>
-      <c r="J21" s="31">
+      <c r="J21" s="21">
         <v>15</v>
       </c>
-      <c r="K21" s="31">
+      <c r="K21" s="21">
         <v>12</v>
       </c>
       <c r="L21" s="5">
@@ -3244,33 +3244,33 @@
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="30">
+      <c r="A22" s="20">
         <v>18</v>
       </c>
-      <c r="B22" s="30">
+      <c r="B22" s="20">
         <v>12018242316</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="31">
-        <v>13</v>
-      </c>
-      <c r="H22" s="31">
+      <c r="E22" s="26"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="21">
+        <v>13</v>
+      </c>
+      <c r="H22" s="21">
         <v>10</v>
       </c>
-      <c r="I22" s="31">
+      <c r="I22" s="21">
         <v>15</v>
       </c>
-      <c r="J22" s="31">
+      <c r="J22" s="21">
         <v>15</v>
       </c>
-      <c r="K22" s="31">
+      <c r="K22" s="21">
         <v>12</v>
       </c>
       <c r="L22" s="5">
@@ -3282,33 +3282,33 @@
       <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="30">
+      <c r="A23" s="20">
         <v>19</v>
       </c>
-      <c r="B23" s="30">
+      <c r="B23" s="20">
         <v>12018242341</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="31">
-        <v>13</v>
-      </c>
-      <c r="H23" s="31">
+      <c r="E23" s="27"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="21">
+        <v>13</v>
+      </c>
+      <c r="H23" s="21">
         <v>10</v>
       </c>
-      <c r="I23" s="31">
-        <v>16</v>
-      </c>
-      <c r="J23" s="31">
+      <c r="I23" s="21">
+        <v>16</v>
+      </c>
+      <c r="J23" s="21">
         <v>15</v>
       </c>
-      <c r="K23" s="31">
+      <c r="K23" s="21">
         <v>12</v>
       </c>
       <c r="L23" s="5">
@@ -3320,37 +3320,37 @@
       <c r="O23" s="3"/>
     </row>
     <row r="24" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="30">
+      <c r="A24" s="20">
         <v>20</v>
       </c>
-      <c r="B24" s="30">
+      <c r="B24" s="20">
         <v>12018242221</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="F24" s="33" t="s">
+      <c r="F24" s="28" t="s">
         <v>261</v>
       </c>
-      <c r="G24" s="31">
+      <c r="G24" s="21">
         <v>15</v>
       </c>
-      <c r="H24" s="31">
+      <c r="H24" s="21">
         <v>14</v>
       </c>
-      <c r="I24" s="31">
+      <c r="I24" s="21">
         <v>17</v>
       </c>
-      <c r="J24" s="31">
-        <v>16</v>
-      </c>
-      <c r="K24" s="31">
+      <c r="J24" s="21">
+        <v>16</v>
+      </c>
+      <c r="K24" s="21">
         <v>13</v>
       </c>
       <c r="L24" s="5">
@@ -3362,33 +3362,33 @@
       <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="30">
+      <c r="A25" s="20">
         <v>21</v>
       </c>
-      <c r="B25" s="30">
+      <c r="B25" s="20">
         <v>12018242339</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="E25" s="35"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="31">
+      <c r="E25" s="26"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="21">
         <v>15</v>
       </c>
-      <c r="H25" s="31">
+      <c r="H25" s="21">
         <v>14</v>
       </c>
-      <c r="I25" s="31">
+      <c r="I25" s="21">
         <v>17</v>
       </c>
-      <c r="J25" s="31">
-        <v>16</v>
-      </c>
-      <c r="K25" s="31">
+      <c r="J25" s="21">
+        <v>16</v>
+      </c>
+      <c r="K25" s="21">
         <v>13</v>
       </c>
       <c r="L25" s="5">
@@ -3400,33 +3400,33 @@
       <c r="O25" s="3"/>
     </row>
     <row r="26" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A26" s="30">
+      <c r="A26" s="20">
         <v>22</v>
       </c>
-      <c r="B26" s="30">
+      <c r="B26" s="20">
         <v>12018242241</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="E26" s="35"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="31">
+      <c r="E26" s="26"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="21">
         <v>15</v>
       </c>
-      <c r="H26" s="31">
+      <c r="H26" s="21">
         <v>14</v>
       </c>
-      <c r="I26" s="31">
+      <c r="I26" s="21">
         <v>17</v>
       </c>
-      <c r="J26" s="31">
-        <v>16</v>
-      </c>
-      <c r="K26" s="31">
+      <c r="J26" s="21">
+        <v>16</v>
+      </c>
+      <c r="K26" s="21">
         <v>13</v>
       </c>
       <c r="L26" s="5">
@@ -3437,33 +3437,33 @@
       <c r="O26" s="3"/>
     </row>
     <row r="27" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="30">
+      <c r="A27" s="20">
         <v>23</v>
       </c>
-      <c r="B27" s="30">
+      <c r="B27" s="20">
         <v>12018242307</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="31">
+      <c r="E27" s="27"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="21">
         <v>15</v>
       </c>
-      <c r="H27" s="31">
+      <c r="H27" s="21">
         <v>14</v>
       </c>
-      <c r="I27" s="31">
+      <c r="I27" s="21">
         <v>17</v>
       </c>
-      <c r="J27" s="31">
-        <v>16</v>
-      </c>
-      <c r="K27" s="31">
+      <c r="J27" s="21">
+        <v>16</v>
+      </c>
+      <c r="K27" s="21">
         <v>13</v>
       </c>
       <c r="L27" s="5">
@@ -3475,37 +3475,37 @@
       <c r="O27" s="3"/>
     </row>
     <row r="28" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="30">
+      <c r="A28" s="20">
         <v>24</v>
       </c>
-      <c r="B28" s="30">
+      <c r="B28" s="20">
         <v>12018242252</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="E28" s="32" t="s">
+      <c r="E28" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="F28" s="42" t="s">
+      <c r="F28" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="G28" s="31">
+      <c r="G28" s="21">
         <v>14</v>
       </c>
-      <c r="H28" s="31">
-        <v>16</v>
-      </c>
-      <c r="I28" s="31">
+      <c r="H28" s="21">
+        <v>16</v>
+      </c>
+      <c r="I28" s="21">
         <v>17</v>
       </c>
-      <c r="J28" s="31">
-        <v>16</v>
-      </c>
-      <c r="K28" s="31">
+      <c r="J28" s="21">
+        <v>16</v>
+      </c>
+      <c r="K28" s="21">
         <v>13</v>
       </c>
       <c r="L28" s="5">
@@ -3517,33 +3517,33 @@
       <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="30">
+      <c r="A29" s="20">
         <v>25</v>
       </c>
-      <c r="B29" s="30">
+      <c r="B29" s="20">
         <v>12018242204</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="E29" s="35"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="31">
+      <c r="E29" s="26"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="21">
         <v>14</v>
       </c>
-      <c r="H29" s="31">
-        <v>16</v>
-      </c>
-      <c r="I29" s="31">
+      <c r="H29" s="21">
+        <v>16</v>
+      </c>
+      <c r="I29" s="21">
         <v>17</v>
       </c>
-      <c r="J29" s="31">
-        <v>16</v>
-      </c>
-      <c r="K29" s="31">
+      <c r="J29" s="21">
+        <v>16</v>
+      </c>
+      <c r="K29" s="21">
         <v>13</v>
       </c>
       <c r="L29" s="5">
@@ -3555,33 +3555,33 @@
       <c r="O29" s="3"/>
     </row>
     <row r="30" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A30" s="30">
+      <c r="A30" s="20">
         <v>26</v>
       </c>
-      <c r="B30" s="30">
+      <c r="B30" s="20">
         <v>12018242268</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="E30" s="35"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="31">
+      <c r="E30" s="26"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="21">
         <v>14</v>
       </c>
-      <c r="H30" s="31">
-        <v>16</v>
-      </c>
-      <c r="I30" s="31">
+      <c r="H30" s="21">
+        <v>16</v>
+      </c>
+      <c r="I30" s="21">
         <v>17</v>
       </c>
-      <c r="J30" s="31">
-        <v>16</v>
-      </c>
-      <c r="K30" s="31">
+      <c r="J30" s="21">
+        <v>16</v>
+      </c>
+      <c r="K30" s="21">
         <v>13</v>
       </c>
       <c r="L30" s="5">
@@ -3593,33 +3593,33 @@
       <c r="O30" s="3"/>
     </row>
     <row r="31" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A31" s="30">
+      <c r="A31" s="20">
         <v>27</v>
       </c>
-      <c r="B31" s="30">
+      <c r="B31" s="20">
         <v>12018242362</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="E31" s="36"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="31">
+      <c r="E31" s="27"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="21">
         <v>14</v>
       </c>
-      <c r="H31" s="31">
-        <v>16</v>
-      </c>
-      <c r="I31" s="31">
+      <c r="H31" s="21">
+        <v>16</v>
+      </c>
+      <c r="I31" s="21">
         <v>17</v>
       </c>
-      <c r="J31" s="31">
-        <v>16</v>
-      </c>
-      <c r="K31" s="31">
+      <c r="J31" s="21">
+        <v>16</v>
+      </c>
+      <c r="K31" s="21">
         <v>13</v>
       </c>
       <c r="L31" s="5">
@@ -3631,37 +3631,37 @@
       <c r="O31" s="3"/>
     </row>
     <row r="32" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A32" s="30">
+      <c r="A32" s="20">
         <v>28</v>
       </c>
-      <c r="B32" s="30">
+      <c r="B32" s="20">
         <v>12018242381</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="E32" s="32" t="s">
+      <c r="E32" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="F32" s="33" t="s">
+      <c r="F32" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="G32" s="31">
+      <c r="G32" s="21">
         <v>15</v>
       </c>
-      <c r="H32" s="31">
-        <v>13</v>
-      </c>
-      <c r="I32" s="31">
-        <v>16</v>
-      </c>
-      <c r="J32" s="31">
+      <c r="H32" s="21">
+        <v>13</v>
+      </c>
+      <c r="I32" s="21">
+        <v>16</v>
+      </c>
+      <c r="J32" s="21">
         <v>17</v>
       </c>
-      <c r="K32" s="31">
+      <c r="K32" s="21">
         <v>12</v>
       </c>
       <c r="L32" s="5">
@@ -3673,33 +3673,33 @@
       <c r="O32" s="3"/>
     </row>
     <row r="33" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A33" s="30">
+      <c r="A33" s="20">
         <v>29</v>
       </c>
-      <c r="B33" s="30">
+      <c r="B33" s="20">
         <v>12018242365</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E33" s="35"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="31">
+      <c r="E33" s="26"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="21">
         <v>15</v>
       </c>
-      <c r="H33" s="31">
-        <v>13</v>
-      </c>
-      <c r="I33" s="31">
-        <v>16</v>
-      </c>
-      <c r="J33" s="31">
+      <c r="H33" s="21">
+        <v>13</v>
+      </c>
+      <c r="I33" s="21">
+        <v>16</v>
+      </c>
+      <c r="J33" s="21">
         <v>17</v>
       </c>
-      <c r="K33" s="31">
+      <c r="K33" s="21">
         <v>12</v>
       </c>
       <c r="L33" s="5">
@@ -3711,33 +3711,33 @@
       <c r="O33" s="3"/>
     </row>
     <row r="34" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A34" s="30">
+      <c r="A34" s="20">
         <v>30</v>
       </c>
-      <c r="B34" s="30">
+      <c r="B34" s="20">
         <v>12018242337</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="D34" s="31" t="s">
+      <c r="D34" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="E34" s="35"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="31">
+      <c r="E34" s="26"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="21">
         <v>15</v>
       </c>
-      <c r="H34" s="31">
-        <v>13</v>
-      </c>
-      <c r="I34" s="31">
-        <v>16</v>
-      </c>
-      <c r="J34" s="31">
+      <c r="H34" s="21">
+        <v>13</v>
+      </c>
+      <c r="I34" s="21">
+        <v>16</v>
+      </c>
+      <c r="J34" s="21">
         <v>17</v>
       </c>
-      <c r="K34" s="31">
+      <c r="K34" s="21">
         <v>12</v>
       </c>
       <c r="L34" s="5">
@@ -3749,33 +3749,33 @@
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A35" s="30">
+      <c r="A35" s="20">
         <v>31</v>
       </c>
-      <c r="B35" s="30">
+      <c r="B35" s="20">
         <v>12018242349</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="D35" s="31" t="s">
+      <c r="D35" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="E35" s="36"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="31">
+      <c r="E35" s="27"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="21">
         <v>15</v>
       </c>
-      <c r="H35" s="31">
-        <v>13</v>
-      </c>
-      <c r="I35" s="31">
-        <v>16</v>
-      </c>
-      <c r="J35" s="31">
+      <c r="H35" s="21">
+        <v>13</v>
+      </c>
+      <c r="I35" s="21">
+        <v>16</v>
+      </c>
+      <c r="J35" s="21">
         <v>17</v>
       </c>
-      <c r="K35" s="31">
+      <c r="K35" s="21">
         <v>12</v>
       </c>
       <c r="L35" s="5">
@@ -3787,37 +3787,37 @@
       <c r="O35" s="3"/>
     </row>
     <row r="36" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A36" s="30">
+      <c r="A36" s="20">
         <v>32</v>
       </c>
-      <c r="B36" s="30">
+      <c r="B36" s="20">
         <v>12018242309</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="E36" s="32" t="s">
+      <c r="E36" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="F36" s="33" t="s">
+      <c r="F36" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="G36" s="31">
+      <c r="G36" s="21">
         <v>15</v>
       </c>
-      <c r="H36" s="31">
-        <v>13</v>
-      </c>
-      <c r="I36" s="31">
-        <v>16</v>
-      </c>
-      <c r="J36" s="31">
+      <c r="H36" s="21">
+        <v>13</v>
+      </c>
+      <c r="I36" s="21">
+        <v>16</v>
+      </c>
+      <c r="J36" s="21">
         <v>15</v>
       </c>
-      <c r="K36" s="31">
+      <c r="K36" s="21">
         <v>12</v>
       </c>
       <c r="L36" s="5">
@@ -3829,33 +3829,33 @@
       <c r="O36" s="3"/>
     </row>
     <row r="37" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A37" s="30">
+      <c r="A37" s="20">
         <v>33</v>
       </c>
-      <c r="B37" s="30">
+      <c r="B37" s="20">
         <v>12018242288</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="E37" s="35"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="31">
+      <c r="E37" s="26"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="21">
         <v>15</v>
       </c>
-      <c r="H37" s="31">
-        <v>13</v>
-      </c>
-      <c r="I37" s="31">
-        <v>16</v>
-      </c>
-      <c r="J37" s="31">
+      <c r="H37" s="21">
+        <v>13</v>
+      </c>
+      <c r="I37" s="21">
+        <v>16</v>
+      </c>
+      <c r="J37" s="21">
         <v>15</v>
       </c>
-      <c r="K37" s="31">
+      <c r="K37" s="21">
         <v>12</v>
       </c>
       <c r="L37" s="5">
@@ -3867,33 +3867,33 @@
       <c r="O37" s="3"/>
     </row>
     <row r="38" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A38" s="30">
+      <c r="A38" s="20">
         <v>34</v>
       </c>
-      <c r="B38" s="30">
+      <c r="B38" s="20">
         <v>12018242235</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="E38" s="35"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="31">
+      <c r="E38" s="26"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="21">
         <v>15</v>
       </c>
-      <c r="H38" s="31">
-        <v>13</v>
-      </c>
-      <c r="I38" s="31">
-        <v>16</v>
-      </c>
-      <c r="J38" s="31">
+      <c r="H38" s="21">
+        <v>13</v>
+      </c>
+      <c r="I38" s="21">
+        <v>16</v>
+      </c>
+      <c r="J38" s="21">
         <v>15</v>
       </c>
-      <c r="K38" s="31">
+      <c r="K38" s="21">
         <v>12</v>
       </c>
       <c r="L38" s="5">
@@ -3905,33 +3905,33 @@
       <c r="O38" s="3"/>
     </row>
     <row r="39" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A39" s="30">
+      <c r="A39" s="20">
         <v>35</v>
       </c>
-      <c r="B39" s="30">
+      <c r="B39" s="20">
         <v>12018242295</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="D39" s="31" t="s">
+      <c r="D39" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="E39" s="36"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="31">
+      <c r="E39" s="27"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="21">
         <v>15</v>
       </c>
-      <c r="H39" s="31">
-        <v>13</v>
-      </c>
-      <c r="I39" s="31">
-        <v>16</v>
-      </c>
-      <c r="J39" s="31">
+      <c r="H39" s="21">
+        <v>13</v>
+      </c>
+      <c r="I39" s="21">
+        <v>16</v>
+      </c>
+      <c r="J39" s="21">
         <v>15</v>
       </c>
-      <c r="K39" s="31">
+      <c r="K39" s="21">
         <v>12</v>
       </c>
       <c r="L39" s="5">
@@ -3943,37 +3943,37 @@
       <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A40" s="30">
+      <c r="A40" s="20">
         <v>36</v>
       </c>
-      <c r="B40" s="30">
+      <c r="B40" s="20">
         <v>12018243877</v>
       </c>
-      <c r="C40" s="31" t="s">
+      <c r="C40" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="D40" s="31" t="s">
+      <c r="D40" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="E40" s="32" t="s">
+      <c r="E40" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="F40" s="33" t="s">
+      <c r="F40" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="G40" s="31">
-        <v>13</v>
-      </c>
-      <c r="H40" s="31">
-        <v>13</v>
-      </c>
-      <c r="I40" s="31">
+      <c r="G40" s="21">
+        <v>13</v>
+      </c>
+      <c r="H40" s="21">
+        <v>13</v>
+      </c>
+      <c r="I40" s="21">
         <v>15</v>
       </c>
-      <c r="J40" s="31">
+      <c r="J40" s="21">
         <v>15</v>
       </c>
-      <c r="K40" s="31">
+      <c r="K40" s="21">
         <v>13</v>
       </c>
       <c r="L40" s="5">
@@ -3985,33 +3985,33 @@
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A41" s="30">
+      <c r="A41" s="20">
         <v>37</v>
       </c>
-      <c r="B41" s="30">
+      <c r="B41" s="20">
         <v>12018241691</v>
       </c>
-      <c r="C41" s="31" t="s">
+      <c r="C41" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="D41" s="31" t="s">
+      <c r="D41" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="E41" s="35"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="31">
-        <v>13</v>
-      </c>
-      <c r="H41" s="31">
-        <v>13</v>
-      </c>
-      <c r="I41" s="31">
+      <c r="E41" s="26"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="21">
+        <v>13</v>
+      </c>
+      <c r="H41" s="21">
+        <v>13</v>
+      </c>
+      <c r="I41" s="21">
         <v>15</v>
       </c>
-      <c r="J41" s="31">
+      <c r="J41" s="21">
         <v>15</v>
       </c>
-      <c r="K41" s="31">
+      <c r="K41" s="21">
         <v>13</v>
       </c>
       <c r="L41" s="5">
@@ -4023,33 +4023,33 @@
       <c r="O41" s="3"/>
     </row>
     <row r="42" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A42" s="30">
+      <c r="A42" s="20">
         <v>38</v>
       </c>
-      <c r="B42" s="30">
+      <c r="B42" s="20">
         <v>12018242206</v>
       </c>
-      <c r="C42" s="31" t="s">
+      <c r="C42" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="D42" s="31" t="s">
+      <c r="D42" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="E42" s="35"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="31">
-        <v>13</v>
-      </c>
-      <c r="H42" s="31">
-        <v>13</v>
-      </c>
-      <c r="I42" s="31">
+      <c r="E42" s="26"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="21">
+        <v>13</v>
+      </c>
+      <c r="H42" s="21">
+        <v>13</v>
+      </c>
+      <c r="I42" s="21">
         <v>15</v>
       </c>
-      <c r="J42" s="31">
+      <c r="J42" s="21">
         <v>15</v>
       </c>
-      <c r="K42" s="31">
+      <c r="K42" s="21">
         <v>13</v>
       </c>
       <c r="L42" s="5">
@@ -4061,33 +4061,33 @@
       <c r="O42" s="3"/>
     </row>
     <row r="43" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A43" s="30">
+      <c r="A43" s="20">
         <v>39</v>
       </c>
-      <c r="B43" s="30">
+      <c r="B43" s="20">
         <v>12018242363</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="C43" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="D43" s="31" t="s">
+      <c r="D43" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="E43" s="36"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="31">
-        <v>13</v>
-      </c>
-      <c r="H43" s="31">
-        <v>13</v>
-      </c>
-      <c r="I43" s="31">
+      <c r="E43" s="27"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="21">
+        <v>13</v>
+      </c>
+      <c r="H43" s="21">
+        <v>13</v>
+      </c>
+      <c r="I43" s="21">
         <v>15</v>
       </c>
-      <c r="J43" s="31">
+      <c r="J43" s="21">
         <v>15</v>
       </c>
-      <c r="K43" s="31">
+      <c r="K43" s="21">
         <v>13</v>
       </c>
       <c r="L43" s="5">
@@ -4099,37 +4099,37 @@
       <c r="O43" s="3"/>
     </row>
     <row r="44" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A44" s="30">
+      <c r="A44" s="20">
         <v>40</v>
       </c>
-      <c r="B44" s="30">
+      <c r="B44" s="20">
         <v>12018243408</v>
       </c>
-      <c r="C44" s="31" t="s">
+      <c r="C44" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="D44" s="31" t="s">
+      <c r="D44" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="E44" s="32" t="s">
+      <c r="E44" s="25" t="s">
         <v>307</v>
       </c>
-      <c r="F44" s="33" t="s">
+      <c r="F44" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="G44" s="31">
+      <c r="G44" s="21">
         <v>14</v>
       </c>
-      <c r="H44" s="31">
-        <v>13</v>
-      </c>
-      <c r="I44" s="31">
-        <v>16</v>
-      </c>
-      <c r="J44" s="31">
-        <v>16</v>
-      </c>
-      <c r="K44" s="31">
+      <c r="H44" s="21">
+        <v>13</v>
+      </c>
+      <c r="I44" s="21">
+        <v>16</v>
+      </c>
+      <c r="J44" s="21">
+        <v>16</v>
+      </c>
+      <c r="K44" s="21">
         <v>14</v>
       </c>
       <c r="L44" s="5">
@@ -4141,33 +4141,33 @@
       <c r="O44" s="3"/>
     </row>
     <row r="45" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A45" s="30">
+      <c r="A45" s="20">
         <v>41</v>
       </c>
-      <c r="B45" s="30">
+      <c r="B45" s="20">
         <v>12018242350</v>
       </c>
-      <c r="C45" s="31" t="s">
+      <c r="C45" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="D45" s="31" t="s">
+      <c r="D45" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="E45" s="35"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="31">
+      <c r="E45" s="26"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="21">
         <v>14</v>
       </c>
-      <c r="H45" s="31">
-        <v>13</v>
-      </c>
-      <c r="I45" s="31">
-        <v>16</v>
-      </c>
-      <c r="J45" s="31">
-        <v>16</v>
-      </c>
-      <c r="K45" s="31">
+      <c r="H45" s="21">
+        <v>13</v>
+      </c>
+      <c r="I45" s="21">
+        <v>16</v>
+      </c>
+      <c r="J45" s="21">
+        <v>16</v>
+      </c>
+      <c r="K45" s="21">
         <v>14</v>
       </c>
       <c r="L45" s="5">
@@ -4179,33 +4179,33 @@
       <c r="O45" s="3"/>
     </row>
     <row r="46" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A46" s="30">
+      <c r="A46" s="20">
         <v>42</v>
       </c>
-      <c r="B46" s="30">
+      <c r="B46" s="20">
         <v>12018242236</v>
       </c>
-      <c r="C46" s="31" t="s">
+      <c r="C46" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="D46" s="31" t="s">
+      <c r="D46" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="E46" s="35"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="31">
+      <c r="E46" s="26"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="21">
         <v>14</v>
       </c>
-      <c r="H46" s="31">
-        <v>13</v>
-      </c>
-      <c r="I46" s="31">
-        <v>16</v>
-      </c>
-      <c r="J46" s="31">
-        <v>16</v>
-      </c>
-      <c r="K46" s="31">
+      <c r="H46" s="21">
+        <v>13</v>
+      </c>
+      <c r="I46" s="21">
+        <v>16</v>
+      </c>
+      <c r="J46" s="21">
+        <v>16</v>
+      </c>
+      <c r="K46" s="21">
         <v>14</v>
       </c>
       <c r="L46" s="5">
@@ -4217,33 +4217,33 @@
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A47" s="30">
+      <c r="A47" s="20">
         <v>43</v>
       </c>
-      <c r="B47" s="30">
+      <c r="B47" s="20">
         <v>12018242334</v>
       </c>
-      <c r="C47" s="31" t="s">
+      <c r="C47" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="D47" s="31" t="s">
+      <c r="D47" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="E47" s="36"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="31">
+      <c r="E47" s="27"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="21">
         <v>14</v>
       </c>
-      <c r="H47" s="31">
-        <v>13</v>
-      </c>
-      <c r="I47" s="31">
-        <v>16</v>
-      </c>
-      <c r="J47" s="31">
-        <v>16</v>
-      </c>
-      <c r="K47" s="31">
+      <c r="H47" s="21">
+        <v>13</v>
+      </c>
+      <c r="I47" s="21">
+        <v>16</v>
+      </c>
+      <c r="J47" s="21">
+        <v>16</v>
+      </c>
+      <c r="K47" s="21">
         <v>14</v>
       </c>
       <c r="L47" s="5">
@@ -4255,37 +4255,37 @@
       <c r="O47" s="3"/>
     </row>
     <row r="48" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A48" s="30">
+      <c r="A48" s="20">
         <v>44</v>
       </c>
-      <c r="B48" s="30">
+      <c r="B48" s="20">
         <v>12016242362</v>
       </c>
-      <c r="C48" s="31" t="s">
+      <c r="C48" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="D48" s="31" t="s">
+      <c r="D48" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="E48" s="32" t="s">
+      <c r="E48" s="25" t="s">
         <v>316</v>
       </c>
-      <c r="F48" s="33" t="s">
+      <c r="F48" s="28" t="s">
         <v>317</v>
       </c>
-      <c r="G48" s="31">
+      <c r="G48" s="21">
         <v>12</v>
       </c>
-      <c r="H48" s="31">
+      <c r="H48" s="21">
         <v>11</v>
       </c>
-      <c r="I48" s="31">
-        <v>16</v>
-      </c>
-      <c r="J48" s="31">
+      <c r="I48" s="21">
+        <v>16</v>
+      </c>
+      <c r="J48" s="21">
         <v>15</v>
       </c>
-      <c r="K48" s="31">
+      <c r="K48" s="21">
         <v>11</v>
       </c>
       <c r="L48" s="5">
@@ -4297,33 +4297,33 @@
       <c r="O48" s="3"/>
     </row>
     <row r="49" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A49" s="30">
+      <c r="A49" s="20">
         <v>45</v>
       </c>
-      <c r="B49" s="30">
+      <c r="B49" s="20">
         <v>12018242219</v>
       </c>
-      <c r="C49" s="31" t="s">
+      <c r="C49" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="D49" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="E49" s="35"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="31">
+      <c r="E49" s="26"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="21">
         <v>12</v>
       </c>
-      <c r="H49" s="31">
+      <c r="H49" s="21">
         <v>11</v>
       </c>
-      <c r="I49" s="31">
-        <v>16</v>
-      </c>
-      <c r="J49" s="31">
+      <c r="I49" s="21">
+        <v>16</v>
+      </c>
+      <c r="J49" s="21">
         <v>15</v>
       </c>
-      <c r="K49" s="31">
+      <c r="K49" s="21">
         <v>11</v>
       </c>
       <c r="L49" s="5">
@@ -4335,33 +4335,33 @@
       <c r="O49" s="3"/>
     </row>
     <row r="50" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A50" s="30">
+      <c r="A50" s="20">
         <v>46</v>
       </c>
-      <c r="B50" s="30">
+      <c r="B50" s="20">
         <v>12018242304</v>
       </c>
-      <c r="C50" s="31" t="s">
+      <c r="C50" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="D50" s="31" t="s">
+      <c r="D50" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="E50" s="35"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="31">
+      <c r="E50" s="26"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="21">
         <v>12</v>
       </c>
-      <c r="H50" s="31">
+      <c r="H50" s="21">
         <v>11</v>
       </c>
-      <c r="I50" s="31">
-        <v>16</v>
-      </c>
-      <c r="J50" s="31">
+      <c r="I50" s="21">
+        <v>16</v>
+      </c>
+      <c r="J50" s="21">
         <v>15</v>
       </c>
-      <c r="K50" s="31">
+      <c r="K50" s="21">
         <v>11</v>
       </c>
       <c r="L50" s="5">
@@ -4373,33 +4373,33 @@
       <c r="O50" s="3"/>
     </row>
     <row r="51" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A51" s="30">
+      <c r="A51" s="20">
         <v>47</v>
       </c>
-      <c r="B51" s="30">
+      <c r="B51" s="20">
         <v>12018242332</v>
       </c>
-      <c r="C51" s="31" t="s">
+      <c r="C51" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="D51" s="31" t="s">
+      <c r="D51" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="E51" s="36"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="31">
+      <c r="E51" s="27"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="21">
         <v>12</v>
       </c>
-      <c r="H51" s="31">
+      <c r="H51" s="21">
         <v>11</v>
       </c>
-      <c r="I51" s="31">
-        <v>16</v>
-      </c>
-      <c r="J51" s="31">
+      <c r="I51" s="21">
+        <v>16</v>
+      </c>
+      <c r="J51" s="21">
         <v>15</v>
       </c>
-      <c r="K51" s="31">
+      <c r="K51" s="21">
         <v>11</v>
       </c>
       <c r="L51" s="5">
@@ -4413,6 +4413,10 @@
   </sheetData>
   <autoFilter ref="C1:C51"/>
   <mergeCells count="27">
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="F32:F35"/>
     <mergeCell ref="E48:E51"/>
     <mergeCell ref="F48:F51"/>
     <mergeCell ref="E36:E39"/>
@@ -4421,25 +4425,21 @@
     <mergeCell ref="F40:F43"/>
     <mergeCell ref="E44:E47"/>
     <mergeCell ref="F44:F47"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="F10:F14"/>
     <mergeCell ref="E15:E19"/>
     <mergeCell ref="F15:F19"/>
     <mergeCell ref="E20:E23"/>
     <mergeCell ref="F20:F23"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="E10:E14"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="G3:K3"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="E10:E14"/>
+    <mergeCell ref="F10:F14"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4452,8 +4452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="69.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4476,21 +4476,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
@@ -4498,39 +4498,39 @@
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
       <c r="F2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
       <c r="N2" s="3"/>
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
       <c r="L3" s="14"/>
       <c r="M3" s="13"/>
       <c r="N3" s="4"/>
@@ -4584,37 +4584,37 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="30">
+      <c r="A5" s="20">
         <v>1</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="20">
         <v>12018242296</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="23" t="s">
         <v>325</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="38" t="s">
         <v>328</v>
       </c>
-      <c r="G5" s="30">
-        <v>16</v>
-      </c>
-      <c r="H5" s="30">
+      <c r="G5" s="20">
+        <v>16</v>
+      </c>
+      <c r="H5" s="20">
         <v>14</v>
       </c>
-      <c r="I5" s="30">
-        <v>16</v>
-      </c>
-      <c r="J5" s="30">
-        <v>16</v>
-      </c>
-      <c r="K5" s="30">
+      <c r="I5" s="20">
+        <v>16</v>
+      </c>
+      <c r="J5" s="20">
+        <v>16</v>
+      </c>
+      <c r="K5" s="20">
         <v>13</v>
       </c>
       <c r="L5" s="5">
@@ -4626,33 +4626,33 @@
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="30">
+      <c r="A6" s="20">
         <v>2</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="20">
         <v>12018242323</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="30">
-        <v>16</v>
-      </c>
-      <c r="H6" s="30">
+      <c r="E6" s="36"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="20">
+        <v>16</v>
+      </c>
+      <c r="H6" s="20">
         <v>14</v>
       </c>
-      <c r="I6" s="30">
-        <v>16</v>
-      </c>
-      <c r="J6" s="30">
-        <v>16</v>
-      </c>
-      <c r="K6" s="30">
+      <c r="I6" s="20">
+        <v>16</v>
+      </c>
+      <c r="J6" s="20">
+        <v>16</v>
+      </c>
+      <c r="K6" s="20">
         <v>13</v>
       </c>
       <c r="L6" s="5">
@@ -4664,33 +4664,33 @@
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
+      <c r="A7" s="20">
         <v>3</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="20">
         <v>12018242217</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="30">
-        <v>16</v>
-      </c>
-      <c r="H7" s="30">
+      <c r="E7" s="36"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="20">
+        <v>16</v>
+      </c>
+      <c r="H7" s="20">
         <v>14</v>
       </c>
-      <c r="I7" s="30">
-        <v>16</v>
-      </c>
-      <c r="J7" s="30">
-        <v>16</v>
-      </c>
-      <c r="K7" s="30">
+      <c r="I7" s="20">
+        <v>16</v>
+      </c>
+      <c r="J7" s="20">
+        <v>16</v>
+      </c>
+      <c r="K7" s="20">
         <v>13</v>
       </c>
       <c r="L7" s="5">
@@ -4702,33 +4702,33 @@
       <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="30">
+      <c r="A8" s="20">
         <v>4</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="20">
         <v>12018242325</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="30">
-        <v>16</v>
-      </c>
-      <c r="H8" s="30">
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="20">
+        <v>16</v>
+      </c>
+      <c r="H8" s="20">
         <v>14</v>
       </c>
-      <c r="I8" s="30">
-        <v>16</v>
-      </c>
-      <c r="J8" s="30">
-        <v>16</v>
-      </c>
-      <c r="K8" s="30">
+      <c r="I8" s="20">
+        <v>16</v>
+      </c>
+      <c r="J8" s="20">
+        <v>16</v>
+      </c>
+      <c r="K8" s="20">
         <v>13</v>
       </c>
       <c r="L8" s="5">
@@ -4740,37 +4740,37 @@
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="30">
+      <c r="A9" s="20">
         <v>5</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="20">
         <v>12018242333</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="23" t="s">
         <v>334</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="23" t="s">
         <v>335</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="35" t="s">
         <v>336</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="38" t="s">
         <v>337</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="20">
         <v>15</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="20">
         <v>11</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="20">
         <v>17</v>
       </c>
-      <c r="J9" s="30">
-        <v>16</v>
-      </c>
-      <c r="K9" s="30">
+      <c r="J9" s="20">
+        <v>16</v>
+      </c>
+      <c r="K9" s="20">
         <v>12</v>
       </c>
       <c r="L9" s="5">
@@ -4782,33 +4782,33 @@
       <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="30">
+      <c r="A10" s="20">
         <v>6</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="20">
         <v>12018242266</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="23" t="s">
         <v>338</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="23" t="s">
         <v>339</v>
       </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="30">
+      <c r="E10" s="36"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="20">
         <v>15</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="20">
         <v>11</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="20">
         <v>17</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="20">
         <v>15</v>
       </c>
-      <c r="K10" s="30">
+      <c r="K10" s="20">
         <v>12</v>
       </c>
       <c r="L10" s="5">
@@ -4820,33 +4820,33 @@
       <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="30">
+      <c r="A11" s="20">
         <v>7</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="20">
         <v>12018242298</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="23" t="s">
         <v>341</v>
       </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="30">
+      <c r="E11" s="36"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="20">
         <v>15</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="20">
         <v>11</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="20">
         <v>17</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="20">
         <v>15</v>
       </c>
-      <c r="K11" s="30">
+      <c r="K11" s="20">
         <v>12</v>
       </c>
       <c r="L11" s="5">
@@ -4858,33 +4858,33 @@
       <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="30">
+      <c r="A12" s="20">
         <v>8</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="20">
         <v>12018242258</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="23" t="s">
         <v>342</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="30">
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="20">
         <v>15</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="20">
         <v>11</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="20">
         <v>17</v>
       </c>
-      <c r="J12" s="30">
+      <c r="J12" s="20">
         <v>15</v>
       </c>
-      <c r="K12" s="30">
+      <c r="K12" s="20">
         <v>12</v>
       </c>
       <c r="L12" s="5">
@@ -4896,37 +4896,37 @@
       <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="30">
+      <c r="A13" s="20">
         <v>9</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="20">
         <v>12018244410</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="23" t="s">
         <v>344</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="35" t="s">
         <v>346</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="38" t="s">
         <v>347</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G13" s="20">
         <v>18</v>
       </c>
-      <c r="H13" s="30">
+      <c r="H13" s="20">
         <v>18</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="20">
         <v>18</v>
       </c>
-      <c r="J13" s="30">
+      <c r="J13" s="20">
         <v>18</v>
       </c>
-      <c r="K13" s="30">
+      <c r="K13" s="20">
         <v>16</v>
       </c>
       <c r="L13" s="5">
@@ -4938,33 +4938,33 @@
       <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="30">
+      <c r="A14" s="20">
         <v>10</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="20">
         <v>12018243476</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="23" t="s">
         <v>348</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="30">
+      <c r="E14" s="36"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="20">
         <v>18</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="20">
         <v>18</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I14" s="20">
         <v>18</v>
       </c>
-      <c r="J14" s="30">
+      <c r="J14" s="20">
         <v>18</v>
       </c>
-      <c r="K14" s="30">
+      <c r="K14" s="20">
         <v>16</v>
       </c>
       <c r="L14" s="5">
@@ -4976,33 +4976,33 @@
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="30">
+      <c r="A15" s="20">
         <v>11</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="20">
         <v>12018243351</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="30">
+      <c r="E15" s="36"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="20">
         <v>18</v>
       </c>
-      <c r="H15" s="30">
+      <c r="H15" s="20">
         <v>18</v>
       </c>
-      <c r="I15" s="30">
+      <c r="I15" s="20">
         <v>18</v>
       </c>
-      <c r="J15" s="30">
+      <c r="J15" s="20">
         <v>18</v>
       </c>
-      <c r="K15" s="30">
+      <c r="K15" s="20">
         <v>16</v>
       </c>
       <c r="L15" s="5">
@@ -5014,33 +5014,33 @@
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="30">
+      <c r="A16" s="20">
         <v>12</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="20">
         <v>12018250064</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="30">
+      <c r="E16" s="36"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="20">
         <v>18</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="20">
         <v>18</v>
       </c>
-      <c r="I16" s="30">
+      <c r="I16" s="20">
         <v>18</v>
       </c>
-      <c r="J16" s="30">
+      <c r="J16" s="20">
         <v>18</v>
       </c>
-      <c r="K16" s="30">
+      <c r="K16" s="20">
         <v>16</v>
       </c>
       <c r="L16" s="5">
@@ -5052,33 +5052,33 @@
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="30">
-        <v>13</v>
-      </c>
-      <c r="B17" s="30">
+      <c r="A17" s="20">
+        <v>13</v>
+      </c>
+      <c r="B17" s="20">
         <v>12018243578</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="23" t="s">
         <v>354</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="23" t="s">
         <v>355</v>
       </c>
-      <c r="E17" s="41"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="30">
+      <c r="E17" s="37"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="20">
         <v>18</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="20">
         <v>18</v>
       </c>
-      <c r="I17" s="30">
+      <c r="I17" s="20">
         <v>18</v>
       </c>
-      <c r="J17" s="30">
+      <c r="J17" s="20">
         <v>18</v>
       </c>
-      <c r="K17" s="30">
+      <c r="K17" s="20">
         <v>16</v>
       </c>
       <c r="L17" s="5">
@@ -5090,193 +5090,193 @@
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A18" s="30">
+      <c r="A18" s="20">
         <v>14</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18" s="20">
         <v>12018242328</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="35" t="s">
         <v>358</v>
       </c>
-      <c r="F18" s="39" t="s">
+      <c r="F18" s="38" t="s">
         <v>359</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G18" s="20">
+        <v>14</v>
+      </c>
+      <c r="H18" s="20">
+        <v>13</v>
+      </c>
+      <c r="I18" s="20">
+        <v>16</v>
+      </c>
+      <c r="J18" s="20">
         <v>15</v>
       </c>
-      <c r="H18" s="30">
-        <v>16</v>
-      </c>
-      <c r="I18" s="30">
-        <v>19</v>
-      </c>
-      <c r="J18" s="30">
-        <v>18</v>
-      </c>
-      <c r="K18" s="30">
+      <c r="K18" s="20">
         <v>13</v>
       </c>
       <c r="L18" s="5">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="M18" s="6"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="30">
+      <c r="A19" s="20">
         <v>15</v>
       </c>
-      <c r="B19" s="30">
+      <c r="B19" s="20">
         <v>12018242281</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="23" t="s">
         <v>360</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="23" t="s">
         <v>361</v>
       </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="30">
+      <c r="E19" s="36"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="20">
+        <v>14</v>
+      </c>
+      <c r="H19" s="20">
+        <v>13</v>
+      </c>
+      <c r="I19" s="20">
+        <v>16</v>
+      </c>
+      <c r="J19" s="20">
         <v>15</v>
       </c>
-      <c r="H19" s="30">
-        <v>16</v>
-      </c>
-      <c r="I19" s="30">
-        <v>19</v>
-      </c>
-      <c r="J19" s="30">
-        <v>18</v>
-      </c>
-      <c r="K19" s="30">
+      <c r="K19" s="20">
         <v>13</v>
       </c>
       <c r="L19" s="5">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="M19" s="6"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20" s="30">
-        <v>16</v>
-      </c>
-      <c r="B20" s="30">
+      <c r="A20" s="20">
+        <v>16</v>
+      </c>
+      <c r="B20" s="20">
         <v>12018242267</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="23" t="s">
         <v>362</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="23" t="s">
         <v>363</v>
       </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="30">
+      <c r="E20" s="36"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="20">
+        <v>14</v>
+      </c>
+      <c r="H20" s="20">
+        <v>13</v>
+      </c>
+      <c r="I20" s="20">
+        <v>16</v>
+      </c>
+      <c r="J20" s="20">
         <v>15</v>
       </c>
-      <c r="H20" s="30">
-        <v>16</v>
-      </c>
-      <c r="I20" s="30">
-        <v>19</v>
-      </c>
-      <c r="J20" s="30">
-        <v>18</v>
-      </c>
-      <c r="K20" s="30">
+      <c r="K20" s="20">
         <v>13</v>
       </c>
       <c r="L20" s="5">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="M20" s="6"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A21" s="30">
+      <c r="A21" s="20">
         <v>17</v>
       </c>
-      <c r="B21" s="30">
+      <c r="B21" s="20">
         <v>12018242375</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="24" t="s">
         <v>364</v>
       </c>
-      <c r="D21" s="44" t="s">
+      <c r="D21" s="24" t="s">
         <v>365</v>
       </c>
-      <c r="E21" s="41"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="30">
+      <c r="E21" s="37"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="20">
+        <v>14</v>
+      </c>
+      <c r="H21" s="20">
+        <v>13</v>
+      </c>
+      <c r="I21" s="20">
+        <v>16</v>
+      </c>
+      <c r="J21" s="20">
         <v>15</v>
       </c>
-      <c r="H21" s="30">
-        <v>16</v>
-      </c>
-      <c r="I21" s="30">
-        <v>19</v>
-      </c>
-      <c r="J21" s="30">
-        <v>18</v>
-      </c>
-      <c r="K21" s="30">
+      <c r="K21" s="20">
         <v>13</v>
       </c>
       <c r="L21" s="5">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="M21" s="6"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="30">
+      <c r="A22" s="20">
         <v>18</v>
       </c>
-      <c r="B22" s="30">
+      <c r="B22" s="20">
         <v>12018242201</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="E22" s="38" t="s">
+      <c r="E22" s="35" t="s">
         <v>368</v>
       </c>
-      <c r="F22" s="39" t="s">
+      <c r="F22" s="38" t="s">
         <v>328</v>
       </c>
-      <c r="G22" s="30">
+      <c r="G22" s="20">
         <v>15</v>
       </c>
-      <c r="H22" s="30">
-        <v>13</v>
-      </c>
-      <c r="I22" s="30">
+      <c r="H22" s="20">
+        <v>13</v>
+      </c>
+      <c r="I22" s="20">
         <v>18</v>
       </c>
-      <c r="J22" s="30">
-        <v>16</v>
-      </c>
-      <c r="K22" s="30">
+      <c r="J22" s="20">
+        <v>16</v>
+      </c>
+      <c r="K22" s="20">
         <v>13</v>
       </c>
       <c r="L22" s="5">
@@ -5288,33 +5288,33 @@
       <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="30">
+      <c r="A23" s="20">
         <v>19</v>
       </c>
-      <c r="B23" s="30">
+      <c r="B23" s="20">
         <v>12018242208</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="23" t="s">
         <v>369</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="30">
+      <c r="E23" s="36"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="20">
         <v>15</v>
       </c>
-      <c r="H23" s="30">
-        <v>13</v>
-      </c>
-      <c r="I23" s="30">
+      <c r="H23" s="20">
+        <v>13</v>
+      </c>
+      <c r="I23" s="20">
         <v>18</v>
       </c>
-      <c r="J23" s="30">
-        <v>16</v>
-      </c>
-      <c r="K23" s="30">
+      <c r="J23" s="20">
+        <v>16</v>
+      </c>
+      <c r="K23" s="20">
         <v>13</v>
       </c>
       <c r="L23" s="5">
@@ -5326,33 +5326,33 @@
       <c r="O23" s="3"/>
     </row>
     <row r="24" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="30">
+      <c r="A24" s="20">
         <v>20</v>
       </c>
-      <c r="B24" s="30">
+      <c r="B24" s="20">
         <v>12018242231</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="E24" s="40"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="30">
+      <c r="E24" s="36"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="20">
         <v>15</v>
       </c>
-      <c r="H24" s="30">
-        <v>13</v>
-      </c>
-      <c r="I24" s="30">
+      <c r="H24" s="20">
+        <v>13</v>
+      </c>
+      <c r="I24" s="20">
         <v>18</v>
       </c>
-      <c r="J24" s="30">
-        <v>16</v>
-      </c>
-      <c r="K24" s="30">
+      <c r="J24" s="20">
+        <v>16</v>
+      </c>
+      <c r="K24" s="20">
         <v>13</v>
       </c>
       <c r="L24" s="5">
@@ -5364,33 +5364,33 @@
       <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="30">
+      <c r="A25" s="20">
         <v>21</v>
       </c>
-      <c r="B25" s="30">
+      <c r="B25" s="20">
         <v>12018242338</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="23" t="s">
         <v>374</v>
       </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="30">
+      <c r="E25" s="37"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="20">
         <v>15</v>
       </c>
-      <c r="H25" s="30">
-        <v>13</v>
-      </c>
-      <c r="I25" s="30">
+      <c r="H25" s="20">
+        <v>13</v>
+      </c>
+      <c r="I25" s="20">
         <v>18</v>
       </c>
-      <c r="J25" s="30">
-        <v>16</v>
-      </c>
-      <c r="K25" s="30">
+      <c r="J25" s="20">
+        <v>16</v>
+      </c>
+      <c r="K25" s="20">
         <v>13</v>
       </c>
       <c r="L25" s="5">
@@ -5402,37 +5402,37 @@
       <c r="O25" s="3"/>
     </row>
     <row r="26" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A26" s="30">
+      <c r="A26" s="20">
         <v>22</v>
       </c>
-      <c r="B26" s="30">
+      <c r="B26" s="20">
         <v>12018242277</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="23" t="s">
         <v>376</v>
       </c>
-      <c r="E26" s="38" t="s">
+      <c r="E26" s="35" t="s">
         <v>377</v>
       </c>
-      <c r="F26" s="39" t="s">
+      <c r="F26" s="38" t="s">
         <v>359</v>
       </c>
-      <c r="G26" s="30">
-        <v>13</v>
-      </c>
-      <c r="H26" s="30">
+      <c r="G26" s="20">
+        <v>13</v>
+      </c>
+      <c r="H26" s="20">
         <v>12</v>
       </c>
-      <c r="I26" s="30">
+      <c r="I26" s="20">
         <v>14</v>
       </c>
-      <c r="J26" s="30">
-        <v>13</v>
-      </c>
-      <c r="K26" s="30">
+      <c r="J26" s="20">
+        <v>13</v>
+      </c>
+      <c r="K26" s="20">
         <v>13</v>
       </c>
       <c r="L26" s="5">
@@ -5444,33 +5444,33 @@
       <c r="O26" s="3"/>
     </row>
     <row r="27" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="30">
+      <c r="A27" s="20">
         <v>23</v>
       </c>
-      <c r="B27" s="30">
+      <c r="B27" s="20">
         <v>12018242251</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="23" t="s">
         <v>378</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="23" t="s">
         <v>379</v>
       </c>
-      <c r="E27" s="40"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="30">
-        <v>13</v>
-      </c>
-      <c r="H27" s="30">
+      <c r="E27" s="36"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="20">
+        <v>13</v>
+      </c>
+      <c r="H27" s="20">
         <v>12</v>
       </c>
-      <c r="I27" s="30">
+      <c r="I27" s="20">
         <v>14</v>
       </c>
-      <c r="J27" s="30">
-        <v>13</v>
-      </c>
-      <c r="K27" s="30">
+      <c r="J27" s="20">
+        <v>13</v>
+      </c>
+      <c r="K27" s="20">
         <v>13</v>
       </c>
       <c r="L27" s="5">
@@ -5482,33 +5482,33 @@
       <c r="O27" s="3"/>
     </row>
     <row r="28" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="30">
+      <c r="A28" s="20">
         <v>24</v>
       </c>
-      <c r="B28" s="30">
+      <c r="B28" s="20">
         <v>12018242348</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="23" t="s">
         <v>380</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="30">
-        <v>13</v>
-      </c>
-      <c r="H28" s="30">
+      <c r="E28" s="36"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="20">
+        <v>13</v>
+      </c>
+      <c r="H28" s="20">
         <v>12</v>
       </c>
-      <c r="I28" s="30">
+      <c r="I28" s="20">
         <v>14</v>
       </c>
-      <c r="J28" s="30">
-        <v>13</v>
-      </c>
-      <c r="K28" s="30">
+      <c r="J28" s="20">
+        <v>13</v>
+      </c>
+      <c r="K28" s="20">
         <v>13</v>
       </c>
       <c r="L28" s="5">
@@ -5520,33 +5520,33 @@
       <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="30">
+      <c r="A29" s="20">
         <v>25</v>
       </c>
-      <c r="B29" s="30">
+      <c r="B29" s="20">
         <v>12018242205</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="E29" s="41"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="30">
-        <v>13</v>
-      </c>
-      <c r="H29" s="30">
+      <c r="E29" s="37"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="20">
+        <v>13</v>
+      </c>
+      <c r="H29" s="20">
         <v>12</v>
       </c>
-      <c r="I29" s="30">
+      <c r="I29" s="20">
         <v>14</v>
       </c>
-      <c r="J29" s="30">
-        <v>13</v>
-      </c>
-      <c r="K29" s="30">
+      <c r="J29" s="20">
+        <v>13</v>
+      </c>
+      <c r="K29" s="20">
         <v>13</v>
       </c>
       <c r="L29" s="5">
@@ -5558,37 +5558,37 @@
       <c r="O29" s="3"/>
     </row>
     <row r="30" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A30" s="30">
+      <c r="A30" s="20">
         <v>26</v>
       </c>
-      <c r="B30" s="30">
+      <c r="B30" s="20">
         <v>12018242347</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="23" t="s">
         <v>384</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="E30" s="38" t="s">
+      <c r="E30" s="35" t="s">
         <v>386</v>
       </c>
-      <c r="F30" s="39" t="s">
+      <c r="F30" s="38" t="s">
         <v>347</v>
       </c>
-      <c r="G30" s="30">
-        <v>13</v>
-      </c>
-      <c r="H30" s="30">
+      <c r="G30" s="20">
+        <v>13</v>
+      </c>
+      <c r="H30" s="20">
         <v>12</v>
       </c>
-      <c r="I30" s="30">
+      <c r="I30" s="20">
         <v>15</v>
       </c>
-      <c r="J30" s="30">
-        <v>13</v>
-      </c>
-      <c r="K30" s="30">
+      <c r="J30" s="20">
+        <v>13</v>
+      </c>
+      <c r="K30" s="20">
         <v>11</v>
       </c>
       <c r="L30" s="5">
@@ -5600,33 +5600,33 @@
       <c r="O30" s="3"/>
     </row>
     <row r="31" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A31" s="30">
+      <c r="A31" s="20">
         <v>27</v>
       </c>
-      <c r="B31" s="30">
+      <c r="B31" s="20">
         <v>12018242351</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="E31" s="40"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="30">
-        <v>13</v>
-      </c>
-      <c r="H31" s="30">
+      <c r="E31" s="36"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="20">
+        <v>13</v>
+      </c>
+      <c r="H31" s="20">
         <v>12</v>
       </c>
-      <c r="I31" s="30">
+      <c r="I31" s="20">
         <v>15</v>
       </c>
-      <c r="J31" s="30">
-        <v>13</v>
-      </c>
-      <c r="K31" s="30">
+      <c r="J31" s="20">
+        <v>13</v>
+      </c>
+      <c r="K31" s="20">
         <v>11</v>
       </c>
       <c r="L31" s="5">
@@ -5638,33 +5638,33 @@
       <c r="O31" s="3"/>
     </row>
     <row r="32" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A32" s="30">
+      <c r="A32" s="20">
         <v>28</v>
       </c>
-      <c r="B32" s="30">
+      <c r="B32" s="20">
         <v>12018247890</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="23" t="s">
         <v>389</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="23" t="s">
         <v>390</v>
       </c>
-      <c r="E32" s="40"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="30">
-        <v>13</v>
-      </c>
-      <c r="H32" s="30">
+      <c r="E32" s="36"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="20">
+        <v>13</v>
+      </c>
+      <c r="H32" s="20">
         <v>12</v>
       </c>
-      <c r="I32" s="30">
+      <c r="I32" s="20">
         <v>15</v>
       </c>
-      <c r="J32" s="30">
-        <v>13</v>
-      </c>
-      <c r="K32" s="30">
+      <c r="J32" s="20">
+        <v>13</v>
+      </c>
+      <c r="K32" s="20">
         <v>11</v>
       </c>
       <c r="L32" s="5">
@@ -5676,33 +5676,33 @@
       <c r="O32" s="3"/>
     </row>
     <row r="33" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A33" s="30">
+      <c r="A33" s="20">
         <v>29</v>
       </c>
-      <c r="B33" s="30">
+      <c r="B33" s="20">
         <v>12018242255</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="D33" s="37" t="s">
+      <c r="D33" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="30">
-        <v>13</v>
-      </c>
-      <c r="H33" s="30">
+      <c r="E33" s="36"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="20">
+        <v>13</v>
+      </c>
+      <c r="H33" s="20">
         <v>12</v>
       </c>
-      <c r="I33" s="30">
+      <c r="I33" s="20">
         <v>15</v>
       </c>
-      <c r="J33" s="30">
-        <v>13</v>
-      </c>
-      <c r="K33" s="30">
+      <c r="J33" s="20">
+        <v>13</v>
+      </c>
+      <c r="K33" s="20">
         <v>11</v>
       </c>
       <c r="L33" s="5">
@@ -5714,33 +5714,33 @@
       <c r="O33" s="3"/>
     </row>
     <row r="34" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A34" s="30">
+      <c r="A34" s="20">
         <v>30</v>
       </c>
-      <c r="B34" s="30">
+      <c r="B34" s="20">
         <v>12018247887</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="D34" s="37" t="s">
+      <c r="D34" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="E34" s="41"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="30">
-        <v>13</v>
-      </c>
-      <c r="H34" s="30">
+      <c r="E34" s="37"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="20">
+        <v>13</v>
+      </c>
+      <c r="H34" s="20">
         <v>12</v>
       </c>
-      <c r="I34" s="30">
+      <c r="I34" s="20">
         <v>15</v>
       </c>
-      <c r="J34" s="30">
-        <v>13</v>
-      </c>
-      <c r="K34" s="30">
+      <c r="J34" s="20">
+        <v>13</v>
+      </c>
+      <c r="K34" s="20">
         <v>11</v>
       </c>
       <c r="L34" s="5">
@@ -5752,37 +5752,37 @@
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A35" s="30">
+      <c r="A35" s="20">
         <v>31</v>
       </c>
-      <c r="B35" s="30">
+      <c r="B35" s="20">
         <v>12018242232</v>
       </c>
-      <c r="C35" s="37" t="s">
+      <c r="C35" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="D35" s="37" t="s">
+      <c r="D35" s="23" t="s">
         <v>396</v>
       </c>
-      <c r="E35" s="38" t="s">
+      <c r="E35" s="35" t="s">
         <v>397</v>
       </c>
-      <c r="F35" s="39" t="s">
+      <c r="F35" s="38" t="s">
         <v>337</v>
       </c>
-      <c r="G35" s="30">
+      <c r="G35" s="20">
         <v>12</v>
       </c>
-      <c r="H35" s="30">
+      <c r="H35" s="20">
         <v>12</v>
       </c>
-      <c r="I35" s="30">
-        <v>16</v>
-      </c>
-      <c r="J35" s="30">
-        <v>13</v>
-      </c>
-      <c r="K35" s="30">
+      <c r="I35" s="20">
+        <v>16</v>
+      </c>
+      <c r="J35" s="20">
+        <v>13</v>
+      </c>
+      <c r="K35" s="20">
         <v>12</v>
       </c>
       <c r="L35" s="5">
@@ -5794,33 +5794,33 @@
       <c r="O35" s="3"/>
     </row>
     <row r="36" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A36" s="30">
+      <c r="A36" s="20">
         <v>32</v>
       </c>
-      <c r="B36" s="30">
+      <c r="B36" s="20">
         <v>12018242246</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="D36" s="37" t="s">
+      <c r="D36" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="E36" s="40"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="30">
+      <c r="E36" s="36"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="20">
         <v>12</v>
       </c>
-      <c r="H36" s="30">
+      <c r="H36" s="20">
         <v>12</v>
       </c>
-      <c r="I36" s="30">
-        <v>16</v>
-      </c>
-      <c r="J36" s="30">
-        <v>13</v>
-      </c>
-      <c r="K36" s="30">
+      <c r="I36" s="20">
+        <v>16</v>
+      </c>
+      <c r="J36" s="20">
+        <v>13</v>
+      </c>
+      <c r="K36" s="20">
         <v>12</v>
       </c>
       <c r="L36" s="5">
@@ -5832,33 +5832,33 @@
       <c r="O36" s="3"/>
     </row>
     <row r="37" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A37" s="30">
+      <c r="A37" s="20">
         <v>33</v>
       </c>
-      <c r="B37" s="30">
+      <c r="B37" s="20">
         <v>12018242260</v>
       </c>
-      <c r="C37" s="37" t="s">
+      <c r="C37" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="D37" s="37" t="s">
+      <c r="D37" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="E37" s="40"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="30">
+      <c r="E37" s="36"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="20">
         <v>12</v>
       </c>
-      <c r="H37" s="30">
+      <c r="H37" s="20">
         <v>12</v>
       </c>
-      <c r="I37" s="30">
-        <v>16</v>
-      </c>
-      <c r="J37" s="30">
-        <v>13</v>
-      </c>
-      <c r="K37" s="30">
+      <c r="I37" s="20">
+        <v>16</v>
+      </c>
+      <c r="J37" s="20">
+        <v>13</v>
+      </c>
+      <c r="K37" s="20">
         <v>12</v>
       </c>
       <c r="L37" s="5">
@@ -5870,33 +5870,33 @@
       <c r="O37" s="3"/>
     </row>
     <row r="38" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A38" s="30">
+      <c r="A38" s="20">
         <v>34</v>
       </c>
-      <c r="B38" s="30">
+      <c r="B38" s="20">
         <v>12018242207</v>
       </c>
-      <c r="C38" s="37" t="s">
+      <c r="C38" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="D38" s="37" t="s">
+      <c r="D38" s="23" t="s">
         <v>403</v>
       </c>
-      <c r="E38" s="41"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="30">
+      <c r="E38" s="37"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="20">
         <v>12</v>
       </c>
-      <c r="H38" s="30">
+      <c r="H38" s="20">
         <v>12</v>
       </c>
-      <c r="I38" s="30">
-        <v>16</v>
-      </c>
-      <c r="J38" s="30">
-        <v>13</v>
-      </c>
-      <c r="K38" s="30">
+      <c r="I38" s="20">
+        <v>16</v>
+      </c>
+      <c r="J38" s="20">
+        <v>13</v>
+      </c>
+      <c r="K38" s="20">
         <v>12</v>
       </c>
       <c r="L38" s="5">
@@ -5908,37 +5908,37 @@
       <c r="O38" s="3"/>
     </row>
     <row r="39" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A39" s="30">
+      <c r="A39" s="20">
         <v>35</v>
       </c>
-      <c r="B39" s="30">
+      <c r="B39" s="20">
         <v>12018242360</v>
       </c>
-      <c r="C39" s="37" t="s">
+      <c r="C39" s="23" t="s">
         <v>404</v>
       </c>
-      <c r="D39" s="37" t="s">
+      <c r="D39" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="E39" s="38" t="s">
+      <c r="E39" s="35" t="s">
         <v>406</v>
       </c>
-      <c r="F39" s="39" t="s">
+      <c r="F39" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="G39" s="30">
-        <v>13</v>
-      </c>
-      <c r="H39" s="30">
+      <c r="G39" s="20">
+        <v>13</v>
+      </c>
+      <c r="H39" s="20">
         <v>12</v>
       </c>
-      <c r="I39" s="30">
-        <v>16</v>
-      </c>
-      <c r="J39" s="30">
+      <c r="I39" s="20">
+        <v>16</v>
+      </c>
+      <c r="J39" s="20">
         <v>15</v>
       </c>
-      <c r="K39" s="30">
+      <c r="K39" s="20">
         <v>13</v>
       </c>
       <c r="L39" s="5">
@@ -5950,33 +5950,33 @@
       <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A40" s="30">
+      <c r="A40" s="20">
         <v>36</v>
       </c>
-      <c r="B40" s="30">
+      <c r="B40" s="20">
         <v>12018242263</v>
       </c>
-      <c r="C40" s="37" t="s">
+      <c r="C40" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="D40" s="37" t="s">
+      <c r="D40" s="23" t="s">
         <v>409</v>
       </c>
-      <c r="E40" s="40"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="30">
-        <v>13</v>
-      </c>
-      <c r="H40" s="30">
+      <c r="E40" s="36"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="20">
+        <v>13</v>
+      </c>
+      <c r="H40" s="20">
         <v>12</v>
       </c>
-      <c r="I40" s="30">
-        <v>16</v>
-      </c>
-      <c r="J40" s="30">
+      <c r="I40" s="20">
+        <v>16</v>
+      </c>
+      <c r="J40" s="20">
         <v>15</v>
       </c>
-      <c r="K40" s="30">
+      <c r="K40" s="20">
         <v>13</v>
       </c>
       <c r="L40" s="5">
@@ -5988,33 +5988,33 @@
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A41" s="30">
+      <c r="A41" s="20">
         <v>37</v>
       </c>
-      <c r="B41" s="30">
+      <c r="B41" s="20">
         <v>12018242271</v>
       </c>
-      <c r="C41" s="37" t="s">
+      <c r="C41" s="23" t="s">
         <v>410</v>
       </c>
-      <c r="D41" s="37" t="s">
+      <c r="D41" s="23" t="s">
         <v>411</v>
       </c>
-      <c r="E41" s="40"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="30">
-        <v>13</v>
-      </c>
-      <c r="H41" s="30">
+      <c r="E41" s="36"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="20">
+        <v>13</v>
+      </c>
+      <c r="H41" s="20">
         <v>12</v>
       </c>
-      <c r="I41" s="30">
-        <v>16</v>
-      </c>
-      <c r="J41" s="30">
+      <c r="I41" s="20">
+        <v>16</v>
+      </c>
+      <c r="J41" s="20">
         <v>15</v>
       </c>
-      <c r="K41" s="30">
+      <c r="K41" s="20">
         <v>13</v>
       </c>
       <c r="L41" s="5">
@@ -6026,33 +6026,33 @@
       <c r="O41" s="3"/>
     </row>
     <row r="42" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A42" s="30">
+      <c r="A42" s="20">
         <v>38</v>
       </c>
-      <c r="B42" s="30">
+      <c r="B42" s="20">
         <v>12018242313</v>
       </c>
-      <c r="C42" s="37" t="s">
+      <c r="C42" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="D42" s="37" t="s">
+      <c r="D42" s="23" t="s">
         <v>413</v>
       </c>
-      <c r="E42" s="40"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="30">
-        <v>13</v>
-      </c>
-      <c r="H42" s="30">
+      <c r="E42" s="36"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="20">
+        <v>13</v>
+      </c>
+      <c r="H42" s="20">
         <v>12</v>
       </c>
-      <c r="I42" s="30">
-        <v>16</v>
-      </c>
-      <c r="J42" s="30">
+      <c r="I42" s="20">
+        <v>16</v>
+      </c>
+      <c r="J42" s="20">
         <v>15</v>
       </c>
-      <c r="K42" s="30">
+      <c r="K42" s="20">
         <v>13</v>
       </c>
       <c r="L42" s="5">
@@ -6064,33 +6064,33 @@
       <c r="O42" s="3"/>
     </row>
     <row r="43" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A43" s="30">
+      <c r="A43" s="20">
         <v>39</v>
       </c>
-      <c r="B43" s="30">
+      <c r="B43" s="20">
         <v>12018242256</v>
       </c>
-      <c r="C43" s="37" t="s">
+      <c r="C43" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="D43" s="37" t="s">
+      <c r="D43" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="E43" s="41"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="30">
-        <v>13</v>
-      </c>
-      <c r="H43" s="30">
+      <c r="E43" s="37"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="20">
+        <v>13</v>
+      </c>
+      <c r="H43" s="20">
         <v>12</v>
       </c>
-      <c r="I43" s="30">
-        <v>16</v>
-      </c>
-      <c r="J43" s="30">
+      <c r="I43" s="20">
+        <v>16</v>
+      </c>
+      <c r="J43" s="20">
         <v>15</v>
       </c>
-      <c r="K43" s="30">
+      <c r="K43" s="20">
         <v>13</v>
       </c>
       <c r="L43" s="5">
@@ -6102,37 +6102,37 @@
       <c r="O43" s="3"/>
     </row>
     <row r="44" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A44" s="30">
+      <c r="A44" s="20">
         <v>40</v>
       </c>
-      <c r="B44" s="30">
+      <c r="B44" s="20">
         <v>12018242366</v>
       </c>
-      <c r="C44" s="37" t="s">
+      <c r="C44" s="23" t="s">
         <v>416</v>
       </c>
-      <c r="D44" s="37" t="s">
+      <c r="D44" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="E44" s="38" t="s">
+      <c r="E44" s="35" t="s">
         <v>418</v>
       </c>
-      <c r="F44" s="39" t="s">
+      <c r="F44" s="38" t="s">
         <v>419</v>
       </c>
-      <c r="G44" s="30">
-        <v>13</v>
-      </c>
-      <c r="H44" s="30">
-        <v>13</v>
-      </c>
-      <c r="I44" s="30">
-        <v>16</v>
-      </c>
-      <c r="J44" s="30">
-        <v>13</v>
-      </c>
-      <c r="K44" s="30">
+      <c r="G44" s="20">
+        <v>13</v>
+      </c>
+      <c r="H44" s="20">
+        <v>13</v>
+      </c>
+      <c r="I44" s="20">
+        <v>16</v>
+      </c>
+      <c r="J44" s="20">
+        <v>13</v>
+      </c>
+      <c r="K44" s="20">
         <v>12</v>
       </c>
       <c r="L44" s="5">
@@ -6144,33 +6144,33 @@
       <c r="O44" s="3"/>
     </row>
     <row r="45" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A45" s="30">
+      <c r="A45" s="20">
         <v>41</v>
       </c>
-      <c r="B45" s="30">
+      <c r="B45" s="20">
         <v>12018243864</v>
       </c>
-      <c r="C45" s="37" t="s">
+      <c r="C45" s="23" t="s">
         <v>420</v>
       </c>
-      <c r="D45" s="37" t="s">
+      <c r="D45" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="E45" s="40"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="30">
-        <v>13</v>
-      </c>
-      <c r="H45" s="30">
-        <v>13</v>
-      </c>
-      <c r="I45" s="30">
-        <v>16</v>
-      </c>
-      <c r="J45" s="30">
-        <v>13</v>
-      </c>
-      <c r="K45" s="30">
+      <c r="E45" s="36"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="20">
+        <v>13</v>
+      </c>
+      <c r="H45" s="20">
+        <v>13</v>
+      </c>
+      <c r="I45" s="20">
+        <v>16</v>
+      </c>
+      <c r="J45" s="20">
+        <v>13</v>
+      </c>
+      <c r="K45" s="20">
         <v>12</v>
       </c>
       <c r="L45" s="5">
@@ -6182,33 +6182,33 @@
       <c r="O45" s="3"/>
     </row>
     <row r="46" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A46" s="30">
+      <c r="A46" s="20">
         <v>42</v>
       </c>
-      <c r="B46" s="30">
+      <c r="B46" s="20">
         <v>12018242377</v>
       </c>
-      <c r="C46" s="37" t="s">
+      <c r="C46" s="23" t="s">
         <v>422</v>
       </c>
-      <c r="D46" s="37" t="s">
+      <c r="D46" s="23" t="s">
         <v>423</v>
       </c>
-      <c r="E46" s="40"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="30">
-        <v>13</v>
-      </c>
-      <c r="H46" s="30">
-        <v>13</v>
-      </c>
-      <c r="I46" s="30">
-        <v>16</v>
-      </c>
-      <c r="J46" s="30">
-        <v>13</v>
-      </c>
-      <c r="K46" s="30">
+      <c r="E46" s="36"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="20">
+        <v>13</v>
+      </c>
+      <c r="H46" s="20">
+        <v>13</v>
+      </c>
+      <c r="I46" s="20">
+        <v>16</v>
+      </c>
+      <c r="J46" s="20">
+        <v>13</v>
+      </c>
+      <c r="K46" s="20">
         <v>12</v>
       </c>
       <c r="L46" s="5">
@@ -6220,33 +6220,33 @@
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A47" s="30">
+      <c r="A47" s="20">
         <v>43</v>
       </c>
-      <c r="B47" s="30">
+      <c r="B47" s="20">
         <v>12018241690</v>
       </c>
-      <c r="C47" s="37" t="s">
+      <c r="C47" s="23" t="s">
         <v>424</v>
       </c>
-      <c r="D47" s="37" t="s">
+      <c r="D47" s="23" t="s">
         <v>425</v>
       </c>
-      <c r="E47" s="41"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="30">
-        <v>13</v>
-      </c>
-      <c r="H47" s="30">
-        <v>13</v>
-      </c>
-      <c r="I47" s="30">
-        <v>16</v>
-      </c>
-      <c r="J47" s="30">
-        <v>13</v>
-      </c>
-      <c r="K47" s="30">
+      <c r="E47" s="37"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="20">
+        <v>13</v>
+      </c>
+      <c r="H47" s="20">
+        <v>13</v>
+      </c>
+      <c r="I47" s="20">
+        <v>16</v>
+      </c>
+      <c r="J47" s="20">
+        <v>13</v>
+      </c>
+      <c r="K47" s="20">
         <v>12</v>
       </c>
       <c r="L47" s="5">
@@ -6258,37 +6258,37 @@
       <c r="O47" s="3"/>
     </row>
     <row r="48" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A48" s="30">
+      <c r="A48" s="20">
         <v>44</v>
       </c>
-      <c r="B48" s="30">
+      <c r="B48" s="20">
         <v>12018242226</v>
       </c>
-      <c r="C48" s="37" t="s">
+      <c r="C48" s="23" t="s">
         <v>426</v>
       </c>
-      <c r="D48" s="37" t="s">
+      <c r="D48" s="23" t="s">
         <v>427</v>
       </c>
-      <c r="E48" s="38" t="s">
+      <c r="E48" s="35" t="s">
         <v>428</v>
       </c>
-      <c r="F48" s="39" t="s">
+      <c r="F48" s="38" t="s">
         <v>419</v>
       </c>
-      <c r="G48" s="30">
+      <c r="G48" s="20">
         <v>14</v>
       </c>
-      <c r="H48" s="30">
-        <v>13</v>
-      </c>
-      <c r="I48" s="30">
+      <c r="H48" s="20">
+        <v>13</v>
+      </c>
+      <c r="I48" s="20">
         <v>15</v>
       </c>
-      <c r="J48" s="30">
+      <c r="J48" s="20">
         <v>12</v>
       </c>
-      <c r="K48" s="30">
+      <c r="K48" s="20">
         <v>12</v>
       </c>
       <c r="L48" s="5">
@@ -6300,33 +6300,33 @@
       <c r="O48" s="3"/>
     </row>
     <row r="49" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A49" s="30">
+      <c r="A49" s="20">
         <v>45</v>
       </c>
-      <c r="B49" s="30">
+      <c r="B49" s="20">
         <v>12018242297</v>
       </c>
-      <c r="C49" s="37" t="s">
+      <c r="C49" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="D49" s="37" t="s">
+      <c r="D49" s="23" t="s">
         <v>430</v>
       </c>
-      <c r="E49" s="40"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="30">
+      <c r="E49" s="36"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="20">
         <v>14</v>
       </c>
-      <c r="H49" s="30">
-        <v>13</v>
-      </c>
-      <c r="I49" s="30">
+      <c r="H49" s="20">
+        <v>13</v>
+      </c>
+      <c r="I49" s="20">
         <v>15</v>
       </c>
-      <c r="J49" s="30">
+      <c r="J49" s="20">
         <v>12</v>
       </c>
-      <c r="K49" s="30">
+      <c r="K49" s="20">
         <v>12</v>
       </c>
       <c r="L49" s="5">
@@ -6338,33 +6338,33 @@
       <c r="O49" s="3"/>
     </row>
     <row r="50" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A50" s="30">
+      <c r="A50" s="20">
         <v>46</v>
       </c>
-      <c r="B50" s="30">
+      <c r="B50" s="20">
         <v>12018242330</v>
       </c>
-      <c r="C50" s="37" t="s">
+      <c r="C50" s="23" t="s">
         <v>431</v>
       </c>
-      <c r="D50" s="37" t="s">
+      <c r="D50" s="23" t="s">
         <v>432</v>
       </c>
-      <c r="E50" s="40"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="30">
+      <c r="E50" s="36"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="20">
         <v>14</v>
       </c>
-      <c r="H50" s="30">
-        <v>13</v>
-      </c>
-      <c r="I50" s="30">
+      <c r="H50" s="20">
+        <v>13</v>
+      </c>
+      <c r="I50" s="20">
         <v>15</v>
       </c>
-      <c r="J50" s="30">
+      <c r="J50" s="20">
         <v>12</v>
       </c>
-      <c r="K50" s="30">
+      <c r="K50" s="20">
         <v>12</v>
       </c>
       <c r="L50" s="5">
@@ -6376,33 +6376,33 @@
       <c r="O50" s="3"/>
     </row>
     <row r="51" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A51" s="30">
+      <c r="A51" s="20">
         <v>47</v>
       </c>
-      <c r="B51" s="30">
+      <c r="B51" s="20">
         <v>12018242249</v>
       </c>
-      <c r="C51" s="37" t="s">
+      <c r="C51" s="23" t="s">
         <v>433</v>
       </c>
-      <c r="D51" s="37" t="s">
+      <c r="D51" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="E51" s="41"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="30">
+      <c r="E51" s="37"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="20">
         <v>14</v>
       </c>
-      <c r="H51" s="30">
-        <v>13</v>
-      </c>
-      <c r="I51" s="30">
+      <c r="H51" s="20">
+        <v>13</v>
+      </c>
+      <c r="I51" s="20">
         <v>15</v>
       </c>
-      <c r="J51" s="30">
+      <c r="J51" s="20">
         <v>12</v>
       </c>
-      <c r="K51" s="30">
+      <c r="K51" s="20">
         <v>12</v>
       </c>
       <c r="L51" s="5">
@@ -6422,27 +6422,27 @@
     <mergeCell ref="F44:F47"/>
     <mergeCell ref="E48:E51"/>
     <mergeCell ref="F48:F51"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="G3:K3"/>
-    <mergeCell ref="E13:E17"/>
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
     <mergeCell ref="E5:E8"/>
     <mergeCell ref="F5:F8"/>
     <mergeCell ref="E9:E12"/>
     <mergeCell ref="F9:F12"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="F13:F17"/>
     <mergeCell ref="E30:E34"/>
     <mergeCell ref="F30:F34"/>
     <mergeCell ref="E35:E38"/>
     <mergeCell ref="F35:F38"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F29"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6480,21 +6480,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
@@ -6502,39 +6502,39 @@
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
       <c r="F2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
       <c r="N2" s="3"/>
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
       <c r="L3" s="14"/>
       <c r="M3" s="13"/>
       <c r="N3" s="4"/>
@@ -6600,8 +6600,8 @@
       <c r="D5" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="20"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -6628,8 +6628,8 @@
       <c r="D6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="21"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="43"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -6656,8 +6656,8 @@
       <c r="D7" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="21"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="43"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -6684,8 +6684,8 @@
       <c r="D8" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="22"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="44"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -6712,8 +6712,8 @@
       <c r="D9" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="20"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -6740,8 +6740,8 @@
       <c r="D10" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="21"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="43"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -6768,8 +6768,8 @@
       <c r="D11" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="21"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="43"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -6796,8 +6796,8 @@
       <c r="D12" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="22"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="44"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -6824,8 +6824,8 @@
       <c r="D13" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="20"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="42"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -6852,8 +6852,8 @@
       <c r="D14" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="21"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="43"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -6880,8 +6880,8 @@
       <c r="D15" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="21"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="43"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -6908,8 +6908,8 @@
       <c r="D16" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="22"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="44"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -6936,8 +6936,8 @@
       <c r="D17" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="20"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="42"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -6964,8 +6964,8 @@
       <c r="D18" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="21"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="43"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -6992,8 +6992,8 @@
       <c r="D19" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="21"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="43"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -7020,8 +7020,8 @@
       <c r="D20" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="22"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="44"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -7048,8 +7048,8 @@
       <c r="D21" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="20"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="42"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -7076,8 +7076,8 @@
       <c r="D22" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="21"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="43"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -7104,8 +7104,8 @@
       <c r="D23" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="21"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="43"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -7132,8 +7132,8 @@
       <c r="D24" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="22"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="44"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -7160,8 +7160,8 @@
       <c r="D25" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="20"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="42"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -7188,8 +7188,8 @@
       <c r="D26" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="21"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="43"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -7216,8 +7216,8 @@
       <c r="D27" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="21"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="43"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -7244,8 +7244,8 @@
       <c r="D28" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="22"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="44"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -7272,8 +7272,8 @@
       <c r="D29" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="E29" s="23"/>
-      <c r="F29" s="20"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="42"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
@@ -7300,8 +7300,8 @@
       <c r="D30" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="21"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="43"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -7328,8 +7328,8 @@
       <c r="D31" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="21"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="43"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -7356,8 +7356,8 @@
       <c r="D32" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="22"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="44"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
@@ -7384,8 +7384,8 @@
       <c r="D33" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="E33" s="23"/>
-      <c r="F33" s="20"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="42"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
@@ -7412,8 +7412,8 @@
       <c r="D34" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="21"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="43"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
@@ -7440,8 +7440,8 @@
       <c r="D35" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="24"/>
-      <c r="F35" s="21"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="43"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
@@ -7468,8 +7468,8 @@
       <c r="D36" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="22"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="44"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
@@ -7496,8 +7496,8 @@
       <c r="D37" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="23"/>
-      <c r="F37" s="20"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="42"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -7524,8 +7524,8 @@
       <c r="D38" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="21"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="43"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
@@ -7552,8 +7552,8 @@
       <c r="D39" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E39" s="24"/>
-      <c r="F39" s="21"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="43"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -7580,8 +7580,8 @@
       <c r="D40" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E40" s="25"/>
-      <c r="F40" s="22"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="44"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -7608,8 +7608,8 @@
       <c r="D41" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="20"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="42"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
@@ -7636,8 +7636,8 @@
       <c r="D42" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="21"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="43"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -7664,8 +7664,8 @@
       <c r="D43" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="21"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="43"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
@@ -7692,8 +7692,8 @@
       <c r="D44" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E44" s="25"/>
-      <c r="F44" s="22"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="44"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
@@ -7720,8 +7720,8 @@
       <c r="D45" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="E45" s="23"/>
-      <c r="F45" s="20"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="42"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
@@ -7748,8 +7748,8 @@
       <c r="D46" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="21"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="43"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
@@ -7776,8 +7776,8 @@
       <c r="D47" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="21"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="43"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
@@ -7804,8 +7804,8 @@
       <c r="D48" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E48" s="25"/>
-      <c r="F48" s="22"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="44"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
@@ -7832,8 +7832,8 @@
       <c r="D49" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E49" s="23"/>
-      <c r="F49" s="20"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="42"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
@@ -7860,8 +7860,8 @@
       <c r="D50" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E50" s="24"/>
-      <c r="F50" s="21"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="43"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
@@ -7888,8 +7888,8 @@
       <c r="D51" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E51" s="24"/>
-      <c r="F51" s="21"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="43"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
@@ -7916,8 +7916,8 @@
       <c r="D52" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E52" s="25"/>
-      <c r="F52" s="22"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="44"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
@@ -7999,21 +7999,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
@@ -8021,39 +8021,39 @@
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
       <c r="F2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
       <c r="N2" s="3"/>
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
       <c r="L3" s="14"/>
       <c r="M3" s="13"/>
       <c r="N3" s="4"/>
@@ -8119,8 +8119,8 @@
       <c r="D5" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="20"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -8147,8 +8147,8 @@
       <c r="D6" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="21"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="43"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -8175,8 +8175,8 @@
       <c r="D7" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="21"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="43"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -8203,8 +8203,8 @@
       <c r="D8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="22"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="44"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -8232,7 +8232,7 @@
         <v>176</v>
       </c>
       <c r="E9" s="17"/>
-      <c r="F9" s="20"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -8260,7 +8260,7 @@
         <v>108</v>
       </c>
       <c r="E10" s="18"/>
-      <c r="F10" s="21"/>
+      <c r="F10" s="43"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -8288,7 +8288,7 @@
         <v>177</v>
       </c>
       <c r="E11" s="18"/>
-      <c r="F11" s="21"/>
+      <c r="F11" s="43"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -8316,7 +8316,7 @@
         <v>179</v>
       </c>
       <c r="E12" s="19"/>
-      <c r="F12" s="22"/>
+      <c r="F12" s="44"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -8343,8 +8343,8 @@
       <c r="D13" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="20"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="42"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -8371,8 +8371,8 @@
       <c r="D14" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="21"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="43"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -8399,8 +8399,8 @@
       <c r="D15" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="21"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="43"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -8427,8 +8427,8 @@
       <c r="D16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="22"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="44"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -8455,8 +8455,8 @@
       <c r="D17" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="20"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="42"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -8483,8 +8483,8 @@
       <c r="D18" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="21"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="43"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -8511,8 +8511,8 @@
       <c r="D19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="21"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="43"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -8539,8 +8539,8 @@
       <c r="D20" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="22"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="44"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -8567,8 +8567,8 @@
       <c r="D21" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="20"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="42"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -8595,8 +8595,8 @@
       <c r="D22" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="21"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="43"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -8623,8 +8623,8 @@
       <c r="D23" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="21"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="43"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -8651,8 +8651,8 @@
       <c r="D24" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="22"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="44"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -8679,8 +8679,8 @@
       <c r="D25" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="20"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="42"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -8707,8 +8707,8 @@
       <c r="D26" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="21"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="43"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -8735,8 +8735,8 @@
       <c r="D27" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="21"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="43"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -8763,8 +8763,8 @@
       <c r="D28" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="22"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="44"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -8791,8 +8791,8 @@
       <c r="D29" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="23"/>
-      <c r="F29" s="20"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="42"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
@@ -8819,8 +8819,8 @@
       <c r="D30" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="21"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="43"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -8847,8 +8847,8 @@
       <c r="D31" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="21"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="43"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -8875,8 +8875,8 @@
       <c r="D32" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="22"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="44"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
@@ -8903,8 +8903,8 @@
       <c r="D33" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="23"/>
-      <c r="F33" s="20"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="42"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
@@ -8931,8 +8931,8 @@
       <c r="D34" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="21"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="43"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
@@ -8959,8 +8959,8 @@
       <c r="D35" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="24"/>
-      <c r="F35" s="21"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="43"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
@@ -8987,8 +8987,8 @@
       <c r="D36" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="22"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="44"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
@@ -9015,8 +9015,8 @@
       <c r="D37" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E37" s="23"/>
-      <c r="F37" s="20"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="42"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -9043,8 +9043,8 @@
       <c r="D38" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="21"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="43"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
@@ -9071,8 +9071,8 @@
       <c r="D39" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E39" s="24"/>
-      <c r="F39" s="21"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="43"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -9099,8 +9099,8 @@
       <c r="D40" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E40" s="25"/>
-      <c r="F40" s="22"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="44"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -9127,8 +9127,8 @@
       <c r="D41" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="20"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="42"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
@@ -9155,8 +9155,8 @@
       <c r="D42" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="21"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="43"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -9183,8 +9183,8 @@
       <c r="D43" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="21"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="43"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
@@ -9211,8 +9211,8 @@
       <c r="D44" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E44" s="25"/>
-      <c r="F44" s="22"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="44"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
@@ -9239,8 +9239,8 @@
       <c r="D45" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E45" s="23"/>
-      <c r="F45" s="20"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="42"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
@@ -9267,8 +9267,8 @@
       <c r="D46" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="21"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="43"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
@@ -9295,8 +9295,8 @@
       <c r="D47" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="21"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="43"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
@@ -9323,8 +9323,8 @@
       <c r="D48" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E48" s="25"/>
-      <c r="F48" s="22"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="44"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
@@ -9351,8 +9351,8 @@
       <c r="D49" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="E49" s="23"/>
-      <c r="F49" s="20"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="42"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
@@ -9379,8 +9379,8 @@
       <c r="D50" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E50" s="24"/>
-      <c r="F50" s="21"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="43"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
@@ -9407,8 +9407,8 @@
       <c r="D51" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E51" s="24"/>
-      <c r="F51" s="21"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="43"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
@@ -9435,8 +9435,8 @@
       <c r="D52" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E52" s="25"/>
-      <c r="F52" s="22"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="44"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>

--- a/Grade 2018/ProjectScores/NIIT-Project-Score-YC-2018.xlsx
+++ b/Grade 2018/ProjectScores/NIIT-Project-Score-YC-2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="CS1" sheetId="4" r:id="rId1"/>
@@ -2450,8 +2450,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Y51"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="E28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="69.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2460,11 +2460,11 @@
     <col min="2" max="2" width="25.109375" customWidth="1"/>
     <col min="3" max="4" width="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.33203125" customWidth="1"/>
-    <col min="6" max="6" width="35.109375" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
     <col min="7" max="7" width="17.88671875" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="17.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="33.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" style="1" customWidth="1"/>
     <col min="11" max="11" width="19.77734375" style="1" customWidth="1"/>
     <col min="12" max="12" width="20.5546875" style="1" customWidth="1"/>
     <col min="13" max="13" width="99.44140625" style="1" customWidth="1"/>
@@ -2604,7 +2604,7 @@
         <v>19</v>
       </c>
       <c r="H5" s="21">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I5" s="21">
         <v>19</v>
@@ -2613,11 +2613,11 @@
         <v>18</v>
       </c>
       <c r="K5" s="21">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L5" s="5">
         <f>SUM(G5:K5)</f>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="3"/>
@@ -2642,7 +2642,7 @@
         <v>19</v>
       </c>
       <c r="H6" s="21">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I6" s="21">
         <v>19</v>
@@ -2651,11 +2651,11 @@
         <v>18</v>
       </c>
       <c r="K6" s="21">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L6" s="5">
         <f t="shared" ref="L6:L51" si="0">SUM(G6:K6)</f>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="3"/>
@@ -2680,7 +2680,7 @@
         <v>19</v>
       </c>
       <c r="H7" s="21">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I7" s="21">
         <v>19</v>
@@ -2689,11 +2689,11 @@
         <v>18</v>
       </c>
       <c r="K7" s="21">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L7" s="5">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="3"/>
@@ -2718,7 +2718,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="21">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I8" s="21">
         <v>19</v>
@@ -2727,11 +2727,11 @@
         <v>18</v>
       </c>
       <c r="K8" s="21">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L8" s="5">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="3"/>
@@ -2756,7 +2756,7 @@
         <v>19</v>
       </c>
       <c r="H9" s="21">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I9" s="21">
         <v>19</v>
@@ -2765,11 +2765,11 @@
         <v>18</v>
       </c>
       <c r="K9" s="21">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L9" s="5">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="3"/>
@@ -2795,23 +2795,22 @@
         <v>227</v>
       </c>
       <c r="G10" s="21">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H10" s="21">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I10" s="21">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J10" s="21">
         <v>16</v>
       </c>
       <c r="K10" s="21">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L10" s="5">
-        <f t="shared" si="0"/>
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="3"/>
@@ -2833,23 +2832,23 @@
       <c r="E11" s="26"/>
       <c r="F11" s="28"/>
       <c r="G11" s="21">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H11" s="21">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I11" s="21">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J11" s="21">
         <v>16</v>
       </c>
       <c r="K11" s="21">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L11" s="5">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="3"/>
@@ -2871,23 +2870,23 @@
       <c r="E12" s="26"/>
       <c r="F12" s="28"/>
       <c r="G12" s="21">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H12" s="21">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I12" s="21">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J12" s="21">
         <v>16</v>
       </c>
       <c r="K12" s="21">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L12" s="5">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="3"/>
@@ -2909,23 +2908,23 @@
       <c r="E13" s="26"/>
       <c r="F13" s="28"/>
       <c r="G13" s="21">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H13" s="21">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I13" s="21">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J13" s="21">
         <v>16</v>
       </c>
       <c r="K13" s="21">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L13" s="5">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="3"/>
@@ -2947,23 +2946,23 @@
       <c r="E14" s="27"/>
       <c r="F14" s="28"/>
       <c r="G14" s="21">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H14" s="21">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I14" s="21">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J14" s="21">
         <v>16</v>
       </c>
       <c r="K14" s="21">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L14" s="5">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="M14" s="6"/>
       <c r="N14" s="3"/>
@@ -2989,10 +2988,10 @@
         <v>239</v>
       </c>
       <c r="G15" s="21">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H15" s="21">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I15" s="21">
         <v>16</v>
@@ -3001,11 +3000,11 @@
         <v>15</v>
       </c>
       <c r="K15" s="21">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L15" s="5">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="M15" s="6"/>
       <c r="N15" s="3"/>
@@ -3027,10 +3026,10 @@
       <c r="E16" s="26"/>
       <c r="F16" s="28"/>
       <c r="G16" s="21">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H16" s="21">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I16" s="21">
         <v>16</v>
@@ -3039,11 +3038,11 @@
         <v>15</v>
       </c>
       <c r="K16" s="21">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L16" s="5">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="M16" s="6"/>
       <c r="N16" s="3"/>
@@ -3065,10 +3064,10 @@
       <c r="E17" s="26"/>
       <c r="F17" s="28"/>
       <c r="G17" s="21">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H17" s="21">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I17" s="21">
         <v>16</v>
@@ -3077,11 +3076,11 @@
         <v>15</v>
       </c>
       <c r="K17" s="21">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L17" s="5">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="3"/>
@@ -3103,10 +3102,10 @@
       <c r="E18" s="26"/>
       <c r="F18" s="28"/>
       <c r="G18" s="21">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H18" s="21">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I18" s="21">
         <v>16</v>
@@ -3115,11 +3114,11 @@
         <v>15</v>
       </c>
       <c r="K18" s="21">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L18" s="5">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="M18" s="6"/>
       <c r="N18" s="3"/>
@@ -3141,10 +3140,10 @@
       <c r="E19" s="27"/>
       <c r="F19" s="28"/>
       <c r="G19" s="21">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H19" s="21">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I19" s="21">
         <v>16</v>
@@ -3153,11 +3152,11 @@
         <v>15</v>
       </c>
       <c r="K19" s="21">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L19" s="5">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="M19" s="6"/>
       <c r="N19" s="3"/>
@@ -3183,23 +3182,23 @@
         <v>251</v>
       </c>
       <c r="G20" s="21">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H20" s="21">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I20" s="21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J20" s="21">
         <v>15</v>
       </c>
       <c r="K20" s="21">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L20" s="5">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="M20" s="6"/>
       <c r="N20" s="3"/>
@@ -3221,23 +3220,23 @@
       <c r="E21" s="26"/>
       <c r="F21" s="28"/>
       <c r="G21" s="21">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H21" s="21">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I21" s="21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J21" s="21">
         <v>15</v>
       </c>
       <c r="K21" s="21">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L21" s="5">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="M21" s="6"/>
       <c r="N21" s="3"/>
@@ -3259,23 +3258,23 @@
       <c r="E22" s="26"/>
       <c r="F22" s="28"/>
       <c r="G22" s="21">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H22" s="21">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I22" s="21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J22" s="21">
         <v>15</v>
       </c>
       <c r="K22" s="21">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L22" s="5">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="M22" s="6"/>
       <c r="N22" s="3"/>
@@ -3297,10 +3296,10 @@
       <c r="E23" s="27"/>
       <c r="F23" s="28"/>
       <c r="G23" s="21">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H23" s="21">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I23" s="21">
         <v>16</v>
@@ -3309,11 +3308,11 @@
         <v>15</v>
       </c>
       <c r="K23" s="21">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L23" s="5">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="M23" s="6"/>
       <c r="N23" s="3"/>
@@ -3339,10 +3338,10 @@
         <v>261</v>
       </c>
       <c r="G24" s="21">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H24" s="21">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I24" s="21">
         <v>17</v>
@@ -3351,11 +3350,11 @@
         <v>16</v>
       </c>
       <c r="K24" s="21">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L24" s="5">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="M24" s="6"/>
       <c r="N24" s="3"/>
@@ -3377,10 +3376,10 @@
       <c r="E25" s="26"/>
       <c r="F25" s="28"/>
       <c r="G25" s="21">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H25" s="21">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I25" s="21">
         <v>17</v>
@@ -3389,11 +3388,11 @@
         <v>16</v>
       </c>
       <c r="K25" s="21">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L25" s="5">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="M25" s="6"/>
       <c r="N25" s="3"/>
@@ -3415,10 +3414,10 @@
       <c r="E26" s="26"/>
       <c r="F26" s="28"/>
       <c r="G26" s="21">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H26" s="21">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I26" s="21">
         <v>17</v>
@@ -3427,10 +3426,10 @@
         <v>16</v>
       </c>
       <c r="K26" s="21">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L26" s="5">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="3"/>
@@ -3452,10 +3451,10 @@
       <c r="E27" s="27"/>
       <c r="F27" s="28"/>
       <c r="G27" s="21">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H27" s="21">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I27" s="21">
         <v>17</v>
@@ -3464,11 +3463,11 @@
         <v>16</v>
       </c>
       <c r="K27" s="21">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L27" s="5">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="M27" s="6"/>
       <c r="N27" s="3"/>
@@ -3494,7 +3493,7 @@
         <v>251</v>
       </c>
       <c r="G28" s="21">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H28" s="21">
         <v>16</v>
@@ -3503,14 +3502,14 @@
         <v>17</v>
       </c>
       <c r="J28" s="21">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K28" s="21">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L28" s="5">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M28" s="6"/>
       <c r="N28" s="3"/>
@@ -3532,7 +3531,7 @@
       <c r="E29" s="26"/>
       <c r="F29" s="34"/>
       <c r="G29" s="21">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H29" s="21">
         <v>16</v>
@@ -3541,14 +3540,14 @@
         <v>17</v>
       </c>
       <c r="J29" s="21">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K29" s="21">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L29" s="5">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M29" s="6"/>
       <c r="N29" s="3"/>
@@ -3570,7 +3569,7 @@
       <c r="E30" s="26"/>
       <c r="F30" s="34"/>
       <c r="G30" s="21">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H30" s="21">
         <v>16</v>
@@ -3579,14 +3578,14 @@
         <v>17</v>
       </c>
       <c r="J30" s="21">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K30" s="21">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L30" s="5">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M30" s="6"/>
       <c r="N30" s="3"/>
@@ -3608,7 +3607,7 @@
       <c r="E31" s="27"/>
       <c r="F31" s="34"/>
       <c r="G31" s="21">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H31" s="21">
         <v>16</v>
@@ -3617,14 +3616,14 @@
         <v>17</v>
       </c>
       <c r="J31" s="21">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K31" s="21">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L31" s="5">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M31" s="6"/>
       <c r="N31" s="3"/>
@@ -3650,23 +3649,23 @@
         <v>215</v>
       </c>
       <c r="G32" s="21">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H32" s="21">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I32" s="21">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J32" s="21">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K32" s="21">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L32" s="5">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="M32" s="6"/>
       <c r="N32" s="3"/>
@@ -3688,23 +3687,23 @@
       <c r="E33" s="26"/>
       <c r="F33" s="28"/>
       <c r="G33" s="21">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H33" s="21">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I33" s="21">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J33" s="21">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K33" s="21">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L33" s="5">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="M33" s="6"/>
       <c r="N33" s="3"/>
@@ -3726,23 +3725,23 @@
       <c r="E34" s="26"/>
       <c r="F34" s="28"/>
       <c r="G34" s="21">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H34" s="21">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I34" s="21">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J34" s="21">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K34" s="21">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L34" s="5">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="M34" s="6"/>
       <c r="N34" s="3"/>
@@ -3764,23 +3763,23 @@
       <c r="E35" s="27"/>
       <c r="F35" s="28"/>
       <c r="G35" s="21">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H35" s="21">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I35" s="21">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J35" s="21">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K35" s="21">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L35" s="5">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="M35" s="6"/>
       <c r="N35" s="3"/>
@@ -3806,23 +3805,23 @@
         <v>227</v>
       </c>
       <c r="G36" s="21">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H36" s="21">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I36" s="21">
         <v>16</v>
       </c>
       <c r="J36" s="21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K36" s="21">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L36" s="5">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="M36" s="6"/>
       <c r="N36" s="3"/>
@@ -3844,23 +3843,23 @@
       <c r="E37" s="26"/>
       <c r="F37" s="28"/>
       <c r="G37" s="21">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H37" s="21">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I37" s="21">
         <v>16</v>
       </c>
       <c r="J37" s="21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K37" s="21">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L37" s="5">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="M37" s="6"/>
       <c r="N37" s="3"/>
@@ -3882,23 +3881,23 @@
       <c r="E38" s="26"/>
       <c r="F38" s="28"/>
       <c r="G38" s="21">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H38" s="21">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I38" s="21">
         <v>16</v>
       </c>
       <c r="J38" s="21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K38" s="21">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L38" s="5">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="M38" s="6"/>
       <c r="N38" s="3"/>
@@ -3920,23 +3919,23 @@
       <c r="E39" s="27"/>
       <c r="F39" s="28"/>
       <c r="G39" s="21">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H39" s="21">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I39" s="21">
         <v>16</v>
       </c>
       <c r="J39" s="21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K39" s="21">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L39" s="5">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="M39" s="6"/>
       <c r="N39" s="3"/>
@@ -3962,23 +3961,23 @@
         <v>298</v>
       </c>
       <c r="G40" s="21">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H40" s="21">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I40" s="21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J40" s="21">
         <v>15</v>
       </c>
       <c r="K40" s="21">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L40" s="5">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="M40" s="6"/>
       <c r="N40" s="3"/>
@@ -4000,23 +3999,23 @@
       <c r="E41" s="26"/>
       <c r="F41" s="28"/>
       <c r="G41" s="21">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H41" s="21">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I41" s="21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J41" s="21">
         <v>15</v>
       </c>
       <c r="K41" s="21">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L41" s="5">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="M41" s="6"/>
       <c r="N41" s="3"/>
@@ -4038,23 +4037,23 @@
       <c r="E42" s="26"/>
       <c r="F42" s="28"/>
       <c r="G42" s="21">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H42" s="21">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I42" s="21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J42" s="21">
         <v>15</v>
       </c>
       <c r="K42" s="21">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L42" s="5">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="M42" s="6"/>
       <c r="N42" s="3"/>
@@ -4076,23 +4075,23 @@
       <c r="E43" s="27"/>
       <c r="F43" s="28"/>
       <c r="G43" s="21">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H43" s="21">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I43" s="21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J43" s="21">
         <v>15</v>
       </c>
       <c r="K43" s="21">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L43" s="5">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="M43" s="6"/>
       <c r="N43" s="3"/>
@@ -4118,23 +4117,23 @@
         <v>308</v>
       </c>
       <c r="G44" s="21">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H44" s="21">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I44" s="21">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J44" s="21">
         <v>16</v>
       </c>
       <c r="K44" s="21">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L44" s="5">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="M44" s="6"/>
       <c r="N44" s="3"/>
@@ -4156,23 +4155,23 @@
       <c r="E45" s="26"/>
       <c r="F45" s="28"/>
       <c r="G45" s="21">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H45" s="21">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I45" s="21">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J45" s="21">
         <v>16</v>
       </c>
       <c r="K45" s="21">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L45" s="5">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="M45" s="6"/>
       <c r="N45" s="3"/>
@@ -4194,23 +4193,23 @@
       <c r="E46" s="26"/>
       <c r="F46" s="28"/>
       <c r="G46" s="21">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H46" s="21">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I46" s="21">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J46" s="21">
         <v>16</v>
       </c>
       <c r="K46" s="21">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L46" s="5">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="M46" s="6"/>
       <c r="N46" s="3"/>
@@ -4232,23 +4231,23 @@
       <c r="E47" s="27"/>
       <c r="F47" s="28"/>
       <c r="G47" s="21">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H47" s="21">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I47" s="21">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J47" s="21">
         <v>16</v>
       </c>
       <c r="K47" s="21">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L47" s="5">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="M47" s="6"/>
       <c r="N47" s="3"/>
@@ -4274,10 +4273,10 @@
         <v>317</v>
       </c>
       <c r="G48" s="21">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H48" s="21">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I48" s="21">
         <v>16</v>
@@ -4286,11 +4285,11 @@
         <v>15</v>
       </c>
       <c r="K48" s="21">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L48" s="5">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="M48" s="6"/>
       <c r="N48" s="3"/>
@@ -4312,10 +4311,10 @@
       <c r="E49" s="26"/>
       <c r="F49" s="28"/>
       <c r="G49" s="21">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H49" s="21">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I49" s="21">
         <v>16</v>
@@ -4324,11 +4323,11 @@
         <v>15</v>
       </c>
       <c r="K49" s="21">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L49" s="5">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="M49" s="6"/>
       <c r="N49" s="3"/>
@@ -4350,10 +4349,10 @@
       <c r="E50" s="26"/>
       <c r="F50" s="28"/>
       <c r="G50" s="21">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H50" s="21">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I50" s="21">
         <v>16</v>
@@ -4362,11 +4361,11 @@
         <v>15</v>
       </c>
       <c r="K50" s="21">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L50" s="5">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="M50" s="6"/>
       <c r="N50" s="3"/>
@@ -4388,10 +4387,10 @@
       <c r="E51" s="27"/>
       <c r="F51" s="28"/>
       <c r="G51" s="21">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H51" s="21">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I51" s="21">
         <v>16</v>
@@ -4400,11 +4399,11 @@
         <v>15</v>
       </c>
       <c r="K51" s="21">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L51" s="5">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="M51" s="6"/>
       <c r="N51" s="3"/>
@@ -4452,8 +4451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD21"/>
+    <sheetView topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="69.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4463,12 +4462,12 @@
     <col min="3" max="4" width="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.44140625" customWidth="1"/>
     <col min="6" max="6" width="25.44140625" customWidth="1"/>
-    <col min="7" max="7" width="24.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="47.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.5546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12" style="1" customWidth="1"/>
     <col min="13" max="13" width="99.44140625" style="1" customWidth="1"/>
     <col min="14" max="14" width="14.5546875" style="1" customWidth="1"/>
     <col min="15" max="15" width="23.21875" style="1" customWidth="1"/>
@@ -4536,7 +4535,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="87" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>207</v>
       </c>
@@ -4603,23 +4602,23 @@
         <v>328</v>
       </c>
       <c r="G5" s="20">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H5" s="20">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I5" s="20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J5" s="20">
         <v>16</v>
       </c>
       <c r="K5" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L5" s="5">
         <f>SUM(G5:K5)</f>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="3"/>
@@ -4641,23 +4640,23 @@
       <c r="E6" s="36"/>
       <c r="F6" s="38"/>
       <c r="G6" s="20">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H6" s="20">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I6" s="20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J6" s="20">
         <v>16</v>
       </c>
       <c r="K6" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L6" s="5">
         <f t="shared" ref="L6:L51" si="0">SUM(G6:K6)</f>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="3"/>
@@ -4679,23 +4678,23 @@
       <c r="E7" s="36"/>
       <c r="F7" s="38"/>
       <c r="G7" s="20">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H7" s="20">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I7" s="20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J7" s="20">
         <v>16</v>
       </c>
       <c r="K7" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L7" s="5">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="3"/>
@@ -4717,23 +4716,23 @@
       <c r="E8" s="37"/>
       <c r="F8" s="38"/>
       <c r="G8" s="20">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H8" s="20">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I8" s="20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J8" s="20">
         <v>16</v>
       </c>
       <c r="K8" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L8" s="5">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="3"/>
@@ -4759,10 +4758,10 @@
         <v>337</v>
       </c>
       <c r="G9" s="20">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H9" s="20">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I9" s="20">
         <v>17</v>
@@ -4771,11 +4770,11 @@
         <v>16</v>
       </c>
       <c r="K9" s="20">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L9" s="5">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="3"/>
@@ -4797,23 +4796,23 @@
       <c r="E10" s="36"/>
       <c r="F10" s="38"/>
       <c r="G10" s="20">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H10" s="20">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I10" s="20">
         <v>17</v>
       </c>
       <c r="J10" s="20">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K10" s="20">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L10" s="5">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="3"/>
@@ -4835,23 +4834,23 @@
       <c r="E11" s="36"/>
       <c r="F11" s="38"/>
       <c r="G11" s="20">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H11" s="20">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I11" s="20">
         <v>17</v>
       </c>
       <c r="J11" s="20">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K11" s="20">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L11" s="5">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="3"/>
@@ -4873,23 +4872,23 @@
       <c r="E12" s="37"/>
       <c r="F12" s="38"/>
       <c r="G12" s="20">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H12" s="20">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I12" s="20">
         <v>17</v>
       </c>
       <c r="J12" s="20">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K12" s="20">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L12" s="5">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="3"/>
@@ -4915,7 +4914,7 @@
         <v>347</v>
       </c>
       <c r="G13" s="20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H13" s="20">
         <v>18</v>
@@ -4927,11 +4926,11 @@
         <v>18</v>
       </c>
       <c r="K13" s="20">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L13" s="5">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="3"/>
@@ -4953,7 +4952,7 @@
       <c r="E14" s="36"/>
       <c r="F14" s="38"/>
       <c r="G14" s="20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H14" s="20">
         <v>18</v>
@@ -4965,11 +4964,11 @@
         <v>18</v>
       </c>
       <c r="K14" s="20">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L14" s="5">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M14" s="6"/>
       <c r="N14" s="3"/>
@@ -4991,7 +4990,7 @@
       <c r="E15" s="36"/>
       <c r="F15" s="38"/>
       <c r="G15" s="20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H15" s="20">
         <v>18</v>
@@ -5003,11 +5002,11 @@
         <v>18</v>
       </c>
       <c r="K15" s="20">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L15" s="5">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M15" s="6"/>
       <c r="N15" s="3"/>
@@ -5029,7 +5028,7 @@
       <c r="E16" s="36"/>
       <c r="F16" s="38"/>
       <c r="G16" s="20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H16" s="20">
         <v>18</v>
@@ -5041,11 +5040,11 @@
         <v>18</v>
       </c>
       <c r="K16" s="20">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L16" s="5">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M16" s="6"/>
       <c r="N16" s="3"/>
@@ -5067,7 +5066,7 @@
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
       <c r="G17" s="20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H17" s="20">
         <v>18</v>
@@ -5079,11 +5078,11 @@
         <v>18</v>
       </c>
       <c r="K17" s="20">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L17" s="5">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="3"/>
@@ -5109,23 +5108,23 @@
         <v>359</v>
       </c>
       <c r="G18" s="20">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H18" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I18" s="20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J18" s="20">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K18" s="20">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L18" s="5">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="M18" s="6"/>
       <c r="N18" s="3"/>
@@ -5147,23 +5146,23 @@
       <c r="E19" s="36"/>
       <c r="F19" s="38"/>
       <c r="G19" s="20">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H19" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I19" s="20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J19" s="20">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K19" s="20">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L19" s="5">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="M19" s="6"/>
       <c r="N19" s="3"/>
@@ -5185,23 +5184,23 @@
       <c r="E20" s="36"/>
       <c r="F20" s="38"/>
       <c r="G20" s="20">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H20" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I20" s="20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J20" s="20">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K20" s="20">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L20" s="5">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="M20" s="6"/>
       <c r="N20" s="3"/>
@@ -5223,23 +5222,23 @@
       <c r="E21" s="37"/>
       <c r="F21" s="38"/>
       <c r="G21" s="20">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H21" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I21" s="20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J21" s="20">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K21" s="20">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L21" s="5">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="M21" s="6"/>
       <c r="N21" s="3"/>
@@ -5265,10 +5264,10 @@
         <v>328</v>
       </c>
       <c r="G22" s="20">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H22" s="20">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I22" s="20">
         <v>18</v>
@@ -5277,11 +5276,11 @@
         <v>16</v>
       </c>
       <c r="K22" s="20">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L22" s="5">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="M22" s="6"/>
       <c r="N22" s="3"/>
@@ -5303,10 +5302,10 @@
       <c r="E23" s="36"/>
       <c r="F23" s="38"/>
       <c r="G23" s="20">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H23" s="20">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I23" s="20">
         <v>18</v>
@@ -5315,11 +5314,11 @@
         <v>16</v>
       </c>
       <c r="K23" s="20">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L23" s="5">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="M23" s="6"/>
       <c r="N23" s="3"/>
@@ -5341,10 +5340,10 @@
       <c r="E24" s="36"/>
       <c r="F24" s="38"/>
       <c r="G24" s="20">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H24" s="20">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I24" s="20">
         <v>18</v>
@@ -5353,11 +5352,11 @@
         <v>16</v>
       </c>
       <c r="K24" s="20">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L24" s="5">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="M24" s="6"/>
       <c r="N24" s="3"/>
@@ -5379,10 +5378,10 @@
       <c r="E25" s="37"/>
       <c r="F25" s="38"/>
       <c r="G25" s="20">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H25" s="20">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I25" s="20">
         <v>18</v>
@@ -5391,11 +5390,11 @@
         <v>16</v>
       </c>
       <c r="K25" s="20">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L25" s="5">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="M25" s="6"/>
       <c r="N25" s="3"/>
@@ -5421,23 +5420,23 @@
         <v>359</v>
       </c>
       <c r="G26" s="20">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H26" s="20">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I26" s="20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J26" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K26" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L26" s="5">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="3"/>
@@ -5459,23 +5458,23 @@
       <c r="E27" s="36"/>
       <c r="F27" s="38"/>
       <c r="G27" s="20">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H27" s="20">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I27" s="20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J27" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K27" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L27" s="5">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="M27" s="6"/>
       <c r="N27" s="3"/>
@@ -5497,23 +5496,23 @@
       <c r="E28" s="36"/>
       <c r="F28" s="38"/>
       <c r="G28" s="20">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H28" s="20">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I28" s="20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J28" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K28" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L28" s="5">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="M28" s="6"/>
       <c r="N28" s="3"/>
@@ -5535,23 +5534,23 @@
       <c r="E29" s="37"/>
       <c r="F29" s="38"/>
       <c r="G29" s="20">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H29" s="20">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I29" s="20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J29" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K29" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L29" s="5">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="M29" s="6"/>
       <c r="N29" s="3"/>
@@ -5577,23 +5576,23 @@
         <v>347</v>
       </c>
       <c r="G30" s="20">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H30" s="20">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I30" s="20">
         <v>15</v>
       </c>
       <c r="J30" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K30" s="20">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L30" s="5">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="M30" s="6"/>
       <c r="N30" s="3"/>
@@ -5615,23 +5614,23 @@
       <c r="E31" s="36"/>
       <c r="F31" s="38"/>
       <c r="G31" s="20">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H31" s="20">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I31" s="20">
         <v>15</v>
       </c>
       <c r="J31" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K31" s="20">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L31" s="5">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="M31" s="6"/>
       <c r="N31" s="3"/>
@@ -5653,23 +5652,23 @@
       <c r="E32" s="36"/>
       <c r="F32" s="38"/>
       <c r="G32" s="20">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H32" s="20">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I32" s="20">
         <v>15</v>
       </c>
       <c r="J32" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K32" s="20">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L32" s="5">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="M32" s="6"/>
       <c r="N32" s="3"/>
@@ -5691,23 +5690,23 @@
       <c r="E33" s="36"/>
       <c r="F33" s="38"/>
       <c r="G33" s="20">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H33" s="20">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I33" s="20">
         <v>15</v>
       </c>
       <c r="J33" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K33" s="20">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L33" s="5">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="M33" s="6"/>
       <c r="N33" s="3"/>
@@ -5729,23 +5728,23 @@
       <c r="E34" s="37"/>
       <c r="F34" s="38"/>
       <c r="G34" s="20">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H34" s="20">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I34" s="20">
         <v>15</v>
       </c>
       <c r="J34" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K34" s="20">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L34" s="5">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="M34" s="6"/>
       <c r="N34" s="3"/>
@@ -5771,10 +5770,10 @@
         <v>337</v>
       </c>
       <c r="G35" s="20">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H35" s="20">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I35" s="20">
         <v>16</v>
@@ -5783,11 +5782,11 @@
         <v>13</v>
       </c>
       <c r="K35" s="20">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L35" s="5">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="M35" s="6"/>
       <c r="N35" s="3"/>
@@ -5809,10 +5808,10 @@
       <c r="E36" s="36"/>
       <c r="F36" s="38"/>
       <c r="G36" s="20">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H36" s="20">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I36" s="20">
         <v>16</v>
@@ -5821,11 +5820,11 @@
         <v>13</v>
       </c>
       <c r="K36" s="20">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L36" s="5">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="M36" s="6"/>
       <c r="N36" s="3"/>
@@ -5847,10 +5846,10 @@
       <c r="E37" s="36"/>
       <c r="F37" s="38"/>
       <c r="G37" s="20">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H37" s="20">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I37" s="20">
         <v>16</v>
@@ -5859,11 +5858,11 @@
         <v>13</v>
       </c>
       <c r="K37" s="20">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L37" s="5">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="M37" s="6"/>
       <c r="N37" s="3"/>
@@ -5885,10 +5884,10 @@
       <c r="E38" s="37"/>
       <c r="F38" s="38"/>
       <c r="G38" s="20">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H38" s="20">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I38" s="20">
         <v>16</v>
@@ -5897,11 +5896,11 @@
         <v>13</v>
       </c>
       <c r="K38" s="20">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L38" s="5">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="M38" s="6"/>
       <c r="N38" s="3"/>
@@ -5927,23 +5926,23 @@
         <v>407</v>
       </c>
       <c r="G39" s="20">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H39" s="20">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I39" s="20">
         <v>16</v>
       </c>
       <c r="J39" s="20">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K39" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L39" s="5">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="M39" s="6"/>
       <c r="N39" s="3"/>
@@ -5965,23 +5964,23 @@
       <c r="E40" s="36"/>
       <c r="F40" s="38"/>
       <c r="G40" s="20">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H40" s="20">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I40" s="20">
         <v>16</v>
       </c>
       <c r="J40" s="20">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K40" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L40" s="5">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="M40" s="6"/>
       <c r="N40" s="3"/>
@@ -6003,23 +6002,23 @@
       <c r="E41" s="36"/>
       <c r="F41" s="38"/>
       <c r="G41" s="20">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H41" s="20">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I41" s="20">
         <v>16</v>
       </c>
       <c r="J41" s="20">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K41" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L41" s="5">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="M41" s="6"/>
       <c r="N41" s="3"/>
@@ -6041,23 +6040,23 @@
       <c r="E42" s="36"/>
       <c r="F42" s="38"/>
       <c r="G42" s="20">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H42" s="20">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I42" s="20">
         <v>16</v>
       </c>
       <c r="J42" s="20">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K42" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L42" s="5">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="M42" s="6"/>
       <c r="N42" s="3"/>
@@ -6079,23 +6078,23 @@
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
       <c r="G43" s="20">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H43" s="20">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I43" s="20">
         <v>16</v>
       </c>
       <c r="J43" s="20">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K43" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L43" s="5">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="M43" s="6"/>
       <c r="N43" s="3"/>
@@ -6121,23 +6120,23 @@
         <v>419</v>
       </c>
       <c r="G44" s="20">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H44" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I44" s="20">
         <v>16</v>
       </c>
       <c r="J44" s="20">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K44" s="20">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L44" s="5">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="M44" s="6"/>
       <c r="N44" s="3"/>
@@ -6159,23 +6158,23 @@
       <c r="E45" s="36"/>
       <c r="F45" s="38"/>
       <c r="G45" s="20">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H45" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I45" s="20">
         <v>16</v>
       </c>
       <c r="J45" s="20">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K45" s="20">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L45" s="5">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="M45" s="6"/>
       <c r="N45" s="3"/>
@@ -6197,23 +6196,23 @@
       <c r="E46" s="36"/>
       <c r="F46" s="38"/>
       <c r="G46" s="20">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H46" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I46" s="20">
         <v>16</v>
       </c>
       <c r="J46" s="20">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K46" s="20">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L46" s="5">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="M46" s="6"/>
       <c r="N46" s="3"/>
@@ -6235,23 +6234,23 @@
       <c r="E47" s="37"/>
       <c r="F47" s="38"/>
       <c r="G47" s="20">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H47" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I47" s="20">
         <v>16</v>
       </c>
       <c r="J47" s="20">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K47" s="20">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L47" s="5">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="M47" s="6"/>
       <c r="N47" s="3"/>
@@ -6277,23 +6276,23 @@
         <v>419</v>
       </c>
       <c r="G48" s="20">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H48" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I48" s="20">
         <v>15</v>
       </c>
       <c r="J48" s="20">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K48" s="20">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L48" s="5">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="M48" s="6"/>
       <c r="N48" s="3"/>
@@ -6315,23 +6314,23 @@
       <c r="E49" s="36"/>
       <c r="F49" s="38"/>
       <c r="G49" s="20">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H49" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I49" s="20">
         <v>15</v>
       </c>
       <c r="J49" s="20">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K49" s="20">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L49" s="5">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="M49" s="6"/>
       <c r="N49" s="3"/>
@@ -6353,23 +6352,23 @@
       <c r="E50" s="36"/>
       <c r="F50" s="38"/>
       <c r="G50" s="20">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H50" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I50" s="20">
         <v>15</v>
       </c>
       <c r="J50" s="20">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K50" s="20">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L50" s="5">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="M50" s="6"/>
       <c r="N50" s="3"/>
@@ -6391,23 +6390,23 @@
       <c r="E51" s="37"/>
       <c r="F51" s="38"/>
       <c r="G51" s="20">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H51" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I51" s="20">
         <v>15</v>
       </c>
       <c r="J51" s="20">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K51" s="20">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L51" s="5">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="M51" s="6"/>
       <c r="N51" s="3"/>
@@ -7986,12 +7985,12 @@
     <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.5546875" customWidth="1"/>
-    <col min="7" max="7" width="24.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="47.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.77734375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="44.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="50.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="31.21875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="99.44140625" style="1" customWidth="1"/>
     <col min="14" max="14" width="14.5546875" style="1" customWidth="1"/>
     <col min="15" max="15" width="23.21875" style="1" customWidth="1"/>
